--- a/Tests/UnderReview/SoilTemperature/Observed/ForestHillWheatObserved.xlsx
+++ b/Tests/UnderReview/SoilTemperature/Observed/ForestHillWheatObserved.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\Repos\ApsimX\Tests\UnderReview\SoilTemperature\Observed\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD5EBD66-F2B2-4BA0-8850-37A6E4276577}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15A8A3EC-3B52-4C88-9EB1-B8EF9DC5254C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28690" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{AB132F13-A725-4DAE-B1FC-95CF16A112E6}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="22">
   <si>
     <t>SimulationName</t>
   </si>
@@ -60,6 +60,48 @@
   </si>
   <si>
     <t>ForestHillWheatLockyer</t>
+  </si>
+  <si>
+    <t>MinSoilTemp@050mm</t>
+  </si>
+  <si>
+    <t>AverageSoilTemp@050mm</t>
+  </si>
+  <si>
+    <t>MaxSoilTemp@050mm</t>
+  </si>
+  <si>
+    <t>MinSoilTemp@150mm</t>
+  </si>
+  <si>
+    <t>AverageSoilTemp@150mm</t>
+  </si>
+  <si>
+    <t>MaxSoilTemp@150mm</t>
+  </si>
+  <si>
+    <t>MinSoilTemp@250mm</t>
+  </si>
+  <si>
+    <t>AverageSoilTemp@250mm</t>
+  </si>
+  <si>
+    <t>MaxSoilTemp@250mm</t>
+  </si>
+  <si>
+    <t>AverageSoilTemp@350mm</t>
+  </si>
+  <si>
+    <t>AverageSoilTemp@450mm</t>
+  </si>
+  <si>
+    <t>AverageSoilTemp@550mm</t>
+  </si>
+  <si>
+    <t>AverageSoilTemp@650mm</t>
+  </si>
+  <si>
+    <t>AverageSoilTemp@750mm</t>
   </si>
 </sst>
 </file>
@@ -118,13 +160,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -459,10 +502,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CAA66A4-B0DA-41F1-BA43-62C9EDA796AC}">
-  <dimension ref="A1:F412"/>
+  <dimension ref="A1:T412"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="Q16" sqref="Q16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -478,9 +521,16 @@
     <col min="9" max="9" width="23.06640625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="19.59765625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="19.86328125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.9296875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.59765625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="22.1328125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18.9296875" bestFit="1" customWidth="1"/>
+    <col min="16" max="18" width="22.1328125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.73046875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="22.1328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -499,8 +549,50 @@
       <c r="F1" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M1" t="s">
+        <v>14</v>
+      </c>
+      <c r="N1" t="s">
+        <v>15</v>
+      </c>
+      <c r="O1" t="s">
+        <v>16</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="S1" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="T1" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -508,7 +600,7 @@
         <v>44762</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -519,7 +611,7 @@
         <v>2.3333333333333335</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -530,7 +622,7 @@
         <v>3.6333333333333333</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -544,7 +636,7 @@
         <v>5.083333333333333</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -555,7 +647,7 @@
         <v>5.9666666666666677</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>2</v>
       </c>
@@ -569,7 +661,7 @@
         <v>6.5333333333333323</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>2</v>
       </c>
@@ -577,7 +669,7 @@
         <v>44795</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>2</v>
       </c>
@@ -591,7 +683,7 @@
         <v>7.4833333333333334</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>2</v>
       </c>
@@ -605,7 +697,7 @@
         <v>8.5833333333333339</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>2</v>
       </c>
@@ -616,7 +708,7 @@
         <v>4.21</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>2</v>
       </c>
@@ -627,7 +719,7 @@
         <v>3.25</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>2</v>
       </c>
@@ -638,7 +730,7 @@
         <v>4.3800000000000008</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>2</v>
       </c>
@@ -649,7 +741,7 @@
         <v>4.49</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>2</v>
       </c>
@@ -657,7 +749,7 @@
         <v>44841</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>2</v>
       </c>
@@ -853,677 +945,6501 @@
         <v>419.59999999999997</v>
       </c>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B33" s="1"/>
-    </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B34" s="1"/>
-    </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B35" s="1"/>
-    </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B36" s="1"/>
-    </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B37" s="1"/>
-    </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B38" s="1"/>
-    </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B39" s="1"/>
-    </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B40" s="1"/>
-    </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B41" s="1"/>
-    </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B42" s="1"/>
-    </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B43" s="1"/>
-    </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B44" s="1"/>
-    </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B45" s="1"/>
-    </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B46" s="1"/>
-    </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B47" s="1"/>
-    </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B48" s="1"/>
-    </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B49" s="1"/>
-    </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B50" s="1"/>
-    </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B51" s="1"/>
-    </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B52" s="1"/>
-    </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B53" s="1"/>
-    </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B54" s="1"/>
-    </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B55" s="1"/>
-    </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B56" s="1"/>
-    </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B57" s="1"/>
-    </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B58" s="1"/>
-    </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B59" s="1"/>
-    </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B60" s="1"/>
-    </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B61" s="1"/>
-    </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B62" s="1"/>
-    </row>
-    <row r="63" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B63" s="1"/>
-    </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B64" s="1"/>
-    </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B65" s="1"/>
-    </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B66" s="1"/>
-    </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B67" s="1"/>
-    </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B68" s="1"/>
-    </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B69" s="1"/>
-    </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B70" s="1"/>
-    </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B71" s="1"/>
-    </row>
-    <row r="72" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B72" s="1"/>
-    </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B73" s="1"/>
-    </row>
-    <row r="74" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B74" s="1"/>
-    </row>
-    <row r="75" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B75" s="1"/>
-    </row>
-    <row r="76" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B76" s="1"/>
-    </row>
-    <row r="77" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B77" s="1"/>
-    </row>
-    <row r="78" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B78" s="1"/>
-    </row>
-    <row r="79" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B79" s="1"/>
-    </row>
-    <row r="80" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B80" s="1"/>
-    </row>
-    <row r="81" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B81" s="1"/>
-    </row>
-    <row r="82" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B82" s="1"/>
-    </row>
-    <row r="83" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B83" s="1"/>
-    </row>
-    <row r="84" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B84" s="1"/>
-    </row>
-    <row r="85" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B85" s="1"/>
-    </row>
-    <row r="86" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B86" s="1"/>
-    </row>
-    <row r="87" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B87" s="1"/>
-    </row>
-    <row r="88" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B88" s="1"/>
-    </row>
-    <row r="89" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B89" s="1"/>
-    </row>
-    <row r="90" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B90" s="1"/>
-    </row>
-    <row r="91" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B91" s="1"/>
-    </row>
-    <row r="92" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B92" s="1"/>
-    </row>
-    <row r="93" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B93" s="1"/>
-    </row>
-    <row r="94" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B94" s="1"/>
-    </row>
-    <row r="95" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B95" s="1"/>
-    </row>
-    <row r="96" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B96" s="1"/>
-    </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B97" s="1"/>
-    </row>
-    <row r="98" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B98" s="1"/>
-    </row>
-    <row r="99" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B99" s="1"/>
-    </row>
-    <row r="100" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B100" s="1"/>
-    </row>
-    <row r="101" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B101" s="1"/>
-    </row>
-    <row r="102" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B102" s="1"/>
-    </row>
-    <row r="103" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B103" s="1"/>
-    </row>
-    <row r="104" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B104" s="1"/>
-    </row>
-    <row r="105" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B105" s="1"/>
-    </row>
-    <row r="106" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B106" s="1"/>
-    </row>
-    <row r="107" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B107" s="1"/>
-    </row>
-    <row r="108" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B108" s="1"/>
-    </row>
-    <row r="109" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B109" s="1"/>
-    </row>
-    <row r="110" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B110" s="1"/>
-    </row>
-    <row r="111" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B111" s="1"/>
-    </row>
-    <row r="112" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B112" s="1"/>
-    </row>
-    <row r="113" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B113" s="1"/>
-    </row>
-    <row r="114" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B114" s="1"/>
-    </row>
-    <row r="115" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B115" s="1"/>
-    </row>
-    <row r="116" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B116" s="1"/>
-    </row>
-    <row r="117" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B117" s="1"/>
-    </row>
-    <row r="118" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B118" s="1"/>
-    </row>
-    <row r="119" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B119" s="1"/>
-    </row>
-    <row r="120" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B120" s="1"/>
-    </row>
-    <row r="121" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B121" s="1"/>
-    </row>
-    <row r="122" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B122" s="1"/>
-    </row>
-    <row r="123" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B123" s="1"/>
-    </row>
-    <row r="124" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B124" s="1"/>
-    </row>
-    <row r="125" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B125" s="1"/>
-    </row>
-    <row r="126" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B126" s="1"/>
-    </row>
-    <row r="127" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B127" s="1"/>
-    </row>
-    <row r="128" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B128" s="1"/>
-    </row>
-    <row r="129" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B129" s="1"/>
-    </row>
-    <row r="130" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B130" s="1"/>
-    </row>
-    <row r="131" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B131" s="1"/>
-    </row>
-    <row r="132" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B132" s="1"/>
-    </row>
-    <row r="133" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B133" s="1"/>
-    </row>
-    <row r="134" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B134" s="1"/>
-    </row>
-    <row r="135" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B135" s="1"/>
-    </row>
-    <row r="136" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B136" s="1"/>
-    </row>
-    <row r="137" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B137" s="1"/>
-    </row>
-    <row r="138" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B138" s="1"/>
-    </row>
-    <row r="139" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B139" s="1"/>
-    </row>
-    <row r="140" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B140" s="1"/>
-    </row>
-    <row r="141" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B141" s="1"/>
-    </row>
-    <row r="142" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B142" s="1"/>
-    </row>
-    <row r="143" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B143" s="1"/>
-    </row>
-    <row r="144" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B144" s="1"/>
-    </row>
-    <row r="145" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B145" s="1"/>
-    </row>
-    <row r="146" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B146" s="1"/>
-    </row>
-    <row r="147" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B147" s="1"/>
-    </row>
-    <row r="148" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B148" s="1"/>
-    </row>
-    <row r="149" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B149" s="1"/>
-    </row>
-    <row r="150" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B150" s="1"/>
-    </row>
-    <row r="151" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B151" s="1"/>
-    </row>
-    <row r="152" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B152" s="1"/>
-    </row>
-    <row r="153" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B153" s="1"/>
-    </row>
-    <row r="154" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B154" s="1"/>
-    </row>
-    <row r="155" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B155" s="1"/>
-    </row>
-    <row r="156" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B156" s="1"/>
-    </row>
-    <row r="157" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B157" s="1"/>
-    </row>
-    <row r="158" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B158" s="1"/>
-    </row>
-    <row r="159" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B159" s="1"/>
-    </row>
-    <row r="160" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B160" s="1"/>
-    </row>
-    <row r="161" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B161" s="1"/>
-    </row>
-    <row r="162" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B162" s="1"/>
-    </row>
-    <row r="163" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B163" s="1"/>
-    </row>
-    <row r="164" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B164" s="1"/>
-    </row>
-    <row r="165" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B165" s="1"/>
-    </row>
-    <row r="166" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B166" s="1"/>
-    </row>
-    <row r="167" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B167" s="1"/>
-    </row>
-    <row r="168" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B168" s="1"/>
-    </row>
-    <row r="169" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B169" s="1"/>
-    </row>
-    <row r="170" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B170" s="1"/>
-    </row>
-    <row r="171" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B171" s="1"/>
-    </row>
-    <row r="172" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B172" s="1"/>
-    </row>
-    <row r="173" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B173" s="1"/>
-    </row>
-    <row r="174" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B174" s="1"/>
-    </row>
-    <row r="175" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B175" s="1"/>
-    </row>
-    <row r="176" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B176" s="1"/>
-    </row>
-    <row r="177" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B177" s="1"/>
-    </row>
-    <row r="178" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B178" s="1"/>
-    </row>
-    <row r="179" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B179" s="1"/>
-    </row>
-    <row r="180" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B180" s="1"/>
-    </row>
-    <row r="181" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B181" s="1"/>
-    </row>
-    <row r="182" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B182" s="1"/>
-    </row>
-    <row r="183" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B183" s="1"/>
-    </row>
-    <row r="184" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B184" s="1"/>
-    </row>
-    <row r="185" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B185" s="1"/>
-    </row>
-    <row r="186" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B186" s="1"/>
-    </row>
-    <row r="187" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B187" s="1"/>
-    </row>
-    <row r="188" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B188" s="1"/>
-    </row>
-    <row r="189" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B189" s="1"/>
-    </row>
-    <row r="190" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B190" s="1"/>
-    </row>
-    <row r="191" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B191" s="1"/>
-    </row>
-    <row r="192" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B192" s="1"/>
-    </row>
-    <row r="193" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B193" s="1"/>
-    </row>
-    <row r="194" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B194" s="1"/>
-    </row>
-    <row r="195" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B195" s="1"/>
-    </row>
-    <row r="196" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B196" s="1"/>
-    </row>
-    <row r="197" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B197" s="1"/>
-    </row>
-    <row r="198" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B198" s="1"/>
-    </row>
-    <row r="199" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B199" s="1"/>
-    </row>
-    <row r="200" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B200" s="1"/>
-    </row>
-    <row r="201" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B201" s="1"/>
-    </row>
-    <row r="202" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B202" s="1"/>
-    </row>
-    <row r="203" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B203" s="1"/>
-    </row>
-    <row r="204" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B204" s="1"/>
-    </row>
-    <row r="205" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B205" s="1"/>
-    </row>
-    <row r="206" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B206" s="1"/>
-    </row>
-    <row r="207" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B207" s="1"/>
-    </row>
-    <row r="208" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B208" s="1"/>
-    </row>
-    <row r="209" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B209" s="1"/>
-    </row>
-    <row r="210" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B210" s="1"/>
-    </row>
-    <row r="211" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B211" s="1"/>
-    </row>
-    <row r="212" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B212" s="1"/>
-    </row>
-    <row r="213" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B213" s="1"/>
-    </row>
-    <row r="214" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B214" s="1"/>
-    </row>
-    <row r="215" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B215" s="1"/>
-    </row>
-    <row r="216" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B216" s="1"/>
-    </row>
-    <row r="217" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B217" s="1"/>
-    </row>
-    <row r="218" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B218" s="1"/>
-    </row>
-    <row r="219" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B219" s="1"/>
-    </row>
-    <row r="220" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B220" s="1"/>
-    </row>
-    <row r="221" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B221" s="1"/>
-    </row>
-    <row r="222" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B222" s="1"/>
-    </row>
-    <row r="223" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B223" s="1"/>
-    </row>
-    <row r="224" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B224" s="1"/>
-    </row>
-    <row r="225" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B225" s="1"/>
-    </row>
-    <row r="226" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B226" s="1"/>
-    </row>
-    <row r="227" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B227" s="1"/>
-    </row>
-    <row r="228" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B228" s="1"/>
-    </row>
-    <row r="229" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B229" s="1"/>
-    </row>
-    <row r="230" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B230" s="1"/>
-    </row>
-    <row r="231" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B231" s="1"/>
-    </row>
-    <row r="232" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B232" s="1"/>
-    </row>
-    <row r="233" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B233" s="1"/>
-    </row>
-    <row r="234" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B234" s="1"/>
-    </row>
-    <row r="235" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B235" s="1"/>
-    </row>
-    <row r="236" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B236" s="1"/>
-    </row>
-    <row r="237" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B237" s="1"/>
-    </row>
-    <row r="238" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B238" s="1"/>
-    </row>
-    <row r="239" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B239" s="1"/>
-    </row>
-    <row r="240" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B240" s="1"/>
-    </row>
-    <row r="241" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B241" s="1"/>
-    </row>
-    <row r="242" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B242" s="1"/>
-    </row>
-    <row r="243" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B243" s="1"/>
-    </row>
-    <row r="244" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B244" s="1"/>
-    </row>
-    <row r="245" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B245" s="1"/>
-    </row>
-    <row r="246" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B246" s="1"/>
-    </row>
-    <row r="247" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B247" s="1"/>
-    </row>
-    <row r="248" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B248" s="1"/>
-    </row>
-    <row r="249" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B249" s="1"/>
-    </row>
-    <row r="250" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B250" s="1"/>
-    </row>
-    <row r="251" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B251" s="1"/>
-    </row>
-    <row r="252" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B252" s="1"/>
-    </row>
-    <row r="253" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B253" s="1"/>
-    </row>
-    <row r="254" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B254" s="1"/>
-    </row>
-    <row r="255" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B255" s="1"/>
-    </row>
-    <row r="256" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B256" s="1"/>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A33" t="s">
+        <v>2</v>
+      </c>
+      <c r="B33" s="1">
+        <v>44764</v>
+      </c>
+      <c r="G33">
+        <v>12.7</v>
+      </c>
+      <c r="H33">
+        <v>13.372916666666669</v>
+      </c>
+      <c r="I33">
+        <v>14.91</v>
+      </c>
+      <c r="J33">
+        <v>13.46</v>
+      </c>
+      <c r="K33">
+        <v>13.767083333333332</v>
+      </c>
+      <c r="L33">
+        <v>14.26</v>
+      </c>
+      <c r="M33">
+        <v>13.94</v>
+      </c>
+      <c r="N33">
+        <v>14.077916666666662</v>
+      </c>
+      <c r="O33">
+        <v>14.27</v>
+      </c>
+      <c r="P33">
+        <v>14.378750000000004</v>
+      </c>
+      <c r="Q33">
+        <v>14.672916666666666</v>
+      </c>
+      <c r="R33">
+        <v>15.040416666666665</v>
+      </c>
+      <c r="S33">
+        <v>15.233333333333333</v>
+      </c>
+      <c r="T33">
+        <v>15.53458333333333</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A34" t="s">
+        <v>2</v>
+      </c>
+      <c r="B34" s="1">
+        <v>44765</v>
+      </c>
+      <c r="G34">
+        <v>11.21</v>
+      </c>
+      <c r="H34">
+        <v>13.540833333333333</v>
+      </c>
+      <c r="I34">
+        <v>16.489999999999998</v>
+      </c>
+      <c r="J34">
+        <v>12.85</v>
+      </c>
+      <c r="K34">
+        <v>13.779583333333333</v>
+      </c>
+      <c r="L34">
+        <v>14.85</v>
+      </c>
+      <c r="M34">
+        <v>13.67</v>
+      </c>
+      <c r="N34">
+        <v>14.052083333333334</v>
+      </c>
+      <c r="O34">
+        <v>14.51</v>
+      </c>
+      <c r="P34">
+        <v>14.338333333333333</v>
+      </c>
+      <c r="Q34">
+        <v>14.637083333333335</v>
+      </c>
+      <c r="R34">
+        <v>15.012083333333335</v>
+      </c>
+      <c r="S34">
+        <v>15.219583333333331</v>
+      </c>
+      <c r="T34">
+        <v>15.53041666666666</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A35" t="s">
+        <v>2</v>
+      </c>
+      <c r="B35" s="1">
+        <v>44766</v>
+      </c>
+      <c r="G35">
+        <v>10.61</v>
+      </c>
+      <c r="H35">
+        <v>13.769583333333335</v>
+      </c>
+      <c r="I35">
+        <v>17.63</v>
+      </c>
+      <c r="J35">
+        <v>12.72</v>
+      </c>
+      <c r="K35">
+        <v>14.001249999999999</v>
+      </c>
+      <c r="L35">
+        <v>15.33</v>
+      </c>
+      <c r="M35">
+        <v>13.68</v>
+      </c>
+      <c r="N35">
+        <v>14.198333333333332</v>
+      </c>
+      <c r="O35">
+        <v>14.74</v>
+      </c>
+      <c r="P35">
+        <v>14.417500000000002</v>
+      </c>
+      <c r="Q35">
+        <v>14.675833333333332</v>
+      </c>
+      <c r="R35">
+        <v>15.026666666666664</v>
+      </c>
+      <c r="S35">
+        <v>15.222083333333336</v>
+      </c>
+      <c r="T35">
+        <v>15.532916666666665</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A36" t="s">
+        <v>2</v>
+      </c>
+      <c r="B36" s="1">
+        <v>44767</v>
+      </c>
+      <c r="G36">
+        <v>10.97</v>
+      </c>
+      <c r="H36">
+        <v>13.847500000000002</v>
+      </c>
+      <c r="I36">
+        <v>17.149999999999999</v>
+      </c>
+      <c r="J36">
+        <v>13.01</v>
+      </c>
+      <c r="K36">
+        <v>14.238333333333335</v>
+      </c>
+      <c r="L36">
+        <v>15.33</v>
+      </c>
+      <c r="M36">
+        <v>13.94</v>
+      </c>
+      <c r="N36">
+        <v>14.430833333333332</v>
+      </c>
+      <c r="O36">
+        <v>14.86</v>
+      </c>
+      <c r="P36">
+        <v>14.605416666666668</v>
+      </c>
+      <c r="Q36">
+        <v>14.799999999999999</v>
+      </c>
+      <c r="R36">
+        <v>15.09625</v>
+      </c>
+      <c r="S36">
+        <v>15.275833333333333</v>
+      </c>
+      <c r="T36">
+        <v>15.554583333333333</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A37" t="s">
+        <v>2</v>
+      </c>
+      <c r="B37" s="1">
+        <v>44768</v>
+      </c>
+      <c r="G37">
+        <v>13.409999999999998</v>
+      </c>
+      <c r="H37">
+        <v>16.125511111111113</v>
+      </c>
+      <c r="I37">
+        <v>18.933333333333334</v>
+      </c>
+      <c r="J37">
+        <v>14.76</v>
+      </c>
+      <c r="K37">
+        <v>15.468177777777777</v>
+      </c>
+      <c r="L37">
+        <v>16.086666666666666</v>
+      </c>
+      <c r="M37">
+        <v>14.513333333333334</v>
+      </c>
+      <c r="N37">
+        <v>14.851792592592593</v>
+      </c>
+      <c r="O37">
+        <v>15.229999999999999</v>
+      </c>
+      <c r="P37">
+        <v>14.75311111111111</v>
+      </c>
+      <c r="Q37">
+        <v>14.638755555555555</v>
+      </c>
+      <c r="R37">
+        <v>14.81822222222222</v>
+      </c>
+      <c r="S37">
+        <v>14.951185185185187</v>
+      </c>
+      <c r="T37">
+        <v>15.3072</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A38" t="s">
+        <v>2</v>
+      </c>
+      <c r="B38" s="1">
+        <v>44769</v>
+      </c>
+      <c r="G38">
+        <v>10.926666666666668</v>
+      </c>
+      <c r="H38">
+        <v>13.344722222222222</v>
+      </c>
+      <c r="I38">
+        <v>16.183333333333334</v>
+      </c>
+      <c r="J38">
+        <v>13.386666666666665</v>
+      </c>
+      <c r="K38">
+        <v>14.334583333333333</v>
+      </c>
+      <c r="L38">
+        <v>15.456666666666665</v>
+      </c>
+      <c r="M38">
+        <v>14.203333333333333</v>
+      </c>
+      <c r="N38">
+        <v>14.644722222222221</v>
+      </c>
+      <c r="O38">
+        <v>15.24</v>
+      </c>
+      <c r="P38">
+        <v>14.778888888888888</v>
+      </c>
+      <c r="Q38">
+        <v>14.554583333333335</v>
+      </c>
+      <c r="R38">
+        <v>14.666805555555557</v>
+      </c>
+      <c r="S38">
+        <v>14.757500000000002</v>
+      </c>
+      <c r="T38">
+        <v>15.138472222222221</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A39" t="s">
+        <v>2</v>
+      </c>
+      <c r="B39" s="1">
+        <v>44770</v>
+      </c>
+      <c r="G39">
+        <v>9.3833333333333329</v>
+      </c>
+      <c r="H39">
+        <v>13.167638888888888</v>
+      </c>
+      <c r="I39">
+        <v>17.970000000000002</v>
+      </c>
+      <c r="J39">
+        <v>12.266666666666666</v>
+      </c>
+      <c r="K39">
+        <v>13.697916666666666</v>
+      </c>
+      <c r="L39">
+        <v>15.12</v>
+      </c>
+      <c r="M39">
+        <v>13.449999999999998</v>
+      </c>
+      <c r="N39">
+        <v>14.058749999999996</v>
+      </c>
+      <c r="O39">
+        <v>14.589999999999998</v>
+      </c>
+      <c r="P39">
+        <v>14.399305555555557</v>
+      </c>
+      <c r="Q39">
+        <v>14.374166666666667</v>
+      </c>
+      <c r="R39">
+        <v>14.621388888888887</v>
+      </c>
+      <c r="S39">
+        <v>14.77652777777778</v>
+      </c>
+      <c r="T39">
+        <v>15.169583333333335</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A40" t="s">
+        <v>2</v>
+      </c>
+      <c r="B40" s="1">
+        <v>44771</v>
+      </c>
+      <c r="G40">
+        <v>9.0666666666666664</v>
+      </c>
+      <c r="H40">
+        <v>12.779583333333333</v>
+      </c>
+      <c r="I40">
+        <v>17.213333333333331</v>
+      </c>
+      <c r="J40">
+        <v>12.136666666666665</v>
+      </c>
+      <c r="K40">
+        <v>13.545277777777779</v>
+      </c>
+      <c r="L40">
+        <v>14.726666666666667</v>
+      </c>
+      <c r="M40">
+        <v>13.346666666666669</v>
+      </c>
+      <c r="N40">
+        <v>13.944444444444445</v>
+      </c>
+      <c r="O40">
+        <v>14.530000000000001</v>
+      </c>
+      <c r="P40">
+        <v>14.27263888888889</v>
+      </c>
+      <c r="Q40">
+        <v>14.244722222222222</v>
+      </c>
+      <c r="R40">
+        <v>14.519166666666669</v>
+      </c>
+      <c r="S40">
+        <v>14.7125</v>
+      </c>
+      <c r="T40">
+        <v>15.155000000000001</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A41" t="s">
+        <v>2</v>
+      </c>
+      <c r="B41" s="1">
+        <v>44772</v>
+      </c>
+      <c r="G41">
+        <v>10.153333333333334</v>
+      </c>
+      <c r="H41">
+        <v>13.44027777777778</v>
+      </c>
+      <c r="I41">
+        <v>18</v>
+      </c>
+      <c r="J41">
+        <v>12.403333333333334</v>
+      </c>
+      <c r="K41">
+        <v>13.689583333333333</v>
+      </c>
+      <c r="L41">
+        <v>15.106666666666667</v>
+      </c>
+      <c r="M41">
+        <v>13.340000000000002</v>
+      </c>
+      <c r="N41">
+        <v>13.897777777777778</v>
+      </c>
+      <c r="O41">
+        <v>14.493333333333334</v>
+      </c>
+      <c r="P41">
+        <v>14.166527777777778</v>
+      </c>
+      <c r="Q41">
+        <v>14.140833333333333</v>
+      </c>
+      <c r="R41">
+        <v>14.430138888888889</v>
+      </c>
+      <c r="S41">
+        <v>14.65763888888889</v>
+      </c>
+      <c r="T41">
+        <v>15.124166666666666</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A42" t="s">
+        <v>2</v>
+      </c>
+      <c r="B42" s="1">
+        <v>44773</v>
+      </c>
+      <c r="G42">
+        <v>11.186666666666667</v>
+      </c>
+      <c r="H42">
+        <v>13.581111111111111</v>
+      </c>
+      <c r="I42">
+        <v>16.213333333333335</v>
+      </c>
+      <c r="J42">
+        <v>13</v>
+      </c>
+      <c r="K42">
+        <v>13.934027777777779</v>
+      </c>
+      <c r="L42">
+        <v>14.746666666666668</v>
+      </c>
+      <c r="M42">
+        <v>13.736666666666666</v>
+      </c>
+      <c r="N42">
+        <v>14.128750000000002</v>
+      </c>
+      <c r="O42">
+        <v>14.49</v>
+      </c>
+      <c r="P42">
+        <v>14.314583333333333</v>
+      </c>
+      <c r="Q42">
+        <v>14.203055555555556</v>
+      </c>
+      <c r="R42">
+        <v>14.435416666666663</v>
+      </c>
+      <c r="S42">
+        <v>14.636388888888888</v>
+      </c>
+      <c r="T42">
+        <v>15.084166666666668</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A43" t="s">
+        <v>2</v>
+      </c>
+      <c r="B43" s="1">
+        <v>44774</v>
+      </c>
+      <c r="G43">
+        <v>12.536666666666667</v>
+      </c>
+      <c r="H43">
+        <v>14.164722222222222</v>
+      </c>
+      <c r="I43">
+        <v>16.62</v>
+      </c>
+      <c r="J43">
+        <v>13.663333333333334</v>
+      </c>
+      <c r="K43">
+        <v>14.326249999999996</v>
+      </c>
+      <c r="L43">
+        <v>15</v>
+      </c>
+      <c r="M43">
+        <v>14.093333333333334</v>
+      </c>
+      <c r="N43">
+        <v>14.366805555555556</v>
+      </c>
+      <c r="O43">
+        <v>14.69</v>
+      </c>
+      <c r="P43">
+        <v>14.465416666666664</v>
+      </c>
+      <c r="Q43">
+        <v>14.30111111111111</v>
+      </c>
+      <c r="R43">
+        <v>14.50166666666667</v>
+      </c>
+      <c r="S43">
+        <v>14.666111111111109</v>
+      </c>
+      <c r="T43">
+        <v>15.096527777777775</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A44" t="s">
+        <v>2</v>
+      </c>
+      <c r="B44" s="1">
+        <v>44775</v>
+      </c>
+      <c r="G44">
+        <v>11.060000000000002</v>
+      </c>
+      <c r="H44">
+        <v>14.79638888888889</v>
+      </c>
+      <c r="I44">
+        <v>19.373333333333335</v>
+      </c>
+      <c r="J44">
+        <v>13.17</v>
+      </c>
+      <c r="K44">
+        <v>14.567916666666667</v>
+      </c>
+      <c r="L44">
+        <v>16.079999999999998</v>
+      </c>
+      <c r="M44">
+        <v>13.97</v>
+      </c>
+      <c r="N44">
+        <v>14.500694444444447</v>
+      </c>
+      <c r="O44">
+        <v>15.229999999999999</v>
+      </c>
+      <c r="P44">
+        <v>14.574305555555556</v>
+      </c>
+      <c r="Q44">
+        <v>14.399861111111113</v>
+      </c>
+      <c r="R44">
+        <v>14.579861111111112</v>
+      </c>
+      <c r="S44">
+        <v>14.720277777777776</v>
+      </c>
+      <c r="T44">
+        <v>15.136805555555556</v>
+      </c>
+    </row>
+    <row r="45" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A45" t="s">
+        <v>2</v>
+      </c>
+      <c r="B45" s="1">
+        <v>44776</v>
+      </c>
+      <c r="G45">
+        <v>12.936666666666667</v>
+      </c>
+      <c r="H45">
+        <v>15.865555555555552</v>
+      </c>
+      <c r="I45">
+        <v>19.95</v>
+      </c>
+      <c r="J45">
+        <v>14.25</v>
+      </c>
+      <c r="K45">
+        <v>15.438194444444443</v>
+      </c>
+      <c r="L45">
+        <v>16.850000000000001</v>
+      </c>
+      <c r="M45">
+        <v>14.656666666666666</v>
+      </c>
+      <c r="N45">
+        <v>15.13361111111111</v>
+      </c>
+      <c r="O45">
+        <v>15.853333333333333</v>
+      </c>
+      <c r="P45">
+        <v>14.988333333333335</v>
+      </c>
+      <c r="Q45">
+        <v>14.648472222222225</v>
+      </c>
+      <c r="R45">
+        <v>14.72736111111111</v>
+      </c>
+      <c r="S45">
+        <v>14.809166666666668</v>
+      </c>
+      <c r="T45">
+        <v>15.183333333333332</v>
+      </c>
+    </row>
+    <row r="46" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A46" t="s">
+        <v>2</v>
+      </c>
+      <c r="B46" s="1">
+        <v>44777</v>
+      </c>
+      <c r="G46">
+        <v>13.456666666666669</v>
+      </c>
+      <c r="H46">
+        <v>16.651250000000001</v>
+      </c>
+      <c r="I46">
+        <v>21.099999999999998</v>
+      </c>
+      <c r="J46">
+        <v>14.839999999999998</v>
+      </c>
+      <c r="K46">
+        <v>16.128472222222225</v>
+      </c>
+      <c r="L46">
+        <v>17.576666666666664</v>
+      </c>
+      <c r="M46">
+        <v>15.213333333333333</v>
+      </c>
+      <c r="N46">
+        <v>15.724583333333333</v>
+      </c>
+      <c r="O46">
+        <v>16.47</v>
+      </c>
+      <c r="P46">
+        <v>15.470833333333333</v>
+      </c>
+      <c r="Q46">
+        <v>15.017638888888888</v>
+      </c>
+      <c r="R46">
+        <v>14.990416666666667</v>
+      </c>
+      <c r="S46">
+        <v>14.994999999999997</v>
+      </c>
+      <c r="T46">
+        <v>15.310972222222221</v>
+      </c>
+    </row>
+    <row r="47" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A47" t="s">
+        <v>2</v>
+      </c>
+      <c r="B47" s="1">
+        <v>44778</v>
+      </c>
+      <c r="G47">
+        <v>13.67</v>
+      </c>
+      <c r="H47">
+        <v>16.028611111111111</v>
+      </c>
+      <c r="I47">
+        <v>18.193333333333332</v>
+      </c>
+      <c r="J47">
+        <v>15.323333333333332</v>
+      </c>
+      <c r="K47">
+        <v>16.187916666666666</v>
+      </c>
+      <c r="L47">
+        <v>16.89</v>
+      </c>
+      <c r="M47">
+        <v>15.713333333333333</v>
+      </c>
+      <c r="N47">
+        <v>16.078888888888891</v>
+      </c>
+      <c r="O47">
+        <v>16.463333333333335</v>
+      </c>
+      <c r="P47">
+        <v>15.894444444444446</v>
+      </c>
+      <c r="Q47">
+        <v>15.399305555555552</v>
+      </c>
+      <c r="R47">
+        <v>15.299722222222224</v>
+      </c>
+      <c r="S47">
+        <v>15.228611111111112</v>
+      </c>
+      <c r="T47">
+        <v>15.478194444444446</v>
+      </c>
+    </row>
+    <row r="48" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A48" t="s">
+        <v>2</v>
+      </c>
+      <c r="B48" s="1">
+        <v>44779</v>
+      </c>
+      <c r="G48">
+        <v>13.436666666666666</v>
+      </c>
+      <c r="H48">
+        <v>15.889166666666666</v>
+      </c>
+      <c r="I48">
+        <v>18.156666666666666</v>
+      </c>
+      <c r="J48">
+        <v>15.709999999999999</v>
+      </c>
+      <c r="K48">
+        <v>16.190555555555559</v>
+      </c>
+      <c r="L48">
+        <v>16.736666666666668</v>
+      </c>
+      <c r="M48">
+        <v>15.9</v>
+      </c>
+      <c r="N48">
+        <v>16.102361111111112</v>
+      </c>
+      <c r="O48">
+        <v>16.266666666666666</v>
+      </c>
+      <c r="P48">
+        <v>15.980972222222221</v>
+      </c>
+      <c r="Q48">
+        <v>15.550972222222223</v>
+      </c>
+      <c r="R48">
+        <v>15.497222222222222</v>
+      </c>
+      <c r="S48">
+        <v>15.428055555555554</v>
+      </c>
+      <c r="T48">
+        <v>15.655694444444448</v>
+      </c>
+    </row>
+    <row r="49" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A49" t="s">
+        <v>2</v>
+      </c>
+      <c r="B49" s="1">
+        <v>44780</v>
+      </c>
+      <c r="G49">
+        <v>9.9766666666666666</v>
+      </c>
+      <c r="H49">
+        <v>13.52361111111111</v>
+      </c>
+      <c r="I49">
+        <v>17.739999999999998</v>
+      </c>
+      <c r="J49">
+        <v>13.353333333333333</v>
+      </c>
+      <c r="K49">
+        <v>14.691388888888889</v>
+      </c>
+      <c r="L49">
+        <v>15.713333333333333</v>
+      </c>
+      <c r="M49">
+        <v>14.649999999999999</v>
+      </c>
+      <c r="N49">
+        <v>15.260416666666666</v>
+      </c>
+      <c r="O49">
+        <v>16.126666666666669</v>
+      </c>
+      <c r="P49">
+        <v>15.608888888888886</v>
+      </c>
+      <c r="Q49">
+        <v>15.444583333333329</v>
+      </c>
+      <c r="R49">
+        <v>15.534722222222221</v>
+      </c>
+      <c r="S49">
+        <v>15.540972222222223</v>
+      </c>
+      <c r="T49">
+        <v>15.782500000000004</v>
+      </c>
+    </row>
+    <row r="50" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A50" t="s">
+        <v>2</v>
+      </c>
+      <c r="B50" s="1">
+        <v>44781</v>
+      </c>
+      <c r="G50">
+        <v>9.56</v>
+      </c>
+      <c r="H50">
+        <v>13.451805555555554</v>
+      </c>
+      <c r="I50">
+        <v>18.489999999999998</v>
+      </c>
+      <c r="J50">
+        <v>12.713333333333333</v>
+      </c>
+      <c r="K50">
+        <v>14.169861111111111</v>
+      </c>
+      <c r="L50">
+        <v>15.546666666666667</v>
+      </c>
+      <c r="M50">
+        <v>14</v>
+      </c>
+      <c r="N50">
+        <v>14.640416666666667</v>
+      </c>
+      <c r="O50">
+        <v>15.266666666666666</v>
+      </c>
+      <c r="P50">
+        <v>15.060277777777777</v>
+      </c>
+      <c r="Q50">
+        <v>15.055972222222222</v>
+      </c>
+      <c r="R50">
+        <v>15.305416666666668</v>
+      </c>
+      <c r="S50">
+        <v>15.439027777777779</v>
+      </c>
+      <c r="T50">
+        <v>15.778194444444445</v>
+      </c>
+    </row>
+    <row r="51" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A51" t="s">
+        <v>2</v>
+      </c>
+      <c r="B51" s="1">
+        <v>44782</v>
+      </c>
+      <c r="G51">
+        <v>9.58</v>
+      </c>
+      <c r="H51">
+        <v>13.420138888888888</v>
+      </c>
+      <c r="I51">
+        <v>17.813333333333336</v>
+      </c>
+      <c r="J51">
+        <v>12.696666666666665</v>
+      </c>
+      <c r="K51">
+        <v>14.105555555555556</v>
+      </c>
+      <c r="L51">
+        <v>15.299999999999999</v>
+      </c>
+      <c r="M51">
+        <v>13.896666666666667</v>
+      </c>
+      <c r="N51">
+        <v>14.502222222222223</v>
+      </c>
+      <c r="O51">
+        <v>15.053333333333333</v>
+      </c>
+      <c r="P51">
+        <v>14.846805555555553</v>
+      </c>
+      <c r="Q51">
+        <v>14.822083333333332</v>
+      </c>
+      <c r="R51">
+        <v>15.099444444444446</v>
+      </c>
+      <c r="S51">
+        <v>15.285833333333331</v>
+      </c>
+      <c r="T51">
+        <v>15.683055555555555</v>
+      </c>
+    </row>
+    <row r="52" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A52" t="s">
+        <v>2</v>
+      </c>
+      <c r="B52" s="1">
+        <v>44783</v>
+      </c>
+      <c r="G52">
+        <v>9.8733333333333348</v>
+      </c>
+      <c r="H52">
+        <v>13.486805555555556</v>
+      </c>
+      <c r="I52">
+        <v>17.73</v>
+      </c>
+      <c r="J52">
+        <v>12.766666666666666</v>
+      </c>
+      <c r="K52">
+        <v>14.086527777777775</v>
+      </c>
+      <c r="L52">
+        <v>15.25</v>
+      </c>
+      <c r="M52">
+        <v>13.853333333333333</v>
+      </c>
+      <c r="N52">
+        <v>14.412222222222221</v>
+      </c>
+      <c r="O52">
+        <v>14.863333333333335</v>
+      </c>
+      <c r="P52">
+        <v>14.720972222222223</v>
+      </c>
+      <c r="Q52">
+        <v>14.689166666666663</v>
+      </c>
+      <c r="R52">
+        <v>14.975555555555561</v>
+      </c>
+      <c r="S52">
+        <v>15.175555555555556</v>
+      </c>
+      <c r="T52">
+        <v>15.596111111111114</v>
+      </c>
+    </row>
+    <row r="53" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A53" t="s">
+        <v>2</v>
+      </c>
+      <c r="B53" s="1">
+        <v>44784</v>
+      </c>
+      <c r="G53">
+        <v>10.119999999999999</v>
+      </c>
+      <c r="H53">
+        <v>13.472777777777779</v>
+      </c>
+      <c r="I53">
+        <v>17.096666666666664</v>
+      </c>
+      <c r="J53">
+        <v>12.75</v>
+      </c>
+      <c r="K53">
+        <v>13.991527777777778</v>
+      </c>
+      <c r="L53">
+        <v>15.049999999999999</v>
+      </c>
+      <c r="M53">
+        <v>13.799999999999999</v>
+      </c>
+      <c r="N53">
+        <v>14.336666666666668</v>
+      </c>
+      <c r="O53">
+        <v>14.790000000000001</v>
+      </c>
+      <c r="P53">
+        <v>14.64875</v>
+      </c>
+      <c r="Q53">
+        <v>14.609583333333335</v>
+      </c>
+      <c r="R53">
+        <v>14.891249999999999</v>
+      </c>
+      <c r="S53">
+        <v>15.094583333333334</v>
+      </c>
+      <c r="T53">
+        <v>15.517222222222223</v>
+      </c>
+    </row>
+    <row r="54" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A54" t="s">
+        <v>2</v>
+      </c>
+      <c r="B54" s="1">
+        <v>44785</v>
+      </c>
+      <c r="G54">
+        <v>12.43</v>
+      </c>
+      <c r="H54">
+        <v>14.713888888888889</v>
+      </c>
+      <c r="I54">
+        <v>17.433333333333334</v>
+      </c>
+      <c r="J54">
+        <v>13.780000000000001</v>
+      </c>
+      <c r="K54">
+        <v>14.630833333333335</v>
+      </c>
+      <c r="L54">
+        <v>15.58</v>
+      </c>
+      <c r="M54">
+        <v>14.31</v>
+      </c>
+      <c r="N54">
+        <v>14.637222222222221</v>
+      </c>
+      <c r="O54">
+        <v>15.14</v>
+      </c>
+      <c r="P54">
+        <v>14.753611111111107</v>
+      </c>
+      <c r="Q54">
+        <v>14.623055555555558</v>
+      </c>
+      <c r="R54">
+        <v>14.862361111111108</v>
+      </c>
+      <c r="S54">
+        <v>15.045277777777782</v>
+      </c>
+      <c r="T54">
+        <v>15.467777777777782</v>
+      </c>
+    </row>
+    <row r="55" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A55" t="s">
+        <v>2</v>
+      </c>
+      <c r="B55" s="1">
+        <v>44786</v>
+      </c>
+      <c r="G55">
+        <v>12.936666666666667</v>
+      </c>
+      <c r="H55">
+        <v>14.774166666666666</v>
+      </c>
+      <c r="I55">
+        <v>16.306666666666668</v>
+      </c>
+      <c r="J55">
+        <v>14.856666666666667</v>
+      </c>
+      <c r="K55">
+        <v>15.131805555555554</v>
+      </c>
+      <c r="L55">
+        <v>15.473333333333334</v>
+      </c>
+      <c r="M55">
+        <v>15.013333333333334</v>
+      </c>
+      <c r="N55">
+        <v>15.122638888888888</v>
+      </c>
+      <c r="O55">
+        <v>15.26</v>
+      </c>
+      <c r="P55">
+        <v>15.117083333333333</v>
+      </c>
+      <c r="Q55">
+        <v>14.838055555555554</v>
+      </c>
+      <c r="R55">
+        <v>14.964166666666669</v>
+      </c>
+      <c r="S55">
+        <v>15.080972222222222</v>
+      </c>
+      <c r="T55">
+        <v>15.459305555555559</v>
+      </c>
+    </row>
+    <row r="56" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A56" t="s">
+        <v>2</v>
+      </c>
+      <c r="B56" s="1">
+        <v>44787</v>
+      </c>
+      <c r="G56">
+        <v>9.9866666666666664</v>
+      </c>
+      <c r="H56">
+        <v>13.028472222222222</v>
+      </c>
+      <c r="I56">
+        <v>16.48</v>
+      </c>
+      <c r="J56">
+        <v>12.806666666666667</v>
+      </c>
+      <c r="K56">
+        <v>13.985000000000001</v>
+      </c>
+      <c r="L56">
+        <v>14.85</v>
+      </c>
+      <c r="M56">
+        <v>13.983333333333334</v>
+      </c>
+      <c r="N56">
+        <v>14.514166666666668</v>
+      </c>
+      <c r="O56">
+        <v>15.19</v>
+      </c>
+      <c r="P56">
+        <v>14.89291666666667</v>
+      </c>
+      <c r="Q56">
+        <v>14.825416666666669</v>
+      </c>
+      <c r="R56">
+        <v>15.030833333333334</v>
+      </c>
+      <c r="S56">
+        <v>15.15736111111111</v>
+      </c>
+      <c r="T56">
+        <v>15.512222222222222</v>
+      </c>
+    </row>
+    <row r="57" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A57" t="s">
+        <v>2</v>
+      </c>
+      <c r="B57" s="1">
+        <v>44788</v>
+      </c>
+      <c r="G57">
+        <v>9.25</v>
+      </c>
+      <c r="H57">
+        <v>12.517777777777779</v>
+      </c>
+      <c r="I57">
+        <v>16.553333333333331</v>
+      </c>
+      <c r="J57">
+        <v>12.116666666666667</v>
+      </c>
+      <c r="K57">
+        <v>13.396666666666667</v>
+      </c>
+      <c r="L57">
+        <v>14.453333333333333</v>
+      </c>
+      <c r="M57">
+        <v>13.386666666666668</v>
+      </c>
+      <c r="N57">
+        <v>13.958888888888888</v>
+      </c>
+      <c r="O57">
+        <v>14.590000000000002</v>
+      </c>
+      <c r="P57">
+        <v>14.450833333333335</v>
+      </c>
+      <c r="Q57">
+        <v>14.518888888888888</v>
+      </c>
+      <c r="R57">
+        <v>14.854861111111113</v>
+      </c>
+      <c r="S57">
+        <v>15.075000000000001</v>
+      </c>
+      <c r="T57">
+        <v>15.491944444444444</v>
+      </c>
+    </row>
+    <row r="58" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A58" t="s">
+        <v>2</v>
+      </c>
+      <c r="B58" s="1">
+        <v>44789</v>
+      </c>
+      <c r="G58">
+        <v>8.7700000000000014</v>
+      </c>
+      <c r="H58">
+        <v>12.45972222222222</v>
+      </c>
+      <c r="I58">
+        <v>16.483333333333334</v>
+      </c>
+      <c r="J58">
+        <v>11.716666666666669</v>
+      </c>
+      <c r="K58">
+        <v>13.11875</v>
+      </c>
+      <c r="L58">
+        <v>14.316666666666668</v>
+      </c>
+      <c r="M58">
+        <v>13.036666666666667</v>
+      </c>
+      <c r="N58">
+        <v>13.627222222222223</v>
+      </c>
+      <c r="O58">
+        <v>14.176666666666668</v>
+      </c>
+      <c r="P58">
+        <v>14.121944444444447</v>
+      </c>
+      <c r="Q58">
+        <v>14.240833333333335</v>
+      </c>
+      <c r="R58">
+        <v>14.63222222222222</v>
+      </c>
+      <c r="S58">
+        <v>14.911805555555558</v>
+      </c>
+      <c r="T58">
+        <v>15.392500000000004</v>
+      </c>
+    </row>
+    <row r="59" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A59" t="s">
+        <v>2</v>
+      </c>
+      <c r="B59" s="1">
+        <v>44790</v>
+      </c>
+      <c r="G59">
+        <v>9.9266666666666676</v>
+      </c>
+      <c r="H59">
+        <v>13.4275</v>
+      </c>
+      <c r="I59">
+        <v>17.433333333333334</v>
+      </c>
+      <c r="J59">
+        <v>12.313333333333333</v>
+      </c>
+      <c r="K59">
+        <v>13.638888888888888</v>
+      </c>
+      <c r="L59">
+        <v>14.966666666666667</v>
+      </c>
+      <c r="M59">
+        <v>13.290000000000001</v>
+      </c>
+      <c r="N59">
+        <v>13.814444444444447</v>
+      </c>
+      <c r="O59">
+        <v>14.426666666666668</v>
+      </c>
+      <c r="P59">
+        <v>14.098333333333334</v>
+      </c>
+      <c r="Q59">
+        <v>14.11888888888889</v>
+      </c>
+      <c r="R59">
+        <v>14.47736111111111</v>
+      </c>
+      <c r="S59">
+        <v>14.764583333333334</v>
+      </c>
+      <c r="T59">
+        <v>15.268194444444445</v>
+      </c>
+    </row>
+    <row r="60" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A60" t="s">
+        <v>2</v>
+      </c>
+      <c r="B60" s="1">
+        <v>44791</v>
+      </c>
+      <c r="G60">
+        <v>9.74</v>
+      </c>
+      <c r="H60">
+        <v>13.465555555555556</v>
+      </c>
+      <c r="I60">
+        <v>17.686666666666664</v>
+      </c>
+      <c r="J60">
+        <v>12.403333333333334</v>
+      </c>
+      <c r="K60">
+        <v>13.794583333333337</v>
+      </c>
+      <c r="L60">
+        <v>15.066666666666668</v>
+      </c>
+      <c r="M60">
+        <v>13.426666666666668</v>
+      </c>
+      <c r="N60">
+        <v>13.999861111111111</v>
+      </c>
+      <c r="O60">
+        <v>14.513333333333335</v>
+      </c>
+      <c r="P60">
+        <v>14.241944444444444</v>
+      </c>
+      <c r="Q60">
+        <v>14.183055555555555</v>
+      </c>
+      <c r="R60">
+        <v>14.471944444444444</v>
+      </c>
+      <c r="S60">
+        <v>14.713749999999999</v>
+      </c>
+      <c r="T60">
+        <v>15.190277777777775</v>
+      </c>
+    </row>
+    <row r="61" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A61" t="s">
+        <v>2</v>
+      </c>
+      <c r="B61" s="1">
+        <v>44792</v>
+      </c>
+      <c r="G61">
+        <v>9.9866666666666664</v>
+      </c>
+      <c r="H61">
+        <v>13.764722222222224</v>
+      </c>
+      <c r="I61">
+        <v>17.603333333333335</v>
+      </c>
+      <c r="J61">
+        <v>12.576666666666668</v>
+      </c>
+      <c r="K61">
+        <v>13.950972222222225</v>
+      </c>
+      <c r="L61">
+        <v>15.113333333333335</v>
+      </c>
+      <c r="M61">
+        <v>13.563333333333333</v>
+      </c>
+      <c r="N61">
+        <v>14.112638888888888</v>
+      </c>
+      <c r="O61">
+        <v>14.613333333333332</v>
+      </c>
+      <c r="P61">
+        <v>14.319861111111111</v>
+      </c>
+      <c r="Q61">
+        <v>14.232638888888888</v>
+      </c>
+      <c r="R61">
+        <v>14.495277777777778</v>
+      </c>
+      <c r="S61">
+        <v>14.714305555555555</v>
+      </c>
+      <c r="T61">
+        <v>15.17</v>
+      </c>
+    </row>
+    <row r="62" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A62" t="s">
+        <v>2</v>
+      </c>
+      <c r="B62" s="1">
+        <v>44793</v>
+      </c>
+      <c r="G62">
+        <v>11.523333333333333</v>
+      </c>
+      <c r="H62">
+        <v>14.572777777777778</v>
+      </c>
+      <c r="I62">
+        <v>18.430000000000003</v>
+      </c>
+      <c r="J62">
+        <v>13.443333333333333</v>
+      </c>
+      <c r="K62">
+        <v>14.593194444444444</v>
+      </c>
+      <c r="L62">
+        <v>15.72</v>
+      </c>
+      <c r="M62">
+        <v>14.043333333333335</v>
+      </c>
+      <c r="N62">
+        <v>14.518749999999997</v>
+      </c>
+      <c r="O62">
+        <v>15.043333333333331</v>
+      </c>
+      <c r="P62">
+        <v>14.554027777777776</v>
+      </c>
+      <c r="Q62">
+        <v>14.355833333333331</v>
+      </c>
+      <c r="R62">
+        <v>14.55777777777778</v>
+      </c>
+      <c r="S62">
+        <v>14.731388888888889</v>
+      </c>
+      <c r="T62">
+        <v>15.167777777777779</v>
+      </c>
+    </row>
+    <row r="63" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A63" t="s">
+        <v>2</v>
+      </c>
+      <c r="B63" s="1">
+        <v>44794</v>
+      </c>
+      <c r="G63">
+        <v>10.676666666666668</v>
+      </c>
+      <c r="H63">
+        <v>13.971666666666669</v>
+      </c>
+      <c r="I63">
+        <v>17.156666666666666</v>
+      </c>
+      <c r="J63">
+        <v>13.153333333333334</v>
+      </c>
+      <c r="K63">
+        <v>14.317777777777778</v>
+      </c>
+      <c r="L63">
+        <v>15.229999999999999</v>
+      </c>
+      <c r="M63">
+        <v>14.020000000000001</v>
+      </c>
+      <c r="N63">
+        <v>14.509861111111109</v>
+      </c>
+      <c r="O63">
+        <v>15.003333333333336</v>
+      </c>
+      <c r="P63">
+        <v>14.684444444444445</v>
+      </c>
+      <c r="Q63">
+        <v>14.503194444444446</v>
+      </c>
+      <c r="R63">
+        <v>14.679166666666667</v>
+      </c>
+      <c r="S63">
+        <v>14.811388888888887</v>
+      </c>
+      <c r="T63">
+        <v>15.211388888888889</v>
+      </c>
+    </row>
+    <row r="64" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A64" t="s">
+        <v>2</v>
+      </c>
+      <c r="B64" s="1">
+        <v>44795</v>
+      </c>
+      <c r="G64">
+        <v>11.406666666666666</v>
+      </c>
+      <c r="H64">
+        <v>14.527638888888887</v>
+      </c>
+      <c r="I64">
+        <v>17.443333333333332</v>
+      </c>
+      <c r="J64">
+        <v>13.51</v>
+      </c>
+      <c r="K64">
+        <v>14.588055555555556</v>
+      </c>
+      <c r="L64">
+        <v>15.483333333333333</v>
+      </c>
+      <c r="M64">
+        <v>14.213333333333333</v>
+      </c>
+      <c r="N64">
+        <v>14.622777777777777</v>
+      </c>
+      <c r="O64">
+        <v>15.013333333333334</v>
+      </c>
+      <c r="P64">
+        <v>14.727222222222222</v>
+      </c>
+      <c r="Q64">
+        <v>14.546388888888892</v>
+      </c>
+      <c r="R64">
+        <v>14.718888888888889</v>
+      </c>
+      <c r="S64">
+        <v>14.855555555555556</v>
+      </c>
+      <c r="T64">
+        <v>15.249444444444444</v>
+      </c>
+    </row>
+    <row r="65" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A65" t="s">
+        <v>2</v>
+      </c>
+      <c r="B65" s="1">
+        <v>44796</v>
+      </c>
+      <c r="G65">
+        <v>11.840000000000002</v>
+      </c>
+      <c r="H65">
+        <v>14.90875</v>
+      </c>
+      <c r="I65">
+        <v>18.183333333333334</v>
+      </c>
+      <c r="J65">
+        <v>13.703333333333333</v>
+      </c>
+      <c r="K65">
+        <v>14.810833333333335</v>
+      </c>
+      <c r="L65">
+        <v>15.833333333333334</v>
+      </c>
+      <c r="M65">
+        <v>14.363333333333335</v>
+      </c>
+      <c r="N65">
+        <v>14.779583333333335</v>
+      </c>
+      <c r="O65">
+        <v>15.246666666666668</v>
+      </c>
+      <c r="P65">
+        <v>14.841111111111111</v>
+      </c>
+      <c r="Q65">
+        <v>14.632083333333334</v>
+      </c>
+      <c r="R65">
+        <v>14.789583333333331</v>
+      </c>
+      <c r="S65">
+        <v>14.90013888888889</v>
+      </c>
+      <c r="T65">
+        <v>15.296111111111111</v>
+      </c>
+    </row>
+    <row r="66" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A66" t="s">
+        <v>2</v>
+      </c>
+      <c r="B66" s="1">
+        <v>44797</v>
+      </c>
+      <c r="G66">
+        <v>11.323333333333332</v>
+      </c>
+      <c r="H66">
+        <v>13.708611111111113</v>
+      </c>
+      <c r="I66">
+        <v>16.343333333333334</v>
+      </c>
+      <c r="J66">
+        <v>13.616666666666667</v>
+      </c>
+      <c r="K66">
+        <v>14.490972222222224</v>
+      </c>
+      <c r="L66">
+        <v>15.39</v>
+      </c>
+      <c r="M66">
+        <v>14.38</v>
+      </c>
+      <c r="N66">
+        <v>14.766944444444446</v>
+      </c>
+      <c r="O66">
+        <v>15.263333333333334</v>
+      </c>
+      <c r="P66">
+        <v>14.936944444444443</v>
+      </c>
+      <c r="Q66">
+        <v>14.730694444444445</v>
+      </c>
+      <c r="R66">
+        <v>14.870555555555557</v>
+      </c>
+      <c r="S66">
+        <v>14.971666666666666</v>
+      </c>
+      <c r="T66">
+        <v>15.331944444444444</v>
+      </c>
+    </row>
+    <row r="67" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A67" t="s">
+        <v>2</v>
+      </c>
+      <c r="B67" s="1">
+        <v>44798</v>
+      </c>
+      <c r="G67">
+        <v>10.186666666666667</v>
+      </c>
+      <c r="H67">
+        <v>13.367222222222223</v>
+      </c>
+      <c r="I67">
+        <v>17.203333333333333</v>
+      </c>
+      <c r="J67">
+        <v>12.76</v>
+      </c>
+      <c r="K67">
+        <v>13.905972222222223</v>
+      </c>
+      <c r="L67">
+        <v>14.99</v>
+      </c>
+      <c r="M67">
+        <v>13.736666666666665</v>
+      </c>
+      <c r="N67">
+        <v>14.257361111111109</v>
+      </c>
+      <c r="O67">
+        <v>14.733333333333333</v>
+      </c>
+      <c r="P67">
+        <v>14.604444444444445</v>
+      </c>
+      <c r="Q67">
+        <v>14.562361111111111</v>
+      </c>
+      <c r="R67">
+        <v>14.818055555555555</v>
+      </c>
+      <c r="S67">
+        <v>14.974722222222224</v>
+      </c>
+      <c r="T67">
+        <v>15.361111111111109</v>
+      </c>
+    </row>
+    <row r="68" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A68" t="s">
+        <v>2</v>
+      </c>
+      <c r="B68" s="1">
+        <v>44799</v>
+      </c>
+      <c r="G68">
+        <v>9.5366666666666671</v>
+      </c>
+      <c r="H68">
+        <v>13.254166666666668</v>
+      </c>
+      <c r="I68">
+        <v>17</v>
+      </c>
+      <c r="J68">
+        <v>12.373333333333335</v>
+      </c>
+      <c r="K68">
+        <v>13.701666666666668</v>
+      </c>
+      <c r="L68">
+        <v>14.846666666666666</v>
+      </c>
+      <c r="M68">
+        <v>13.49</v>
+      </c>
+      <c r="N68">
+        <v>14.05347222222222</v>
+      </c>
+      <c r="O68">
+        <v>14.563333333333333</v>
+      </c>
+      <c r="P68">
+        <v>14.40736111111111</v>
+      </c>
+      <c r="Q68">
+        <v>14.395416666666664</v>
+      </c>
+      <c r="R68">
+        <v>14.695555555555556</v>
+      </c>
+      <c r="S68">
+        <v>14.896944444444445</v>
+      </c>
+      <c r="T68">
+        <v>15.321111111111115</v>
+      </c>
+    </row>
+    <row r="69" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A69" t="s">
+        <v>2</v>
+      </c>
+      <c r="B69" s="1">
+        <v>44800</v>
+      </c>
+      <c r="G69">
+        <v>10.576666666666666</v>
+      </c>
+      <c r="H69">
+        <v>14.073611111111111</v>
+      </c>
+      <c r="I69">
+        <v>17.276666666666667</v>
+      </c>
+      <c r="J69">
+        <v>12.903333333333334</v>
+      </c>
+      <c r="K69">
+        <v>14.089583333333332</v>
+      </c>
+      <c r="L69">
+        <v>15.1</v>
+      </c>
+      <c r="M69">
+        <v>13.74</v>
+      </c>
+      <c r="N69">
+        <v>14.210416666666665</v>
+      </c>
+      <c r="O69">
+        <v>14.68</v>
+      </c>
+      <c r="P69">
+        <v>14.420694444444445</v>
+      </c>
+      <c r="Q69">
+        <v>14.337083333333334</v>
+      </c>
+      <c r="R69">
+        <v>14.615555555555554</v>
+      </c>
+      <c r="S69">
+        <v>14.826805555555557</v>
+      </c>
+      <c r="T69">
+        <v>15.264861111111109</v>
+      </c>
+    </row>
+    <row r="70" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A70" t="s">
+        <v>2</v>
+      </c>
+      <c r="B70" s="1">
+        <v>44801</v>
+      </c>
+      <c r="G70">
+        <v>13.093333333333334</v>
+      </c>
+      <c r="H70">
+        <v>15.328472222222224</v>
+      </c>
+      <c r="I70">
+        <v>17.926666666666666</v>
+      </c>
+      <c r="J70">
+        <v>14.176666666666668</v>
+      </c>
+      <c r="K70">
+        <v>14.989861111111111</v>
+      </c>
+      <c r="L70">
+        <v>15.856666666666669</v>
+      </c>
+      <c r="M70">
+        <v>14.486666666666666</v>
+      </c>
+      <c r="N70">
+        <v>14.782777777777776</v>
+      </c>
+      <c r="O70">
+        <v>15.293333333333331</v>
+      </c>
+      <c r="P70">
+        <v>14.739861111111111</v>
+      </c>
+      <c r="Q70">
+        <v>14.494999999999999</v>
+      </c>
+      <c r="R70">
+        <v>14.667361111111115</v>
+      </c>
+      <c r="S70">
+        <v>14.827500000000002</v>
+      </c>
+      <c r="T70">
+        <v>15.241249999999999</v>
+      </c>
+    </row>
+    <row r="71" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A71" t="s">
+        <v>2</v>
+      </c>
+      <c r="B71" s="1">
+        <v>44802</v>
+      </c>
+      <c r="G71">
+        <v>12.736666666666666</v>
+      </c>
+      <c r="H71">
+        <v>14.701805555555554</v>
+      </c>
+      <c r="I71">
+        <v>16.72</v>
+      </c>
+      <c r="J71">
+        <v>14.243333333333334</v>
+      </c>
+      <c r="K71">
+        <v>14.952777777777778</v>
+      </c>
+      <c r="L71">
+        <v>15.51</v>
+      </c>
+      <c r="M71">
+        <v>14.696666666666667</v>
+      </c>
+      <c r="N71">
+        <v>15.00111111111111</v>
+      </c>
+      <c r="O71">
+        <v>15.306666666666667</v>
+      </c>
+      <c r="P71">
+        <v>15.033888888888889</v>
+      </c>
+      <c r="Q71">
+        <v>14.757361111111109</v>
+      </c>
+      <c r="R71">
+        <v>14.850694444444445</v>
+      </c>
+      <c r="S71">
+        <v>14.932916666666669</v>
+      </c>
+      <c r="T71">
+        <v>15.299444444444445</v>
+      </c>
+    </row>
+    <row r="72" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A72" t="s">
+        <v>2</v>
+      </c>
+      <c r="B72" s="1">
+        <v>44803</v>
+      </c>
+      <c r="G72">
+        <v>13.43</v>
+      </c>
+      <c r="H72">
+        <v>14.508750000000001</v>
+      </c>
+      <c r="I72">
+        <v>15.663333333333334</v>
+      </c>
+      <c r="J72">
+        <v>14.483333333333333</v>
+      </c>
+      <c r="K72">
+        <v>14.863194444444446</v>
+      </c>
+      <c r="L72">
+        <v>15.25</v>
+      </c>
+      <c r="M72">
+        <v>14.806666666666667</v>
+      </c>
+      <c r="N72">
+        <v>14.994305555555558</v>
+      </c>
+      <c r="O72">
+        <v>15.226666666666667</v>
+      </c>
+      <c r="P72">
+        <v>15.090000000000002</v>
+      </c>
+      <c r="Q72">
+        <v>14.848611111111111</v>
+      </c>
+      <c r="R72">
+        <v>14.962916666666667</v>
+      </c>
+      <c r="S72">
+        <v>15.036805555555555</v>
+      </c>
+      <c r="T72">
+        <v>15.380833333333333</v>
+      </c>
+    </row>
+    <row r="73" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A73" t="s">
+        <v>2</v>
+      </c>
+      <c r="B73" s="1">
+        <v>44804</v>
+      </c>
+      <c r="G73">
+        <v>14.44</v>
+      </c>
+      <c r="H73">
+        <v>16.446944444444444</v>
+      </c>
+      <c r="I73">
+        <v>19.496666666666666</v>
+      </c>
+      <c r="J73">
+        <v>14.866666666666667</v>
+      </c>
+      <c r="K73">
+        <v>15.686805555555559</v>
+      </c>
+      <c r="L73">
+        <v>16.87</v>
+      </c>
+      <c r="M73">
+        <v>14.979999999999999</v>
+      </c>
+      <c r="N73">
+        <v>15.318055555555555</v>
+      </c>
+      <c r="O73">
+        <v>16.059999999999999</v>
+      </c>
+      <c r="P73">
+        <v>15.203749999999999</v>
+      </c>
+      <c r="Q73">
+        <v>14.911249999999997</v>
+      </c>
+      <c r="R73">
+        <v>15.017083333333332</v>
+      </c>
+      <c r="S73">
+        <v>15.095416666666665</v>
+      </c>
+      <c r="T73">
+        <v>15.430972222222223</v>
+      </c>
+    </row>
+    <row r="74" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A74" t="s">
+        <v>2</v>
+      </c>
+      <c r="B74" s="1">
+        <v>44805</v>
+      </c>
+      <c r="G74">
+        <v>13.746666666666668</v>
+      </c>
+      <c r="H74">
+        <v>16.079444444444444</v>
+      </c>
+      <c r="I74">
+        <v>18.733333333333334</v>
+      </c>
+      <c r="J74">
+        <v>15.13</v>
+      </c>
+      <c r="K74">
+        <v>16.031666666666666</v>
+      </c>
+      <c r="L74">
+        <v>16.776666666666667</v>
+      </c>
+      <c r="M74">
+        <v>15.463333333333333</v>
+      </c>
+      <c r="N74">
+        <v>15.846666666666664</v>
+      </c>
+      <c r="O74">
+        <v>16.18</v>
+      </c>
+      <c r="P74">
+        <v>15.693333333333335</v>
+      </c>
+      <c r="Q74">
+        <v>15.260277777777778</v>
+      </c>
+      <c r="R74">
+        <v>15.234027777777778</v>
+      </c>
+      <c r="S74">
+        <v>15.229722222222222</v>
+      </c>
+      <c r="T74">
+        <v>15.51277777777778</v>
+      </c>
+    </row>
+    <row r="75" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A75" t="s">
+        <v>2</v>
+      </c>
+      <c r="B75" s="1">
+        <v>44806</v>
+      </c>
+      <c r="G75">
+        <v>14</v>
+      </c>
+      <c r="H75">
+        <v>15.205972222222222</v>
+      </c>
+      <c r="I75">
+        <v>16.436666666666664</v>
+      </c>
+      <c r="J75">
+        <v>15.203333333333333</v>
+      </c>
+      <c r="K75">
+        <v>15.624444444444448</v>
+      </c>
+      <c r="L75">
+        <v>16.203333333333333</v>
+      </c>
+      <c r="M75">
+        <v>15.533333333333333</v>
+      </c>
+      <c r="N75">
+        <v>15.744027777777774</v>
+      </c>
+      <c r="O75">
+        <v>16.133333333333333</v>
+      </c>
+      <c r="P75">
+        <v>15.772500000000001</v>
+      </c>
+      <c r="Q75">
+        <v>15.415138888888889</v>
+      </c>
+      <c r="R75">
+        <v>15.417916666666663</v>
+      </c>
+      <c r="S75">
+        <v>15.390555555555556</v>
+      </c>
+      <c r="T75">
+        <v>15.645000000000003</v>
+      </c>
+    </row>
+    <row r="76" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A76" t="s">
+        <v>2</v>
+      </c>
+      <c r="B76" s="1">
+        <v>44807</v>
+      </c>
+      <c r="G76">
+        <v>14.449999999999998</v>
+      </c>
+      <c r="H76">
+        <v>15.3925</v>
+      </c>
+      <c r="I76">
+        <v>16.72666666666667</v>
+      </c>
+      <c r="J76">
+        <v>15.196666666666667</v>
+      </c>
+      <c r="K76">
+        <v>15.591805555555554</v>
+      </c>
+      <c r="L76">
+        <v>16.016666666666669</v>
+      </c>
+      <c r="M76">
+        <v>15.456666666666665</v>
+      </c>
+      <c r="N76">
+        <v>15.629999999999997</v>
+      </c>
+      <c r="O76">
+        <v>15.803333333333333</v>
+      </c>
+      <c r="P76">
+        <v>15.681388888888891</v>
+      </c>
+      <c r="Q76">
+        <v>15.397361111111111</v>
+      </c>
+      <c r="R76">
+        <v>15.446388888888885</v>
+      </c>
+      <c r="S76">
+        <v>15.455416666666666</v>
+      </c>
+      <c r="T76">
+        <v>15.732083333333337</v>
+      </c>
+    </row>
+    <row r="77" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A77" t="s">
+        <v>2</v>
+      </c>
+      <c r="B77" s="1">
+        <v>44808</v>
+      </c>
+      <c r="G77">
+        <v>12.97</v>
+      </c>
+      <c r="H77">
+        <v>15.285555555555556</v>
+      </c>
+      <c r="I77">
+        <v>17.873333333333331</v>
+      </c>
+      <c r="J77">
+        <v>14.593333333333334</v>
+      </c>
+      <c r="K77">
+        <v>15.510138888888891</v>
+      </c>
+      <c r="L77">
+        <v>16.293333333333333</v>
+      </c>
+      <c r="M77">
+        <v>15.203333333333333</v>
+      </c>
+      <c r="N77">
+        <v>15.568333333333333</v>
+      </c>
+      <c r="O77">
+        <v>15.86</v>
+      </c>
+      <c r="P77">
+        <v>15.648333333333333</v>
+      </c>
+      <c r="Q77">
+        <v>15.383888888888885</v>
+      </c>
+      <c r="R77">
+        <v>15.462361111111109</v>
+      </c>
+      <c r="S77">
+        <v>15.499444444444444</v>
+      </c>
+      <c r="T77">
+        <v>15.779444444444444</v>
+      </c>
+    </row>
+    <row r="78" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A78" t="s">
+        <v>2</v>
+      </c>
+      <c r="B78" s="1">
+        <v>44809</v>
+      </c>
+      <c r="G78">
+        <v>11.763333333333334</v>
+      </c>
+      <c r="H78">
+        <v>14.539027777777777</v>
+      </c>
+      <c r="I78">
+        <v>16.989999999999998</v>
+      </c>
+      <c r="J78">
+        <v>13.97</v>
+      </c>
+      <c r="K78">
+        <v>15.010972222222223</v>
+      </c>
+      <c r="L78">
+        <v>15.76</v>
+      </c>
+      <c r="M78">
+        <v>14.86</v>
+      </c>
+      <c r="N78">
+        <v>15.294444444444443</v>
+      </c>
+      <c r="O78">
+        <v>15.843333333333334</v>
+      </c>
+      <c r="P78">
+        <v>15.519583333333335</v>
+      </c>
+      <c r="Q78">
+        <v>15.334583333333329</v>
+      </c>
+      <c r="R78">
+        <v>15.453888888888889</v>
+      </c>
+      <c r="S78">
+        <v>15.516944444444448</v>
+      </c>
+      <c r="T78">
+        <v>15.809583333333336</v>
+      </c>
+    </row>
+    <row r="79" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A79" t="s">
+        <v>2</v>
+      </c>
+      <c r="B79" s="1">
+        <v>44810</v>
+      </c>
+      <c r="G79">
+        <v>12.396666666666667</v>
+      </c>
+      <c r="H79">
+        <v>15.055416666666668</v>
+      </c>
+      <c r="I79">
+        <v>17.843333333333334</v>
+      </c>
+      <c r="J79">
+        <v>14.166666666666666</v>
+      </c>
+      <c r="K79">
+        <v>15.157500000000001</v>
+      </c>
+      <c r="L79">
+        <v>15.996666666666668</v>
+      </c>
+      <c r="M79">
+        <v>14.833333333333334</v>
+      </c>
+      <c r="N79">
+        <v>15.237361111111111</v>
+      </c>
+      <c r="O79">
+        <v>15.596666666666666</v>
+      </c>
+      <c r="P79">
+        <v>15.382361111111111</v>
+      </c>
+      <c r="Q79">
+        <v>15.211666666666664</v>
+      </c>
+      <c r="R79">
+        <v>15.377083333333331</v>
+      </c>
+      <c r="S79">
+        <v>15.472916666666665</v>
+      </c>
+      <c r="T79">
+        <v>15.804166666666665</v>
+      </c>
+    </row>
+    <row r="80" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A80" t="s">
+        <v>2</v>
+      </c>
+      <c r="B80" s="1">
+        <v>44811</v>
+      </c>
+      <c r="G80">
+        <v>12.51</v>
+      </c>
+      <c r="H80">
+        <v>14.882083333333334</v>
+      </c>
+      <c r="I80">
+        <v>17.146666666666665</v>
+      </c>
+      <c r="J80">
+        <v>14.35</v>
+      </c>
+      <c r="K80">
+        <v>15.220138888888888</v>
+      </c>
+      <c r="L80">
+        <v>15.823333333333332</v>
+      </c>
+      <c r="M80">
+        <v>14.973333333333334</v>
+      </c>
+      <c r="N80">
+        <v>15.327777777777778</v>
+      </c>
+      <c r="O80">
+        <v>15.613333333333335</v>
+      </c>
+      <c r="P80">
+        <v>15.441249999999998</v>
+      </c>
+      <c r="Q80">
+        <v>15.224166666666664</v>
+      </c>
+      <c r="R80">
+        <v>15.356805555555555</v>
+      </c>
+      <c r="S80">
+        <v>15.449027777777772</v>
+      </c>
+      <c r="T80">
+        <v>15.780277777777776</v>
+      </c>
+    </row>
+    <row r="81" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A81" t="s">
+        <v>2</v>
+      </c>
+      <c r="B81" s="1">
+        <v>44812</v>
+      </c>
+      <c r="G81">
+        <v>11.863333333333335</v>
+      </c>
+      <c r="H81">
+        <v>14.468611111111111</v>
+      </c>
+      <c r="I81">
+        <v>16.793333333333333</v>
+      </c>
+      <c r="J81">
+        <v>13.87</v>
+      </c>
+      <c r="K81">
+        <v>14.827083333333333</v>
+      </c>
+      <c r="L81">
+        <v>15.546666666666667</v>
+      </c>
+      <c r="M81">
+        <v>14.663333333333332</v>
+      </c>
+      <c r="N81">
+        <v>15.072777777777778</v>
+      </c>
+      <c r="O81">
+        <v>15.513333333333335</v>
+      </c>
+      <c r="P81">
+        <v>15.30388888888889</v>
+      </c>
+      <c r="Q81">
+        <v>15.162361111111112</v>
+      </c>
+      <c r="R81">
+        <v>15.332777777777777</v>
+      </c>
+      <c r="S81">
+        <v>15.444305555555557</v>
+      </c>
+      <c r="T81">
+        <v>15.776666666666669</v>
+      </c>
+    </row>
+    <row r="82" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A82" t="s">
+        <v>2</v>
+      </c>
+      <c r="B82" s="1">
+        <v>44813</v>
+      </c>
+      <c r="G82">
+        <v>14.14</v>
+      </c>
+      <c r="H82">
+        <v>15.534722222222221</v>
+      </c>
+      <c r="I82">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="J82">
+        <v>14.850000000000001</v>
+      </c>
+      <c r="K82">
+        <v>15.438333333333333</v>
+      </c>
+      <c r="L82">
+        <v>16.21</v>
+      </c>
+      <c r="M82">
+        <v>15.12</v>
+      </c>
+      <c r="N82">
+        <v>15.340000000000002</v>
+      </c>
+      <c r="O82">
+        <v>15.756666666666666</v>
+      </c>
+      <c r="P82">
+        <v>15.365277777777777</v>
+      </c>
+      <c r="Q82">
+        <v>15.144305555555555</v>
+      </c>
+      <c r="R82">
+        <v>15.290277777777774</v>
+      </c>
+      <c r="S82">
+        <v>15.397083333333333</v>
+      </c>
+      <c r="T82">
+        <v>15.747638888888892</v>
+      </c>
+    </row>
+    <row r="83" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A83" t="s">
+        <v>2</v>
+      </c>
+      <c r="B83" s="1">
+        <v>44814</v>
+      </c>
+      <c r="G83">
+        <v>13.106666666666667</v>
+      </c>
+      <c r="H83">
+        <v>15.360555555555557</v>
+      </c>
+      <c r="I83">
+        <v>17.74666666666667</v>
+      </c>
+      <c r="J83">
+        <v>14.68</v>
+      </c>
+      <c r="K83">
+        <v>15.536944444444446</v>
+      </c>
+      <c r="L83">
+        <v>16.15666666666667</v>
+      </c>
+      <c r="M83">
+        <v>15.206666666666669</v>
+      </c>
+      <c r="N83">
+        <v>15.550555555555553</v>
+      </c>
+      <c r="O83">
+        <v>15.79</v>
+      </c>
+      <c r="P83">
+        <v>15.58</v>
+      </c>
+      <c r="Q83">
+        <v>15.285694444444445</v>
+      </c>
+      <c r="R83">
+        <v>15.38222222222222</v>
+      </c>
+      <c r="S83">
+        <v>15.439861111111108</v>
+      </c>
+      <c r="T83">
+        <v>15.760833333333332</v>
+      </c>
+    </row>
+    <row r="84" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A84" t="s">
+        <v>2</v>
+      </c>
+      <c r="B84" s="1">
+        <v>44815</v>
+      </c>
+      <c r="G84">
+        <v>13.46</v>
+      </c>
+      <c r="H84">
+        <v>15.501684782608697</v>
+      </c>
+      <c r="I84">
+        <v>18.056666666666668</v>
+      </c>
+      <c r="J84">
+        <v>14.670000000000002</v>
+      </c>
+      <c r="K84">
+        <v>15.517415458937199</v>
+      </c>
+      <c r="L84">
+        <v>16.323333333333334</v>
+      </c>
+      <c r="M84">
+        <v>15.163333333333332</v>
+      </c>
+      <c r="N84">
+        <v>15.528562801932367</v>
+      </c>
+      <c r="O84">
+        <v>15.87</v>
+      </c>
+      <c r="P84">
+        <v>15.587506038647346</v>
+      </c>
+      <c r="Q84">
+        <v>15.330785024154588</v>
+      </c>
+      <c r="R84">
+        <v>15.436527777777778</v>
+      </c>
+      <c r="S84">
+        <v>15.491316425120774</v>
+      </c>
+      <c r="T84">
+        <v>15.809057971014495</v>
+      </c>
+    </row>
+    <row r="85" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A85" t="s">
+        <v>2</v>
+      </c>
+      <c r="B85" s="1">
+        <v>44816</v>
+      </c>
+      <c r="G85">
+        <v>13.979999999999999</v>
+      </c>
+      <c r="H85">
+        <v>15.479272222222221</v>
+      </c>
+      <c r="I85">
+        <v>17.783333333333335</v>
+      </c>
+      <c r="J85">
+        <v>14.99</v>
+      </c>
+      <c r="K85">
+        <v>15.631450000000001</v>
+      </c>
+      <c r="L85">
+        <v>16.273333333333333</v>
+      </c>
+      <c r="M85">
+        <v>15.343333333333334</v>
+      </c>
+      <c r="N85">
+        <v>15.641061111111112</v>
+      </c>
+      <c r="O85">
+        <v>15.883333333333335</v>
+      </c>
+      <c r="P85">
+        <v>15.67888888888889</v>
+      </c>
+      <c r="Q85">
+        <v>15.393955555555557</v>
+      </c>
+      <c r="R85">
+        <v>15.466866666666666</v>
+      </c>
+      <c r="S85">
+        <v>15.528561111111111</v>
+      </c>
+      <c r="T85">
+        <v>15.834377777777776</v>
+      </c>
+    </row>
+    <row r="86" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A86" t="s">
+        <v>2</v>
+      </c>
+      <c r="B86" s="1">
+        <v>44817</v>
+      </c>
+      <c r="G86">
+        <v>13.056666666666667</v>
+      </c>
+      <c r="H86">
+        <v>15.848055555555554</v>
+      </c>
+      <c r="I86">
+        <v>18.973333333333333</v>
+      </c>
+      <c r="J86">
+        <v>14.653333333333334</v>
+      </c>
+      <c r="K86">
+        <v>15.694861111111109</v>
+      </c>
+      <c r="L86">
+        <v>16.696666666666669</v>
+      </c>
+      <c r="M86">
+        <v>15.233333333333334</v>
+      </c>
+      <c r="N86">
+        <v>15.643333333333336</v>
+      </c>
+      <c r="O86">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="P86">
+        <v>15.685833333333335</v>
+      </c>
+      <c r="Q86">
+        <v>15.418194444444444</v>
+      </c>
+      <c r="R86">
+        <v>15.506944444444445</v>
+      </c>
+      <c r="S86">
+        <v>15.567361111111111</v>
+      </c>
+      <c r="T86">
+        <v>15.866527777777781</v>
+      </c>
+    </row>
+    <row r="87" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A87" t="s">
+        <v>2</v>
+      </c>
+      <c r="B87" s="1">
+        <v>44818</v>
+      </c>
+      <c r="G87">
+        <v>13.636666666666665</v>
+      </c>
+      <c r="H87">
+        <v>16.319444444444446</v>
+      </c>
+      <c r="I87">
+        <v>19.393333333333334</v>
+      </c>
+      <c r="J87">
+        <v>15.113333333333332</v>
+      </c>
+      <c r="K87">
+        <v>16.104305555555555</v>
+      </c>
+      <c r="L87">
+        <v>17.036666666666665</v>
+      </c>
+      <c r="M87">
+        <v>15.530000000000001</v>
+      </c>
+      <c r="N87">
+        <v>15.93263888888889</v>
+      </c>
+      <c r="O87">
+        <v>16.376666666666669</v>
+      </c>
+      <c r="P87">
+        <v>15.866111111111111</v>
+      </c>
+      <c r="Q87">
+        <v>15.518749999999999</v>
+      </c>
+      <c r="R87">
+        <v>15.56736111111111</v>
+      </c>
+      <c r="S87">
+        <v>15.599722222222224</v>
+      </c>
+      <c r="T87">
+        <v>15.902083333333332</v>
+      </c>
+    </row>
+    <row r="88" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A88" t="s">
+        <v>2</v>
+      </c>
+      <c r="B88" s="1">
+        <v>44819</v>
+      </c>
+      <c r="G88">
+        <v>15.056666666666667</v>
+      </c>
+      <c r="H88">
+        <v>16.437083333333334</v>
+      </c>
+      <c r="I88">
+        <v>18.170000000000002</v>
+      </c>
+      <c r="J88">
+        <v>15.783333333333333</v>
+      </c>
+      <c r="K88">
+        <v>16.345416666666669</v>
+      </c>
+      <c r="L88">
+        <v>16.876666666666665</v>
+      </c>
+      <c r="M88">
+        <v>15.966666666666667</v>
+      </c>
+      <c r="N88">
+        <v>16.202222222222222</v>
+      </c>
+      <c r="O88">
+        <v>16.45</v>
+      </c>
+      <c r="P88">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="Q88">
+        <v>15.696666666666667</v>
+      </c>
+      <c r="R88">
+        <v>15.695277777777777</v>
+      </c>
+      <c r="S88">
+        <v>15.681805555555554</v>
+      </c>
+      <c r="T88">
+        <v>15.951805555555557</v>
+      </c>
+    </row>
+    <row r="89" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A89" t="s">
+        <v>2</v>
+      </c>
+      <c r="B89" s="1">
+        <v>44820</v>
+      </c>
+      <c r="G89">
+        <v>15.020000000000001</v>
+      </c>
+      <c r="H89">
+        <v>16.254583333333333</v>
+      </c>
+      <c r="I89">
+        <v>17.923333333333336</v>
+      </c>
+      <c r="J89">
+        <v>15.806666666666667</v>
+      </c>
+      <c r="K89">
+        <v>16.331250000000001</v>
+      </c>
+      <c r="L89">
+        <v>16.863333333333333</v>
+      </c>
+      <c r="M89">
+        <v>16.04</v>
+      </c>
+      <c r="N89">
+        <v>16.259166666666669</v>
+      </c>
+      <c r="O89">
+        <v>16.473333333333333</v>
+      </c>
+      <c r="P89">
+        <v>16.209444444444443</v>
+      </c>
+      <c r="Q89">
+        <v>15.822777777777778</v>
+      </c>
+      <c r="R89">
+        <v>15.815833333333336</v>
+      </c>
+      <c r="S89">
+        <v>15.791805555555555</v>
+      </c>
+      <c r="T89">
+        <v>16.039861111111108</v>
+      </c>
+    </row>
+    <row r="90" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A90" t="s">
+        <v>2</v>
+      </c>
+      <c r="B90" s="1">
+        <v>44821</v>
+      </c>
+      <c r="G90">
+        <v>14.573333333333332</v>
+      </c>
+      <c r="H90">
+        <v>16.582222222222224</v>
+      </c>
+      <c r="I90">
+        <v>19.436666666666667</v>
+      </c>
+      <c r="J90">
+        <v>15.63</v>
+      </c>
+      <c r="K90">
+        <v>16.487777777777776</v>
+      </c>
+      <c r="L90">
+        <v>17.373333333333335</v>
+      </c>
+      <c r="M90">
+        <v>15.969999999999999</v>
+      </c>
+      <c r="N90">
+        <v>16.334027777777777</v>
+      </c>
+      <c r="O90">
+        <v>16.73</v>
+      </c>
+      <c r="P90">
+        <v>16.267638888888886</v>
+      </c>
+      <c r="Q90">
+        <v>15.892361111111109</v>
+      </c>
+      <c r="R90">
+        <v>15.896944444444443</v>
+      </c>
+      <c r="S90">
+        <v>15.864166666666668</v>
+      </c>
+      <c r="T90">
+        <v>16.108055555555556</v>
+      </c>
+    </row>
+    <row r="91" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A91" t="s">
+        <v>2</v>
+      </c>
+      <c r="B91" s="1">
+        <v>44822</v>
+      </c>
+      <c r="G91">
+        <v>12.723333333333334</v>
+      </c>
+      <c r="H91">
+        <v>15.604583333333336</v>
+      </c>
+      <c r="I91">
+        <v>18.853333333333335</v>
+      </c>
+      <c r="J91">
+        <v>14.923333333333334</v>
+      </c>
+      <c r="K91">
+        <v>16.019583333333337</v>
+      </c>
+      <c r="L91">
+        <v>16.86</v>
+      </c>
+      <c r="M91">
+        <v>15.686666666666667</v>
+      </c>
+      <c r="N91">
+        <v>16.164583333333333</v>
+      </c>
+      <c r="O91">
+        <v>16.696666666666669</v>
+      </c>
+      <c r="P91">
+        <v>16.251249999999999</v>
+      </c>
+      <c r="Q91">
+        <v>15.937222222222223</v>
+      </c>
+      <c r="R91">
+        <v>15.959444444444445</v>
+      </c>
+      <c r="S91">
+        <v>15.939027777777779</v>
+      </c>
+      <c r="T91">
+        <v>16.177499999999995</v>
+      </c>
+    </row>
+    <row r="92" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A92" t="s">
+        <v>2</v>
+      </c>
+      <c r="B92" s="1">
+        <v>44823</v>
+      </c>
+      <c r="G92">
+        <v>11.75</v>
+      </c>
+      <c r="H92">
+        <v>15.293194444444445</v>
+      </c>
+      <c r="I92">
+        <v>19.09</v>
+      </c>
+      <c r="J92">
+        <v>14.31</v>
+      </c>
+      <c r="K92">
+        <v>15.622222222222222</v>
+      </c>
+      <c r="L92">
+        <v>16.696666666666665</v>
+      </c>
+      <c r="M92">
+        <v>15.270000000000001</v>
+      </c>
+      <c r="N92">
+        <v>15.815972222222223</v>
+      </c>
+      <c r="O92">
+        <v>16.326666666666668</v>
+      </c>
+      <c r="P92">
+        <v>16.003749999999997</v>
+      </c>
+      <c r="Q92">
+        <v>15.799722222222224</v>
+      </c>
+      <c r="R92">
+        <v>15.906388888888893</v>
+      </c>
+      <c r="S92">
+        <v>15.9375</v>
+      </c>
+      <c r="T92">
+        <v>16.196805555555557</v>
+      </c>
+    </row>
+    <row r="93" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A93" t="s">
+        <v>2</v>
+      </c>
+      <c r="B93" s="1">
+        <v>44824</v>
+      </c>
+      <c r="G93">
+        <v>11.746666666666668</v>
+      </c>
+      <c r="H93">
+        <v>15.59097222222222</v>
+      </c>
+      <c r="I93">
+        <v>19.313333333333333</v>
+      </c>
+      <c r="J93">
+        <v>14.26</v>
+      </c>
+      <c r="K93">
+        <v>15.614861111111111</v>
+      </c>
+      <c r="L93">
+        <v>16.736666666666665</v>
+      </c>
+      <c r="M93">
+        <v>15.159999999999998</v>
+      </c>
+      <c r="N93">
+        <v>15.715833333333334</v>
+      </c>
+      <c r="O93">
+        <v>16.183333333333334</v>
+      </c>
+      <c r="P93">
+        <v>15.870000000000003</v>
+      </c>
+      <c r="Q93">
+        <v>15.666111111111112</v>
+      </c>
+      <c r="R93">
+        <v>15.80763888888889</v>
+      </c>
+      <c r="S93">
+        <v>15.874999999999998</v>
+      </c>
+      <c r="T93">
+        <v>16.178194444444443</v>
+      </c>
+    </row>
+    <row r="94" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A94" t="s">
+        <v>2</v>
+      </c>
+      <c r="B94" s="1">
+        <v>44825</v>
+      </c>
+      <c r="G94">
+        <v>14.733333333333334</v>
+      </c>
+      <c r="H94">
+        <v>16.094027777777779</v>
+      </c>
+      <c r="I94">
+        <v>17.193333333333332</v>
+      </c>
+      <c r="J94">
+        <v>15.65</v>
+      </c>
+      <c r="K94">
+        <v>16.169027777777778</v>
+      </c>
+      <c r="L94">
+        <v>16.536666666666665</v>
+      </c>
+      <c r="M94">
+        <v>15.903333333333334</v>
+      </c>
+      <c r="N94">
+        <v>16.093055555555551</v>
+      </c>
+      <c r="O94">
+        <v>16.260000000000002</v>
+      </c>
+      <c r="P94">
+        <v>16.057638888888889</v>
+      </c>
+      <c r="Q94">
+        <v>15.728611111111112</v>
+      </c>
+      <c r="R94">
+        <v>15.801527777777778</v>
+      </c>
+      <c r="S94">
+        <v>15.838888888888889</v>
+      </c>
+      <c r="T94">
+        <v>16.157222222222217</v>
+      </c>
+    </row>
+    <row r="95" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A95" t="s">
+        <v>2</v>
+      </c>
+      <c r="B95" s="1">
+        <v>44826</v>
+      </c>
+      <c r="G95">
+        <v>15.819999999999999</v>
+      </c>
+      <c r="H95">
+        <v>16.975555555555555</v>
+      </c>
+      <c r="I95">
+        <v>18.673333333333336</v>
+      </c>
+      <c r="J95">
+        <v>16.156666666666666</v>
+      </c>
+      <c r="K95">
+        <v>16.651944444444442</v>
+      </c>
+      <c r="L95">
+        <v>17.420000000000002</v>
+      </c>
+      <c r="M95">
+        <v>16.173333333333332</v>
+      </c>
+      <c r="N95">
+        <v>16.405138888888889</v>
+      </c>
+      <c r="O95">
+        <v>17.093333333333334</v>
+      </c>
+      <c r="P95">
+        <v>16.271111111111111</v>
+      </c>
+      <c r="Q95">
+        <v>15.875972222222224</v>
+      </c>
+      <c r="R95">
+        <v>15.892222222222221</v>
+      </c>
+      <c r="S95">
+        <v>15.897361111111111</v>
+      </c>
+      <c r="T95">
+        <v>16.166250000000002</v>
+      </c>
+    </row>
+    <row r="96" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A96" t="s">
+        <v>2</v>
+      </c>
+      <c r="B96" s="1">
+        <v>44827</v>
+      </c>
+      <c r="G96">
+        <v>15.633333333333333</v>
+      </c>
+      <c r="H96">
+        <v>17.494722222222222</v>
+      </c>
+      <c r="I96">
+        <v>19.579999999999998</v>
+      </c>
+      <c r="J96">
+        <v>16.356666666666669</v>
+      </c>
+      <c r="K96">
+        <v>17.094427777777778</v>
+      </c>
+      <c r="L96">
+        <v>17.906666666666666</v>
+      </c>
+      <c r="M96">
+        <v>16.52</v>
+      </c>
+      <c r="N96">
+        <v>16.813861111111112</v>
+      </c>
+      <c r="O96">
+        <v>17.253333333333334</v>
+      </c>
+      <c r="P96">
+        <v>16.629799999999999</v>
+      </c>
+      <c r="Q96">
+        <v>16.148705555555555</v>
+      </c>
+      <c r="R96">
+        <v>16.084261111111115</v>
+      </c>
+      <c r="S96">
+        <v>16.015788888888892</v>
+      </c>
+      <c r="T96">
+        <v>16.242994444444445</v>
+      </c>
+    </row>
+    <row r="97" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A97" t="s">
+        <v>2</v>
+      </c>
+      <c r="B97" s="1">
+        <v>44828</v>
+      </c>
+      <c r="G97">
+        <v>15.493333333333334</v>
+      </c>
+      <c r="H97">
+        <v>17.653566666666666</v>
+      </c>
+      <c r="I97">
+        <v>19.909999999999997</v>
+      </c>
+      <c r="J97">
+        <v>16.670000000000002</v>
+      </c>
+      <c r="K97">
+        <v>17.491916666666668</v>
+      </c>
+      <c r="L97">
+        <v>18.170000000000002</v>
+      </c>
+      <c r="M97">
+        <v>16.856666666666666</v>
+      </c>
+      <c r="N97">
+        <v>17.185544444444446</v>
+      </c>
+      <c r="O97">
+        <v>17.486666666666668</v>
+      </c>
+      <c r="P97">
+        <v>16.936794444444445</v>
+      </c>
+      <c r="Q97">
+        <v>16.399261111111112</v>
+      </c>
+      <c r="R97">
+        <v>16.283816666666667</v>
+      </c>
+      <c r="S97">
+        <v>16.180666666666667</v>
+      </c>
+      <c r="T97">
+        <v>16.365438888888889</v>
+      </c>
+    </row>
+    <row r="98" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A98" t="s">
+        <v>2</v>
+      </c>
+      <c r="B98" s="1">
+        <v>44829</v>
+      </c>
+      <c r="G98">
+        <v>14.24</v>
+      </c>
+      <c r="H98">
+        <v>16.755416666666662</v>
+      </c>
+      <c r="I98">
+        <v>19.603333333333335</v>
+      </c>
+      <c r="J98">
+        <v>16.029999999999998</v>
+      </c>
+      <c r="K98">
+        <v>17.012638888888887</v>
+      </c>
+      <c r="L98">
+        <v>17.766666666666666</v>
+      </c>
+      <c r="M98">
+        <v>16.58666666666667</v>
+      </c>
+      <c r="N98">
+        <v>17.015555555555554</v>
+      </c>
+      <c r="O98">
+        <v>17.486666666666668</v>
+      </c>
+      <c r="P98">
+        <v>16.974305555555556</v>
+      </c>
+      <c r="Q98">
+        <v>16.529722222222222</v>
+      </c>
+      <c r="R98">
+        <v>16.448333333333334</v>
+      </c>
+      <c r="S98">
+        <v>16.341250000000002</v>
+      </c>
+      <c r="T98">
+        <v>16.501388888888886</v>
+      </c>
+    </row>
+    <row r="99" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A99" t="s">
+        <v>2</v>
+      </c>
+      <c r="B99" s="1">
+        <v>44830</v>
+      </c>
+      <c r="G99">
+        <v>13.520000000000001</v>
+      </c>
+      <c r="H99">
+        <v>16.52472222222222</v>
+      </c>
+      <c r="I99">
+        <v>19.633333333333336</v>
+      </c>
+      <c r="J99">
+        <v>15.523333333333333</v>
+      </c>
+      <c r="K99">
+        <v>16.6525</v>
+      </c>
+      <c r="L99">
+        <v>17.613333333333333</v>
+      </c>
+      <c r="M99">
+        <v>16.243333333333332</v>
+      </c>
+      <c r="N99">
+        <v>16.716944444444447</v>
+      </c>
+      <c r="O99">
+        <v>17.183333333333334</v>
+      </c>
+      <c r="P99">
+        <v>16.783888888888885</v>
+      </c>
+      <c r="Q99">
+        <v>16.450138888888887</v>
+      </c>
+      <c r="R99">
+        <v>16.452638888888888</v>
+      </c>
+      <c r="S99">
+        <v>16.392916666666668</v>
+      </c>
+      <c r="T99">
+        <v>16.584444444444447</v>
+      </c>
+    </row>
+    <row r="100" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A100" t="s">
+        <v>2</v>
+      </c>
+      <c r="B100" s="1">
+        <v>44831</v>
+      </c>
+      <c r="G100">
+        <v>15.106666666666667</v>
+      </c>
+      <c r="H100">
+        <v>16.896944444444443</v>
+      </c>
+      <c r="I100">
+        <v>18.8</v>
+      </c>
+      <c r="J100">
+        <v>16.236666666666668</v>
+      </c>
+      <c r="K100">
+        <v>16.893749999999997</v>
+      </c>
+      <c r="L100">
+        <v>17.556666666666668</v>
+      </c>
+      <c r="M100">
+        <v>16.536666666666665</v>
+      </c>
+      <c r="N100">
+        <v>16.824027777777776</v>
+      </c>
+      <c r="O100">
+        <v>17.126666666666665</v>
+      </c>
+      <c r="P100">
+        <v>16.8</v>
+      </c>
+      <c r="Q100">
+        <v>16.424444444444443</v>
+      </c>
+      <c r="R100">
+        <v>16.428472222222222</v>
+      </c>
+      <c r="S100">
+        <v>16.388194444444441</v>
+      </c>
+      <c r="T100">
+        <v>16.604583333333338</v>
+      </c>
+    </row>
+    <row r="101" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A101" t="s">
+        <v>2</v>
+      </c>
+      <c r="B101" s="1">
+        <v>44832</v>
+      </c>
+      <c r="G101">
+        <v>16.36</v>
+      </c>
+      <c r="H101">
+        <v>17.736249999999998</v>
+      </c>
+      <c r="I101">
+        <v>19.560000000000002</v>
+      </c>
+      <c r="J101">
+        <v>16.893333333333334</v>
+      </c>
+      <c r="K101">
+        <v>17.455972222222222</v>
+      </c>
+      <c r="L101">
+        <v>18.149999999999999</v>
+      </c>
+      <c r="M101">
+        <v>16.953333333333333</v>
+      </c>
+      <c r="N101">
+        <v>17.163749999999997</v>
+      </c>
+      <c r="O101">
+        <v>17.546666666666667</v>
+      </c>
+      <c r="P101">
+        <v>16.988472222222224</v>
+      </c>
+      <c r="Q101">
+        <v>16.527361111111109</v>
+      </c>
+      <c r="R101">
+        <v>16.489027777777775</v>
+      </c>
+      <c r="S101">
+        <v>16.423611111111114</v>
+      </c>
+      <c r="T101">
+        <v>16.633749999999999</v>
+      </c>
+    </row>
+    <row r="102" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A102" t="s">
+        <v>2</v>
+      </c>
+      <c r="B102" s="1">
+        <v>44833</v>
+      </c>
+      <c r="G102">
+        <v>15.07</v>
+      </c>
+      <c r="H102">
+        <v>16.12736111111111</v>
+      </c>
+      <c r="I102">
+        <v>17.33666666666667</v>
+      </c>
+      <c r="J102">
+        <v>16.37</v>
+      </c>
+      <c r="K102">
+        <v>16.850972222222222</v>
+      </c>
+      <c r="L102">
+        <v>17.77</v>
+      </c>
+      <c r="M102">
+        <v>16.75</v>
+      </c>
+      <c r="N102">
+        <v>17.055833333333336</v>
+      </c>
+      <c r="O102">
+        <v>17.543333333333333</v>
+      </c>
+      <c r="P102">
+        <v>17.094166666666666</v>
+      </c>
+      <c r="Q102">
+        <v>16.677361111111114</v>
+      </c>
+      <c r="R102">
+        <v>16.62263888888889</v>
+      </c>
+      <c r="S102">
+        <v>16.524305555555554</v>
+      </c>
+      <c r="T102">
+        <v>16.705555555555552</v>
+      </c>
+    </row>
+    <row r="103" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A103" t="s">
+        <v>2</v>
+      </c>
+      <c r="B103" s="1">
+        <v>44834</v>
+      </c>
+      <c r="G103">
+        <v>13.219999999999999</v>
+      </c>
+      <c r="H103">
+        <v>16.351527777777779</v>
+      </c>
+      <c r="I103">
+        <v>19.363333333333333</v>
+      </c>
+      <c r="J103">
+        <v>15.246666666666668</v>
+      </c>
+      <c r="K103">
+        <v>16.396527777777777</v>
+      </c>
+      <c r="L103">
+        <v>17.446666666666665</v>
+      </c>
+      <c r="M103">
+        <v>16.060000000000002</v>
+      </c>
+      <c r="N103">
+        <v>16.514027777777773</v>
+      </c>
+      <c r="O103">
+        <v>16.933333333333334</v>
+      </c>
+      <c r="P103">
+        <v>16.697916666666668</v>
+      </c>
+      <c r="Q103">
+        <v>16.460416666666671</v>
+      </c>
+      <c r="R103">
+        <v>16.547916666666666</v>
+      </c>
+      <c r="S103">
+        <v>16.533472222222226</v>
+      </c>
+      <c r="T103">
+        <v>16.750138888888895</v>
+      </c>
+    </row>
+    <row r="104" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A104" t="s">
+        <v>2</v>
+      </c>
+      <c r="B104" s="1">
+        <v>44835</v>
+      </c>
+      <c r="G104">
+        <v>14.743333333333332</v>
+      </c>
+      <c r="H104">
+        <v>16.514583333333334</v>
+      </c>
+      <c r="I104">
+        <v>18.206666666666667</v>
+      </c>
+      <c r="J104">
+        <v>16.123333333333331</v>
+      </c>
+      <c r="K104">
+        <v>16.775277777777777</v>
+      </c>
+      <c r="L104">
+        <v>17.253333333333334</v>
+      </c>
+      <c r="M104">
+        <v>16.526666666666667</v>
+      </c>
+      <c r="N104">
+        <v>16.773888888888891</v>
+      </c>
+      <c r="O104">
+        <v>16.98</v>
+      </c>
+      <c r="P104">
+        <v>16.780416666666667</v>
+      </c>
+      <c r="Q104">
+        <v>16.434722222222224</v>
+      </c>
+      <c r="R104">
+        <v>16.479722222222222</v>
+      </c>
+      <c r="S104">
+        <v>16.484444444444446</v>
+      </c>
+      <c r="T104">
+        <v>16.719027777777779</v>
+      </c>
+    </row>
+    <row r="105" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A105" t="s">
+        <v>2</v>
+      </c>
+      <c r="B105" s="1">
+        <v>44836</v>
+      </c>
+      <c r="G105">
+        <v>14.37</v>
+      </c>
+      <c r="H105">
+        <v>15.250833333333333</v>
+      </c>
+      <c r="I105">
+        <v>16.173333333333332</v>
+      </c>
+      <c r="J105">
+        <v>15.660000000000002</v>
+      </c>
+      <c r="K105">
+        <v>16.093194444444443</v>
+      </c>
+      <c r="L105">
+        <v>16.866666666666664</v>
+      </c>
+      <c r="M105">
+        <v>16.173333333333332</v>
+      </c>
+      <c r="N105">
+        <v>16.453611111111112</v>
+      </c>
+      <c r="O105">
+        <v>16.903333333333332</v>
+      </c>
+      <c r="P105">
+        <v>16.664027777777775</v>
+      </c>
+      <c r="Q105">
+        <v>16.40388888888889</v>
+      </c>
+      <c r="R105">
+        <v>16.482083333333332</v>
+      </c>
+      <c r="S105">
+        <v>16.482083333333332</v>
+      </c>
+      <c r="T105">
+        <v>16.716250000000006</v>
+      </c>
+    </row>
+    <row r="106" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A106" t="s">
+        <v>2</v>
+      </c>
+      <c r="B106" s="1">
+        <v>44837</v>
+      </c>
+      <c r="G106">
+        <v>13.413333333333332</v>
+      </c>
+      <c r="H106">
+        <v>15.898750000000001</v>
+      </c>
+      <c r="I106">
+        <v>18.489999999999998</v>
+      </c>
+      <c r="J106">
+        <v>15.03</v>
+      </c>
+      <c r="K106">
+        <v>15.934999999999997</v>
+      </c>
+      <c r="L106">
+        <v>16.819999999999997</v>
+      </c>
+      <c r="M106">
+        <v>15.706666666666669</v>
+      </c>
+      <c r="N106">
+        <v>16.066250000000004</v>
+      </c>
+      <c r="O106">
+        <v>16.47</v>
+      </c>
+      <c r="P106">
+        <v>16.290694444444441</v>
+      </c>
+      <c r="Q106">
+        <v>16.140555555555554</v>
+      </c>
+      <c r="R106">
+        <v>16.314027777777778</v>
+      </c>
+      <c r="S106">
+        <v>16.400555555555556</v>
+      </c>
+      <c r="T106">
+        <v>16.68375</v>
+      </c>
+    </row>
+    <row r="107" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A107" t="s">
+        <v>2</v>
+      </c>
+      <c r="B107" s="1">
+        <v>44838</v>
+      </c>
+      <c r="G107">
+        <v>13.56</v>
+      </c>
+      <c r="H107">
+        <v>15.777916666666668</v>
+      </c>
+      <c r="I107">
+        <v>17.696666666666669</v>
+      </c>
+      <c r="J107">
+        <v>15.296666666666667</v>
+      </c>
+      <c r="K107">
+        <v>16.101666666666667</v>
+      </c>
+      <c r="L107">
+        <v>16.670000000000002</v>
+      </c>
+      <c r="M107">
+        <v>15.893333333333333</v>
+      </c>
+      <c r="N107">
+        <v>16.215972222222224</v>
+      </c>
+      <c r="O107">
+        <v>16.48</v>
+      </c>
+      <c r="P107">
+        <v>16.337916666666661</v>
+      </c>
+      <c r="Q107">
+        <v>16.098611111111108</v>
+      </c>
+      <c r="R107">
+        <v>16.222777777777779</v>
+      </c>
+      <c r="S107">
+        <v>16.31013888888889</v>
+      </c>
+      <c r="T107">
+        <v>16.610138888888894</v>
+      </c>
+    </row>
+    <row r="108" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A108" t="s">
+        <v>2</v>
+      </c>
+      <c r="B108" s="1">
+        <v>44839</v>
+      </c>
+      <c r="G108">
+        <v>13.49</v>
+      </c>
+      <c r="H108">
+        <v>15.523611111111114</v>
+      </c>
+      <c r="I108">
+        <v>17.196666666666669</v>
+      </c>
+      <c r="J108">
+        <v>15.173333333333332</v>
+      </c>
+      <c r="K108">
+        <v>15.888055555555551</v>
+      </c>
+      <c r="L108">
+        <v>16.419999999999998</v>
+      </c>
+      <c r="M108">
+        <v>15.79</v>
+      </c>
+      <c r="N108">
+        <v>16.083055555555557</v>
+      </c>
+      <c r="O108">
+        <v>16.420000000000002</v>
+      </c>
+      <c r="P108">
+        <v>16.258888888888887</v>
+      </c>
+      <c r="Q108">
+        <v>16.051805555555557</v>
+      </c>
+      <c r="R108">
+        <v>16.187361111111112</v>
+      </c>
+      <c r="S108">
+        <v>16.264861111111113</v>
+      </c>
+      <c r="T108">
+        <v>16.572777777777777</v>
+      </c>
+    </row>
+    <row r="109" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A109" t="s">
+        <v>2</v>
+      </c>
+      <c r="B109" s="1">
+        <v>44840</v>
+      </c>
+      <c r="G109">
+        <v>15.506666666666668</v>
+      </c>
+      <c r="H109">
+        <v>16.600555555555555</v>
+      </c>
+      <c r="I109">
+        <v>17.783333333333335</v>
+      </c>
+      <c r="J109">
+        <v>16.006666666666664</v>
+      </c>
+      <c r="K109">
+        <v>16.44597222222222</v>
+      </c>
+      <c r="L109">
+        <v>16.976666666666663</v>
+      </c>
+      <c r="M109">
+        <v>16.16333333333333</v>
+      </c>
+      <c r="N109">
+        <v>16.327361111111113</v>
+      </c>
+      <c r="O109">
+        <v>16.656666666666666</v>
+      </c>
+      <c r="P109">
+        <v>16.326666666666668</v>
+      </c>
+      <c r="Q109">
+        <v>16.040277777777774</v>
+      </c>
+      <c r="R109">
+        <v>16.157083333333336</v>
+      </c>
+      <c r="S109">
+        <v>16.224999999999998</v>
+      </c>
+      <c r="T109">
+        <v>16.540277777777778</v>
+      </c>
+    </row>
+    <row r="110" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A110" t="s">
+        <v>2</v>
+      </c>
+      <c r="B110" s="1">
+        <v>44841</v>
+      </c>
+      <c r="G110">
+        <v>16.000000000000004</v>
+      </c>
+      <c r="H110">
+        <v>17.444722222222222</v>
+      </c>
+      <c r="I110">
+        <v>18.989999999999998</v>
+      </c>
+      <c r="J110">
+        <v>16.49666666666667</v>
+      </c>
+      <c r="K110">
+        <v>17.059305555555554</v>
+      </c>
+      <c r="L110">
+        <v>17.713333333333335</v>
+      </c>
+      <c r="M110">
+        <v>16.556666666666668</v>
+      </c>
+      <c r="N110">
+        <v>16.769861111111112</v>
+      </c>
+      <c r="O110">
+        <v>17.193333333333332</v>
+      </c>
+      <c r="P110">
+        <v>16.632638888888888</v>
+      </c>
+      <c r="Q110">
+        <v>16.226944444444445</v>
+      </c>
+      <c r="R110">
+        <v>16.250694444444445</v>
+      </c>
+      <c r="S110">
+        <v>16.263611111111114</v>
+      </c>
+      <c r="T110">
+        <v>16.543194444444445</v>
+      </c>
+    </row>
+    <row r="111" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A111" t="s">
+        <v>2</v>
+      </c>
+      <c r="B111" s="1">
+        <v>44842</v>
+      </c>
+      <c r="G111">
+        <v>16.39</v>
+      </c>
+      <c r="H111">
+        <v>18.540990338164249</v>
+      </c>
+      <c r="I111">
+        <v>21.243333333333336</v>
+      </c>
+      <c r="J111">
+        <v>16.933333333333334</v>
+      </c>
+      <c r="K111">
+        <v>17.764426328502413</v>
+      </c>
+      <c r="L111">
+        <v>18.803333333333331</v>
+      </c>
+      <c r="M111">
+        <v>16.97</v>
+      </c>
+      <c r="N111">
+        <v>17.283623188405798</v>
+      </c>
+      <c r="O111">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="P111">
+        <v>17.006588164251209</v>
+      </c>
+      <c r="Q111">
+        <v>16.499021739130434</v>
+      </c>
+      <c r="R111">
+        <v>16.434468599033817</v>
+      </c>
+      <c r="S111">
+        <v>16.377892512077292</v>
+      </c>
+      <c r="T111">
+        <v>16.606853864734301</v>
+      </c>
+    </row>
+    <row r="112" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A112" t="s">
+        <v>2</v>
+      </c>
+      <c r="B112" s="1">
+        <v>44843</v>
+      </c>
+      <c r="G112">
+        <v>17.489999999999998</v>
+      </c>
+      <c r="H112">
+        <v>18.764777777777777</v>
+      </c>
+      <c r="I112">
+        <v>20.536666666666665</v>
+      </c>
+      <c r="J112">
+        <v>18.053333333333331</v>
+      </c>
+      <c r="K112">
+        <v>18.471544444444444</v>
+      </c>
+      <c r="L112">
+        <v>19</v>
+      </c>
+      <c r="M112">
+        <v>17.816666666666666</v>
+      </c>
+      <c r="N112">
+        <v>17.997161111111112</v>
+      </c>
+      <c r="O112">
+        <v>18.306666666666665</v>
+      </c>
+      <c r="P112">
+        <v>17.588122222222221</v>
+      </c>
+      <c r="Q112">
+        <v>16.918527777777779</v>
+      </c>
+      <c r="R112">
+        <v>16.724349999999998</v>
+      </c>
+      <c r="S112">
+        <v>16.570544444444447</v>
+      </c>
+      <c r="T112">
+        <v>16.730005555555554</v>
+      </c>
+    </row>
+    <row r="113" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A113" t="s">
+        <v>2</v>
+      </c>
+      <c r="B113" s="1">
+        <v>44844</v>
+      </c>
+      <c r="G113">
+        <v>16.88</v>
+      </c>
+      <c r="H113">
+        <v>17.677083333333332</v>
+      </c>
+      <c r="I113">
+        <v>18.713333333333335</v>
+      </c>
+      <c r="J113">
+        <v>17.62</v>
+      </c>
+      <c r="K113">
+        <v>17.938194444444449</v>
+      </c>
+      <c r="L113">
+        <v>18.316666666666666</v>
+      </c>
+      <c r="M113">
+        <v>17.713333333333335</v>
+      </c>
+      <c r="N113">
+        <v>17.89458333333333</v>
+      </c>
+      <c r="O113">
+        <v>18.236666666666668</v>
+      </c>
+      <c r="P113">
+        <v>17.751388888888886</v>
+      </c>
+      <c r="Q113">
+        <v>17.181666666666668</v>
+      </c>
+      <c r="R113">
+        <v>16.997361111111111</v>
+      </c>
+      <c r="S113">
+        <v>16.812916666666666</v>
+      </c>
+      <c r="T113">
+        <v>16.915972222222226</v>
+      </c>
+    </row>
+    <row r="114" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A114" t="s">
+        <v>2</v>
+      </c>
+      <c r="B114" s="1">
+        <v>44845</v>
+      </c>
+      <c r="G114">
+        <v>15.186666666666667</v>
+      </c>
+      <c r="H114">
+        <v>17.023611111111112</v>
+      </c>
+      <c r="I114">
+        <v>18.773333333333337</v>
+      </c>
+      <c r="J114">
+        <v>16.716666666666665</v>
+      </c>
+      <c r="K114">
+        <v>17.375555555555554</v>
+      </c>
+      <c r="L114">
+        <v>17.830000000000002</v>
+      </c>
+      <c r="M114">
+        <v>17.176666666666666</v>
+      </c>
+      <c r="N114">
+        <v>17.477083333333336</v>
+      </c>
+      <c r="O114">
+        <v>17.849999999999998</v>
+      </c>
+      <c r="P114">
+        <v>17.525972222222222</v>
+      </c>
+      <c r="Q114">
+        <v>17.11986111111111</v>
+      </c>
+      <c r="R114">
+        <v>17.053333333333331</v>
+      </c>
+      <c r="S114">
+        <v>16.926111111111108</v>
+      </c>
+      <c r="T114">
+        <v>17.052916666666665</v>
+      </c>
+    </row>
+    <row r="115" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A115" t="s">
+        <v>2</v>
+      </c>
+      <c r="B115" s="1">
+        <v>44846</v>
+      </c>
+      <c r="G115">
+        <v>14.796666666666667</v>
+      </c>
+      <c r="H115">
+        <v>16.869925213675213</v>
+      </c>
+      <c r="I115">
+        <v>18.803333333333331</v>
+      </c>
+      <c r="J115">
+        <v>16.383333333333336</v>
+      </c>
+      <c r="K115">
+        <v>17.109764957264957</v>
+      </c>
+      <c r="L115">
+        <v>17.706666666666667</v>
+      </c>
+      <c r="M115">
+        <v>16.906666666666666</v>
+      </c>
+      <c r="N115">
+        <v>17.21610042735043</v>
+      </c>
+      <c r="O115">
+        <v>17.546666666666667</v>
+      </c>
+      <c r="P115">
+        <v>17.309743589743594</v>
+      </c>
+      <c r="Q115">
+        <v>16.980277777777783</v>
+      </c>
+      <c r="R115">
+        <v>16.985844017094021</v>
+      </c>
+      <c r="S115">
+        <v>16.926303418803418</v>
+      </c>
+      <c r="T115">
+        <v>17.093258547008549</v>
+      </c>
+    </row>
+    <row r="116" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A116" t="s">
+        <v>2</v>
+      </c>
+      <c r="B116" s="1">
+        <v>44847</v>
+      </c>
+      <c r="G116">
+        <v>15.229999999999999</v>
+      </c>
+      <c r="H116">
+        <v>17.366249999999997</v>
+      </c>
+      <c r="I116">
+        <v>19.849999999999998</v>
+      </c>
+      <c r="J116">
+        <v>16.426666666666666</v>
+      </c>
+      <c r="K116">
+        <v>17.286527777777778</v>
+      </c>
+      <c r="L116">
+        <v>18.156666666666666</v>
+      </c>
+      <c r="M116">
+        <v>16.866666666666664</v>
+      </c>
+      <c r="N116">
+        <v>17.216805555555556</v>
+      </c>
+      <c r="O116">
+        <v>17.62</v>
+      </c>
+      <c r="P116">
+        <v>17.226388888888891</v>
+      </c>
+      <c r="Q116">
+        <v>16.883749999999999</v>
+      </c>
+      <c r="R116">
+        <v>16.914861111111108</v>
+      </c>
+      <c r="S116">
+        <v>16.882222222222225</v>
+      </c>
+      <c r="T116">
+        <v>17.083611111111111</v>
+      </c>
+    </row>
+    <row r="117" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A117" t="s">
+        <v>2</v>
+      </c>
+      <c r="B117" s="1">
+        <v>44848</v>
+      </c>
+      <c r="G117">
+        <v>16.483333333333334</v>
+      </c>
+      <c r="H117">
+        <v>18.812777777777779</v>
+      </c>
+      <c r="I117">
+        <v>21.423333333333336</v>
+      </c>
+      <c r="J117">
+        <v>17.236666666666665</v>
+      </c>
+      <c r="K117">
+        <v>18.113888888888891</v>
+      </c>
+      <c r="L117">
+        <v>19.076666666666668</v>
+      </c>
+      <c r="M117">
+        <v>17.346666666666668</v>
+      </c>
+      <c r="N117">
+        <v>17.694305555555555</v>
+      </c>
+      <c r="O117">
+        <v>18.286666666666665</v>
+      </c>
+      <c r="P117">
+        <v>17.475555555555555</v>
+      </c>
+      <c r="Q117">
+        <v>16.991805555555555</v>
+      </c>
+      <c r="R117">
+        <v>16.949861111111115</v>
+      </c>
+      <c r="S117">
+        <v>16.888472222222223</v>
+      </c>
+      <c r="T117">
+        <v>17.083333333333336</v>
+      </c>
+    </row>
+    <row r="118" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A118" t="s">
+        <v>2</v>
+      </c>
+      <c r="B118" s="1">
+        <v>44849</v>
+      </c>
+      <c r="G118">
+        <v>16.059999999999999</v>
+      </c>
+      <c r="H118">
+        <v>19.162916666666664</v>
+      </c>
+      <c r="I118">
+        <v>22.736666666666668</v>
+      </c>
+      <c r="J118">
+        <v>17.540000000000003</v>
+      </c>
+      <c r="K118">
+        <v>18.641527777777778</v>
+      </c>
+      <c r="L118">
+        <v>19.593333333333334</v>
+      </c>
+      <c r="M118">
+        <v>17.783333333333335</v>
+      </c>
+      <c r="N118">
+        <v>18.208472222222223</v>
+      </c>
+      <c r="O118">
+        <v>18.669999999999998</v>
+      </c>
+      <c r="P118">
+        <v>17.89638888888889</v>
+      </c>
+      <c r="Q118">
+        <v>17.293888888888887</v>
+      </c>
+      <c r="R118">
+        <v>17.145416666666666</v>
+      </c>
+      <c r="S118">
+        <v>17.007638888888888</v>
+      </c>
+      <c r="T118">
+        <v>17.151805555555551</v>
+      </c>
+    </row>
+    <row r="119" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A119" t="s">
+        <v>2</v>
+      </c>
+      <c r="B119" s="1">
+        <v>44850</v>
+      </c>
+      <c r="G119">
+        <v>17.23</v>
+      </c>
+      <c r="H119">
+        <v>19.30736111111111</v>
+      </c>
+      <c r="I119">
+        <v>22.196666666666669</v>
+      </c>
+      <c r="J119">
+        <v>18.059999999999999</v>
+      </c>
+      <c r="K119">
+        <v>18.870277777777776</v>
+      </c>
+      <c r="L119">
+        <v>19.613333333333333</v>
+      </c>
+      <c r="M119">
+        <v>18.156666666666666</v>
+      </c>
+      <c r="N119">
+        <v>18.492361111111109</v>
+      </c>
+      <c r="O119">
+        <v>18.83666666666667</v>
+      </c>
+      <c r="P119">
+        <v>18.184999999999999</v>
+      </c>
+      <c r="Q119">
+        <v>17.553749999999997</v>
+      </c>
+      <c r="R119">
+        <v>17.35819444444444</v>
+      </c>
+      <c r="S119">
+        <v>17.172500000000003</v>
+      </c>
+      <c r="T119">
+        <v>17.280833333333334</v>
+      </c>
+    </row>
+    <row r="120" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A120" t="s">
+        <v>2</v>
+      </c>
+      <c r="B120" s="1">
+        <v>44851</v>
+      </c>
+      <c r="G120">
+        <v>17.933333333333334</v>
+      </c>
+      <c r="H120">
+        <v>19.134444444444444</v>
+      </c>
+      <c r="I120">
+        <v>20.919999999999998</v>
+      </c>
+      <c r="J120">
+        <v>18.443333333333335</v>
+      </c>
+      <c r="K120">
+        <v>18.939722222222226</v>
+      </c>
+      <c r="L120">
+        <v>19.46</v>
+      </c>
+      <c r="M120">
+        <v>18.426666666666666</v>
+      </c>
+      <c r="N120">
+        <v>18.643611111111113</v>
+      </c>
+      <c r="O120">
+        <v>18.866666666666664</v>
+      </c>
+      <c r="P120">
+        <v>18.385555555555555</v>
+      </c>
+      <c r="Q120">
+        <v>17.747083333333332</v>
+      </c>
+      <c r="R120">
+        <v>17.542916666666667</v>
+      </c>
+      <c r="S120">
+        <v>17.338055555555556</v>
+      </c>
+      <c r="T120">
+        <v>17.4175</v>
+      </c>
+    </row>
+    <row r="121" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A121" t="s">
+        <v>2</v>
+      </c>
+      <c r="B121" s="1">
+        <v>44852</v>
+      </c>
+      <c r="G121">
+        <v>17.45</v>
+      </c>
+      <c r="H121">
+        <v>18.947500000000002</v>
+      </c>
+      <c r="I121">
+        <v>20.563333333333333</v>
+      </c>
+      <c r="J121">
+        <v>18.33666666666667</v>
+      </c>
+      <c r="K121">
+        <v>18.88625</v>
+      </c>
+      <c r="L121">
+        <v>19.343333333333334</v>
+      </c>
+      <c r="M121">
+        <v>18.426666666666666</v>
+      </c>
+      <c r="N121">
+        <v>18.670138888888889</v>
+      </c>
+      <c r="O121">
+        <v>18.866666666666664</v>
+      </c>
+      <c r="P121">
+        <v>18.468194444444446</v>
+      </c>
+      <c r="Q121">
+        <v>17.866666666666671</v>
+      </c>
+      <c r="R121">
+        <v>17.682361111111117</v>
+      </c>
+      <c r="S121">
+        <v>17.470833333333335</v>
+      </c>
+      <c r="T121">
+        <v>17.542222222222225</v>
+      </c>
+    </row>
+    <row r="122" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A122" t="s">
+        <v>2</v>
+      </c>
+      <c r="B122" s="1">
+        <v>44853</v>
+      </c>
+      <c r="G122">
+        <v>17.66333333333333</v>
+      </c>
+      <c r="H122">
+        <v>18.274444444444441</v>
+      </c>
+      <c r="I122">
+        <v>19.106666666666666</v>
+      </c>
+      <c r="J122">
+        <v>18.346666666666668</v>
+      </c>
+      <c r="K122">
+        <v>18.58763888888889</v>
+      </c>
+      <c r="L122">
+        <v>18.989999999999998</v>
+      </c>
+      <c r="M122">
+        <v>18.436666666666667</v>
+      </c>
+      <c r="N122">
+        <v>18.563333333333336</v>
+      </c>
+      <c r="O122">
+        <v>18.829999999999998</v>
+      </c>
+      <c r="P122">
+        <v>18.467083333333335</v>
+      </c>
+      <c r="Q122">
+        <v>17.923472222222223</v>
+      </c>
+      <c r="R122">
+        <v>17.757222222222222</v>
+      </c>
+      <c r="S122">
+        <v>17.576388888888886</v>
+      </c>
+      <c r="T122">
+        <v>17.643055555555559</v>
+      </c>
+    </row>
+    <row r="123" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A123" t="s">
+        <v>2</v>
+      </c>
+      <c r="B123" s="1">
+        <v>44854</v>
+      </c>
+      <c r="G123">
+        <v>17.756666666666664</v>
+      </c>
+      <c r="H123">
+        <v>18.511388888888892</v>
+      </c>
+      <c r="I123">
+        <v>19.376666666666665</v>
+      </c>
+      <c r="J123">
+        <v>18.166666666666668</v>
+      </c>
+      <c r="K123">
+        <v>18.469861111111111</v>
+      </c>
+      <c r="L123">
+        <v>18.803333333333331</v>
+      </c>
+      <c r="M123">
+        <v>18.239999999999998</v>
+      </c>
+      <c r="N123">
+        <v>18.369305555555556</v>
+      </c>
+      <c r="O123">
+        <v>18.523333333333333</v>
+      </c>
+      <c r="P123">
+        <v>18.31763888888889</v>
+      </c>
+      <c r="Q123">
+        <v>17.845000000000002</v>
+      </c>
+      <c r="R123">
+        <v>17.753611111111113</v>
+      </c>
+      <c r="S123">
+        <v>17.611527777777777</v>
+      </c>
+      <c r="T123">
+        <v>17.711805555555561</v>
+      </c>
+    </row>
+    <row r="124" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A124" t="s">
+        <v>2</v>
+      </c>
+      <c r="B124" s="1">
+        <v>44855</v>
+      </c>
+      <c r="G124">
+        <v>18.27</v>
+      </c>
+      <c r="H124">
+        <v>18.838611111111106</v>
+      </c>
+      <c r="I124">
+        <v>19.686666666666667</v>
+      </c>
+      <c r="J124">
+        <v>18.5</v>
+      </c>
+      <c r="K124">
+        <v>18.760555555555559</v>
+      </c>
+      <c r="L124">
+        <v>19.073333333333334</v>
+      </c>
+      <c r="M124">
+        <v>18.456666666666667</v>
+      </c>
+      <c r="N124">
+        <v>18.551944444444445</v>
+      </c>
+      <c r="O124">
+        <v>18.706666666666663</v>
+      </c>
+      <c r="P124">
+        <v>18.413194444444446</v>
+      </c>
+      <c r="Q124">
+        <v>17.889027777777777</v>
+      </c>
+      <c r="R124">
+        <v>17.77791666666667</v>
+      </c>
+      <c r="S124">
+        <v>17.629722222222224</v>
+      </c>
+      <c r="T124">
+        <v>17.738055555555558</v>
+      </c>
+    </row>
+    <row r="125" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A125" t="s">
+        <v>2</v>
+      </c>
+      <c r="B125" s="1">
+        <v>44856</v>
+      </c>
+      <c r="G125">
+        <v>18.286666666666665</v>
+      </c>
+      <c r="H125">
+        <v>18.628055555555552</v>
+      </c>
+      <c r="I125">
+        <v>19.060000000000002</v>
+      </c>
+      <c r="J125">
+        <v>18.613333333333333</v>
+      </c>
+      <c r="K125">
+        <v>18.752222222222219</v>
+      </c>
+      <c r="L125">
+        <v>18.933333333333334</v>
+      </c>
+      <c r="M125">
+        <v>18.559999999999999</v>
+      </c>
+      <c r="N125">
+        <v>18.635277777777777</v>
+      </c>
+      <c r="O125">
+        <v>18.706666666666667</v>
+      </c>
+      <c r="P125">
+        <v>18.513472222222219</v>
+      </c>
+      <c r="Q125">
+        <v>17.986666666666668</v>
+      </c>
+      <c r="R125">
+        <v>17.861666666666668</v>
+      </c>
+      <c r="S125">
+        <v>17.698472222222225</v>
+      </c>
+      <c r="T125">
+        <v>17.80125</v>
+      </c>
+    </row>
+    <row r="126" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A126" t="s">
+        <v>2</v>
+      </c>
+      <c r="B126" s="1">
+        <v>44857</v>
+      </c>
+      <c r="G126">
+        <v>17.570000000000004</v>
+      </c>
+      <c r="H126">
+        <v>18.105972222222221</v>
+      </c>
+      <c r="I126">
+        <v>18.876666666666669</v>
+      </c>
+      <c r="J126">
+        <v>18.099999999999998</v>
+      </c>
+      <c r="K126">
+        <v>18.361111111111114</v>
+      </c>
+      <c r="L126">
+        <v>18.633333333333336</v>
+      </c>
+      <c r="M126">
+        <v>18.260000000000002</v>
+      </c>
+      <c r="N126">
+        <v>18.407222222222227</v>
+      </c>
+      <c r="O126">
+        <v>18.626666666666665</v>
+      </c>
+      <c r="P126">
+        <v>18.419444444444441</v>
+      </c>
+      <c r="Q126">
+        <v>17.97486111111111</v>
+      </c>
+      <c r="R126">
+        <v>17.890694444444446</v>
+      </c>
+      <c r="S126">
+        <v>17.754722222222224</v>
+      </c>
+      <c r="T126">
+        <v>17.858750000000004</v>
+      </c>
+    </row>
+    <row r="127" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A127" t="s">
+        <v>2</v>
+      </c>
+      <c r="B127" s="1">
+        <v>44858</v>
+      </c>
+      <c r="G127">
+        <v>16.916666666666668</v>
+      </c>
+      <c r="H127">
+        <v>19.642777777777777</v>
+      </c>
+      <c r="I127">
+        <v>22.95</v>
+      </c>
+      <c r="J127">
+        <v>17.78</v>
+      </c>
+      <c r="K127">
+        <v>18.872083333333332</v>
+      </c>
+      <c r="L127">
+        <v>20.21</v>
+      </c>
+      <c r="M127">
+        <v>18.056666666666668</v>
+      </c>
+      <c r="N127">
+        <v>18.470277777777778</v>
+      </c>
+      <c r="O127">
+        <v>19.233333333333334</v>
+      </c>
+      <c r="P127">
+        <v>18.3325</v>
+      </c>
+      <c r="Q127">
+        <v>17.879861111111111</v>
+      </c>
+      <c r="R127">
+        <v>17.84888888888889</v>
+      </c>
+      <c r="S127">
+        <v>17.750833333333333</v>
+      </c>
+      <c r="T127">
+        <v>17.884583333333335</v>
+      </c>
+    </row>
+    <row r="128" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A128" t="s">
+        <v>2</v>
+      </c>
+      <c r="B128" s="1">
+        <v>44859</v>
+      </c>
+      <c r="G128">
+        <v>18.363333333333333</v>
+      </c>
+      <c r="H128">
+        <v>20.640972222222221</v>
+      </c>
+      <c r="I128">
+        <v>23.33666666666667</v>
+      </c>
+      <c r="J128">
+        <v>18.953333333333333</v>
+      </c>
+      <c r="K128">
+        <v>19.866250000000004</v>
+      </c>
+      <c r="L128">
+        <v>20.863333333333333</v>
+      </c>
+      <c r="M128">
+        <v>18.933333333333334</v>
+      </c>
+      <c r="N128">
+        <v>19.273611111111112</v>
+      </c>
+      <c r="O128">
+        <v>19.866666666666671</v>
+      </c>
+      <c r="P128">
+        <v>18.858611111111113</v>
+      </c>
+      <c r="Q128">
+        <v>18.173194444444444</v>
+      </c>
+      <c r="R128">
+        <v>17.978472222222223</v>
+      </c>
+      <c r="S128">
+        <v>17.80638888888889</v>
+      </c>
+      <c r="T128">
+        <v>17.910833333333329</v>
+      </c>
+    </row>
+    <row r="129" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A129" t="s">
+        <v>2</v>
+      </c>
+      <c r="B129" s="1">
+        <v>44860</v>
+      </c>
+      <c r="G129">
+        <v>18.793333333333333</v>
+      </c>
+      <c r="H129">
+        <v>21.184583333333332</v>
+      </c>
+      <c r="I129">
+        <v>24.22666666666667</v>
+      </c>
+      <c r="J129">
+        <v>19.57</v>
+      </c>
+      <c r="K129">
+        <v>20.511805555555554</v>
+      </c>
+      <c r="L129">
+        <v>21.416666666666668</v>
+      </c>
+      <c r="M129">
+        <v>19.493333333333329</v>
+      </c>
+      <c r="N129">
+        <v>19.87</v>
+      </c>
+      <c r="O129">
+        <v>20.356666666666669</v>
+      </c>
+      <c r="P129">
+        <v>19.361666666666665</v>
+      </c>
+      <c r="Q129">
+        <v>18.567499999999995</v>
+      </c>
+      <c r="R129">
+        <v>18.267777777777777</v>
+      </c>
+      <c r="S129">
+        <v>18.010277777777777</v>
+      </c>
+      <c r="T129">
+        <v>18.043888888888887</v>
+      </c>
+    </row>
+    <row r="130" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A130" t="s">
+        <v>2</v>
+      </c>
+      <c r="B130" s="1">
+        <v>44861</v>
+      </c>
+      <c r="G130">
+        <v>18.146666666666665</v>
+      </c>
+      <c r="H130">
+        <v>21.0975</v>
+      </c>
+      <c r="I130">
+        <v>24.543333333333333</v>
+      </c>
+      <c r="J130">
+        <v>19.373333333333335</v>
+      </c>
+      <c r="K130">
+        <v>20.548611111111114</v>
+      </c>
+      <c r="L130">
+        <v>21.680000000000003</v>
+      </c>
+      <c r="M130">
+        <v>19.573333333333334</v>
+      </c>
+      <c r="N130">
+        <v>20.062916666666663</v>
+      </c>
+      <c r="O130">
+        <v>20.573333333333334</v>
+      </c>
+      <c r="P130">
+        <v>19.650277777777777</v>
+      </c>
+      <c r="Q130">
+        <v>18.87875</v>
+      </c>
+      <c r="R130">
+        <v>18.552499999999998</v>
+      </c>
+      <c r="S130">
+        <v>18.243750000000002</v>
+      </c>
+      <c r="T130">
+        <v>18.227499999999996</v>
+      </c>
+    </row>
+    <row r="131" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A131" t="s">
+        <v>2</v>
+      </c>
+      <c r="B131" s="1">
+        <v>44862</v>
+      </c>
+      <c r="G131">
+        <v>18.896666666666665</v>
+      </c>
+      <c r="H131">
+        <v>21.289444444444445</v>
+      </c>
+      <c r="I131">
+        <v>24.866666666666664</v>
+      </c>
+      <c r="J131">
+        <v>19.90666666666667</v>
+      </c>
+      <c r="K131">
+        <v>20.899444444444441</v>
+      </c>
+      <c r="L131">
+        <v>21.813333333333333</v>
+      </c>
+      <c r="M131">
+        <v>19.986666666666665</v>
+      </c>
+      <c r="N131">
+        <v>20.388194444444448</v>
+      </c>
+      <c r="O131">
+        <v>20.77</v>
+      </c>
+      <c r="P131">
+        <v>19.935972222222222</v>
+      </c>
+      <c r="Q131">
+        <v>19.10916666666667</v>
+      </c>
+      <c r="R131">
+        <v>18.775000000000002</v>
+      </c>
+      <c r="S131">
+        <v>18.444444444444443</v>
+      </c>
+      <c r="T131">
+        <v>18.404583333333335</v>
+      </c>
+    </row>
+    <row r="132" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A132" t="s">
+        <v>2</v>
+      </c>
+      <c r="B132" s="1">
+        <v>44863</v>
+      </c>
+      <c r="G132">
+        <v>17.303333333333331</v>
+      </c>
+      <c r="H132">
+        <v>20.5825</v>
+      </c>
+      <c r="I132">
+        <v>24.78</v>
+      </c>
+      <c r="J132">
+        <v>19.150000000000002</v>
+      </c>
+      <c r="K132">
+        <v>20.424861111111113</v>
+      </c>
+      <c r="L132">
+        <v>21.536666666666665</v>
+      </c>
+      <c r="M132">
+        <v>19.646666666666665</v>
+      </c>
+      <c r="N132">
+        <v>20.199305555555554</v>
+      </c>
+      <c r="O132">
+        <v>20.716666666666665</v>
+      </c>
+      <c r="P132">
+        <v>19.94458333333333</v>
+      </c>
+      <c r="Q132">
+        <v>19.24208333333333</v>
+      </c>
+      <c r="R132">
+        <v>18.948472222222222</v>
+      </c>
+      <c r="S132">
+        <v>18.630694444444444</v>
+      </c>
+      <c r="T132">
+        <v>18.57930555555556</v>
+      </c>
+    </row>
+    <row r="133" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A133" t="s">
+        <v>2</v>
+      </c>
+      <c r="B133" s="1">
+        <v>44864</v>
+      </c>
+      <c r="G133">
+        <v>17.413333333333334</v>
+      </c>
+      <c r="H133">
+        <v>20.983611111111109</v>
+      </c>
+      <c r="I133">
+        <v>25.310000000000002</v>
+      </c>
+      <c r="J133">
+        <v>19.183333333333334</v>
+      </c>
+      <c r="K133">
+        <v>20.521249999999998</v>
+      </c>
+      <c r="L133">
+        <v>21.803333333333331</v>
+      </c>
+      <c r="M133">
+        <v>19.626666666666665</v>
+      </c>
+      <c r="N133">
+        <v>20.175833333333333</v>
+      </c>
+      <c r="O133">
+        <v>20.720000000000002</v>
+      </c>
+      <c r="P133">
+        <v>19.911388888888894</v>
+      </c>
+      <c r="Q133">
+        <v>19.237500000000001</v>
+      </c>
+      <c r="R133">
+        <v>18.996388888888887</v>
+      </c>
+      <c r="S133">
+        <v>18.725972222222222</v>
+      </c>
+      <c r="T133">
+        <v>18.697222222222223</v>
+      </c>
+    </row>
+    <row r="134" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A134" t="s">
+        <v>2</v>
+      </c>
+      <c r="B134" s="1">
+        <v>44865</v>
+      </c>
+      <c r="G134">
+        <v>18.323333333333334</v>
+      </c>
+      <c r="H134">
+        <v>21.450277777777782</v>
+      </c>
+      <c r="I134">
+        <v>24.816666666666663</v>
+      </c>
+      <c r="J134">
+        <v>19.663333333333334</v>
+      </c>
+      <c r="K134">
+        <v>20.847222222222225</v>
+      </c>
+      <c r="L134">
+        <v>21.88</v>
+      </c>
+      <c r="M134">
+        <v>19.926666666666666</v>
+      </c>
+      <c r="N134">
+        <v>20.412638888888889</v>
+      </c>
+      <c r="O134">
+        <v>20.88</v>
+      </c>
+      <c r="P134">
+        <v>20.073888888888888</v>
+      </c>
+      <c r="Q134">
+        <v>19.347361111111109</v>
+      </c>
+      <c r="R134">
+        <v>19.075972222222219</v>
+      </c>
+      <c r="S134">
+        <v>18.798194444444444</v>
+      </c>
+      <c r="T134">
+        <v>18.781388888888888</v>
+      </c>
+    </row>
+    <row r="135" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A135" t="s">
+        <v>2</v>
+      </c>
+      <c r="B135" s="1">
+        <v>44866</v>
+      </c>
+      <c r="G135">
+        <v>18.246666666666666</v>
+      </c>
+      <c r="H135">
+        <v>20.378055555555559</v>
+      </c>
+      <c r="I135">
+        <v>21.776666666666667</v>
+      </c>
+      <c r="J135">
+        <v>20.11</v>
+      </c>
+      <c r="K135">
+        <v>20.833611111111114</v>
+      </c>
+      <c r="L135">
+        <v>21.596666666666664</v>
+      </c>
+      <c r="M135">
+        <v>20.356666666666666</v>
+      </c>
+      <c r="N135">
+        <v>20.643611111111113</v>
+      </c>
+      <c r="O135">
+        <v>20.926666666666666</v>
+      </c>
+      <c r="P135">
+        <v>20.322916666666668</v>
+      </c>
+      <c r="Q135">
+        <v>19.546527777777779</v>
+      </c>
+      <c r="R135">
+        <v>19.229305555555559</v>
+      </c>
+      <c r="S135">
+        <v>18.920138888888886</v>
+      </c>
+      <c r="T135">
+        <v>18.880694444444448</v>
+      </c>
+    </row>
+    <row r="136" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A136" t="s">
+        <v>2</v>
+      </c>
+      <c r="B136" s="1">
+        <v>44867</v>
+      </c>
+      <c r="G136">
+        <v>16.243333333333332</v>
+      </c>
+      <c r="H136">
+        <v>18.375277777777779</v>
+      </c>
+      <c r="I136">
+        <v>21.669999999999998</v>
+      </c>
+      <c r="J136">
+        <v>18.356666666666666</v>
+      </c>
+      <c r="K136">
+        <v>19.232083333333332</v>
+      </c>
+      <c r="L136">
+        <v>19.99666666666667</v>
+      </c>
+      <c r="M136">
+        <v>19.163333333333334</v>
+      </c>
+      <c r="N136">
+        <v>19.60777777777778</v>
+      </c>
+      <c r="O136">
+        <v>20.303333333333331</v>
+      </c>
+      <c r="P136">
+        <v>19.778611111111115</v>
+      </c>
+      <c r="Q136">
+        <v>19.34138888888889</v>
+      </c>
+      <c r="R136">
+        <v>19.215277777777775</v>
+      </c>
+      <c r="S136">
+        <v>18.999722222222221</v>
+      </c>
+      <c r="T136">
+        <v>18.992361111111119</v>
+      </c>
+    </row>
+    <row r="137" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A137" t="s">
+        <v>2</v>
+      </c>
+      <c r="B137" s="1">
+        <v>44868</v>
+      </c>
+      <c r="G137">
+        <v>14.076666666666666</v>
+      </c>
+      <c r="H137">
+        <v>17.856805555555553</v>
+      </c>
+      <c r="I137">
+        <v>22.383333333333336</v>
+      </c>
+      <c r="J137">
+        <v>16.933333333333334</v>
+      </c>
+      <c r="K137">
+        <v>18.355</v>
+      </c>
+      <c r="L137">
+        <v>19.599999999999998</v>
+      </c>
+      <c r="M137">
+        <v>18.126666666666669</v>
+      </c>
+      <c r="N137">
+        <v>18.759027777777774</v>
+      </c>
+      <c r="O137">
+        <v>19.463333333333335</v>
+      </c>
+      <c r="P137">
+        <v>19.089583333333334</v>
+      </c>
+      <c r="Q137">
+        <v>18.867222222222221</v>
+      </c>
+      <c r="R137">
+        <v>18.923611111111111</v>
+      </c>
+      <c r="S137">
+        <v>18.853055555555557</v>
+      </c>
+      <c r="T137">
+        <v>18.939583333333335</v>
+      </c>
+    </row>
+    <row r="138" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A138" t="s">
+        <v>2</v>
+      </c>
+      <c r="B138" s="1">
+        <v>44869</v>
+      </c>
+      <c r="G138">
+        <v>15.033333333333331</v>
+      </c>
+      <c r="H138">
+        <v>18.816805555555558</v>
+      </c>
+      <c r="I138">
+        <v>23.17</v>
+      </c>
+      <c r="J138">
+        <v>17.310000000000002</v>
+      </c>
+      <c r="K138">
+        <v>18.722083333333334</v>
+      </c>
+      <c r="L138">
+        <v>20.016666666666666</v>
+      </c>
+      <c r="M138">
+        <v>18.176666666666666</v>
+      </c>
+      <c r="N138">
+        <v>18.737500000000001</v>
+      </c>
+      <c r="O138">
+        <v>19.293333333333333</v>
+      </c>
+      <c r="P138">
+        <v>18.843194444444446</v>
+      </c>
+      <c r="Q138">
+        <v>18.552916666666672</v>
+      </c>
+      <c r="R138">
+        <v>18.635138888888889</v>
+      </c>
+      <c r="S138">
+        <v>18.626388888888886</v>
+      </c>
+      <c r="T138">
+        <v>18.797777777777782</v>
+      </c>
+    </row>
+    <row r="139" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A139" t="s">
+        <v>2</v>
+      </c>
+      <c r="B139" s="1">
+        <v>44870</v>
+      </c>
+      <c r="G139">
+        <v>16.173333333333336</v>
+      </c>
+      <c r="H139">
+        <v>19.36375</v>
+      </c>
+      <c r="I139">
+        <v>22.983333333333334</v>
+      </c>
+      <c r="J139">
+        <v>18.006666666666664</v>
+      </c>
+      <c r="K139">
+        <v>19.187638888888888</v>
+      </c>
+      <c r="L139">
+        <v>20.209999999999997</v>
+      </c>
+      <c r="M139">
+        <v>18.57</v>
+      </c>
+      <c r="N139">
+        <v>19.03638888888889</v>
+      </c>
+      <c r="O139">
+        <v>19.496666666666666</v>
+      </c>
+      <c r="P139">
+        <v>18.972499999999997</v>
+      </c>
+      <c r="Q139">
+        <v>18.545555555555556</v>
+      </c>
+      <c r="R139">
+        <v>18.549722222222226</v>
+      </c>
+      <c r="S139">
+        <v>18.502777777777776</v>
+      </c>
+      <c r="T139">
+        <v>18.673472222222227</v>
+      </c>
+    </row>
+    <row r="140" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A140" t="s">
+        <v>2</v>
+      </c>
+      <c r="B140" s="1">
+        <v>44871</v>
+      </c>
+      <c r="G140">
+        <v>16.373333333333335</v>
+      </c>
+      <c r="H140">
+        <v>19.54847222222222</v>
+      </c>
+      <c r="I140">
+        <v>22.923333333333332</v>
+      </c>
+      <c r="J140">
+        <v>18.21</v>
+      </c>
+      <c r="K140">
+        <v>19.366805555555555</v>
+      </c>
+      <c r="L140">
+        <v>20.366666666666664</v>
+      </c>
+      <c r="M140">
+        <v>18.736666666666668</v>
+      </c>
+      <c r="N140">
+        <v>19.19541666666667</v>
+      </c>
+      <c r="O140">
+        <v>19.63</v>
+      </c>
+      <c r="P140">
+        <v>19.094861111111111</v>
+      </c>
+      <c r="Q140">
+        <v>18.616111111111106</v>
+      </c>
+      <c r="R140">
+        <v>18.565138888888885</v>
+      </c>
+      <c r="S140">
+        <v>18.479861111111109</v>
+      </c>
+      <c r="T140">
+        <v>18.641666666666669</v>
+      </c>
+    </row>
+    <row r="141" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A141" t="s">
+        <v>2</v>
+      </c>
+      <c r="B141" s="1">
+        <v>44872</v>
+      </c>
+      <c r="G141">
+        <v>16.88</v>
+      </c>
+      <c r="H141">
+        <v>20.048194444444444</v>
+      </c>
+      <c r="I141">
+        <v>23.98</v>
+      </c>
+      <c r="J141">
+        <v>18.496666666666666</v>
+      </c>
+      <c r="K141">
+        <v>19.675277777777779</v>
+      </c>
+      <c r="L141">
+        <v>20.853333333333335</v>
+      </c>
+      <c r="M141">
+        <v>18.923333333333332</v>
+      </c>
+      <c r="N141">
+        <v>19.393055555555556</v>
+      </c>
+      <c r="O141">
+        <v>19.916666666666668</v>
+      </c>
+      <c r="P141">
+        <v>19.22486111111111</v>
+      </c>
+      <c r="Q141">
+        <v>18.694166666666664</v>
+      </c>
+      <c r="R141">
+        <v>18.611111111111111</v>
+      </c>
+      <c r="S141">
+        <v>18.504027777777775</v>
+      </c>
+      <c r="T141">
+        <v>18.643472222222229</v>
+      </c>
+    </row>
+    <row r="142" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A142" t="s">
+        <v>2</v>
+      </c>
+      <c r="B142" s="1">
+        <v>44873</v>
+      </c>
+      <c r="G142">
+        <v>16.733333333333334</v>
+      </c>
+      <c r="H142">
+        <v>20.193333333333339</v>
+      </c>
+      <c r="I142">
+        <v>24.320000000000004</v>
+      </c>
+      <c r="J142">
+        <v>18.566666666666666</v>
+      </c>
+      <c r="K142">
+        <v>19.865694444444447</v>
+      </c>
+      <c r="L142">
+        <v>21.08</v>
+      </c>
+      <c r="M142">
+        <v>19.056666666666665</v>
+      </c>
+      <c r="N142">
+        <v>19.589166666666664</v>
+      </c>
+      <c r="O142">
+        <v>20.099999999999998</v>
+      </c>
+      <c r="P142">
+        <v>19.390555555555554</v>
+      </c>
+      <c r="Q142">
+        <v>18.82513888888889</v>
+      </c>
+      <c r="R142">
+        <v>18.695972222222224</v>
+      </c>
+      <c r="S142">
+        <v>18.556805555555556</v>
+      </c>
+      <c r="T142">
+        <v>18.666111111111107</v>
+      </c>
+    </row>
+    <row r="143" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A143" t="s">
+        <v>2</v>
+      </c>
+      <c r="B143" s="1">
+        <v>44874</v>
+      </c>
+      <c r="G143">
+        <v>16.87</v>
+      </c>
+      <c r="H143">
+        <v>20.668055555555558</v>
+      </c>
+      <c r="I143">
+        <v>25.043333333333333</v>
+      </c>
+      <c r="J143">
+        <v>18.73</v>
+      </c>
+      <c r="K143">
+        <v>20.137916666666669</v>
+      </c>
+      <c r="L143">
+        <v>21.419999999999998</v>
+      </c>
+      <c r="M143">
+        <v>19.213333333333335</v>
+      </c>
+      <c r="N143">
+        <v>19.785972222222227</v>
+      </c>
+      <c r="O143">
+        <v>20.376666666666669</v>
+      </c>
+      <c r="P143">
+        <v>19.543611111111108</v>
+      </c>
+      <c r="Q143">
+        <v>18.946805555555557</v>
+      </c>
+      <c r="R143">
+        <v>18.792777777777776</v>
+      </c>
+      <c r="S143">
+        <v>18.62833333333333</v>
+      </c>
+      <c r="T143">
+        <v>18.716944444444444</v>
+      </c>
+    </row>
+    <row r="144" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A144" t="s">
+        <v>2</v>
+      </c>
+      <c r="B144" s="1">
+        <v>44875</v>
+      </c>
+      <c r="G144">
+        <v>17.193333333333332</v>
+      </c>
+      <c r="H144">
+        <v>20.836111111111112</v>
+      </c>
+      <c r="I144">
+        <v>24.943333333333332</v>
+      </c>
+      <c r="J144">
+        <v>19.033333333333335</v>
+      </c>
+      <c r="K144">
+        <v>20.395694444444445</v>
+      </c>
+      <c r="L144">
+        <v>21.603333333333335</v>
+      </c>
+      <c r="M144">
+        <v>19.503333333333334</v>
+      </c>
+      <c r="N144">
+        <v>20.035</v>
+      </c>
+      <c r="O144">
+        <v>20.55</v>
+      </c>
+      <c r="P144">
+        <v>19.753611111111113</v>
+      </c>
+      <c r="Q144">
+        <v>19.103194444444441</v>
+      </c>
+      <c r="R144">
+        <v>18.911944444444444</v>
+      </c>
+      <c r="S144">
+        <v>18.72</v>
+      </c>
+      <c r="T144">
+        <v>18.789444444444442</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A145" t="s">
+        <v>7</v>
+      </c>
+      <c r="B145" s="1">
+        <v>44764</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A146" t="s">
+        <v>7</v>
+      </c>
+      <c r="B146" s="1">
+        <v>44765</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A147" t="s">
+        <v>7</v>
+      </c>
+      <c r="B147" s="1">
+        <v>44766</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A148" t="s">
+        <v>7</v>
+      </c>
+      <c r="B148" s="1">
+        <v>44767</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A149" t="s">
+        <v>7</v>
+      </c>
+      <c r="B149" s="1">
+        <v>44768</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A150" t="s">
+        <v>7</v>
+      </c>
+      <c r="B150" s="1">
+        <v>44769</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A151" t="s">
+        <v>7</v>
+      </c>
+      <c r="B151" s="1">
+        <v>44770</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A152" t="s">
+        <v>7</v>
+      </c>
+      <c r="B152" s="1">
+        <v>44771</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A153" t="s">
+        <v>7</v>
+      </c>
+      <c r="B153" s="1">
+        <v>44772</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A154" t="s">
+        <v>7</v>
+      </c>
+      <c r="B154" s="1">
+        <v>44773</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A155" t="s">
+        <v>7</v>
+      </c>
+      <c r="B155" s="1">
+        <v>44774</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A156" t="s">
+        <v>7</v>
+      </c>
+      <c r="B156" s="1">
+        <v>44775</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A157" t="s">
+        <v>7</v>
+      </c>
+      <c r="B157" s="1">
+        <v>44776</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A158" t="s">
+        <v>7</v>
+      </c>
+      <c r="B158" s="1">
+        <v>44777</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A159" t="s">
+        <v>7</v>
+      </c>
+      <c r="B159" s="1">
+        <v>44778</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A160" t="s">
+        <v>7</v>
+      </c>
+      <c r="B160" s="1">
+        <v>44779</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A161" t="s">
+        <v>7</v>
+      </c>
+      <c r="B161" s="1">
+        <v>44780</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A162" t="s">
+        <v>7</v>
+      </c>
+      <c r="B162" s="1">
+        <v>44781</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A163" t="s">
+        <v>7</v>
+      </c>
+      <c r="B163" s="1">
+        <v>44782</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A164" t="s">
+        <v>7</v>
+      </c>
+      <c r="B164" s="1">
+        <v>44783</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A165" t="s">
+        <v>7</v>
+      </c>
+      <c r="B165" s="1">
+        <v>44784</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A166" t="s">
+        <v>7</v>
+      </c>
+      <c r="B166" s="1">
+        <v>44785</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A167" t="s">
+        <v>7</v>
+      </c>
+      <c r="B167" s="1">
+        <v>44786</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A168" t="s">
+        <v>7</v>
+      </c>
+      <c r="B168" s="1">
+        <v>44787</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A169" t="s">
+        <v>7</v>
+      </c>
+      <c r="B169" s="1">
+        <v>44788</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A170" t="s">
+        <v>7</v>
+      </c>
+      <c r="B170" s="1">
+        <v>44789</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A171" t="s">
+        <v>7</v>
+      </c>
+      <c r="B171" s="1">
+        <v>44790</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A172" t="s">
+        <v>7</v>
+      </c>
+      <c r="B172" s="1">
+        <v>44791</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A173" t="s">
+        <v>7</v>
+      </c>
+      <c r="B173" s="1">
+        <v>44792</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A174" t="s">
+        <v>7</v>
+      </c>
+      <c r="B174" s="1">
+        <v>44793</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A175" t="s">
+        <v>7</v>
+      </c>
+      <c r="B175" s="1">
+        <v>44794</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A176" t="s">
+        <v>7</v>
+      </c>
+      <c r="B176" s="1">
+        <v>44795</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A177" t="s">
+        <v>7</v>
+      </c>
+      <c r="B177" s="1">
+        <v>44796</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A178" t="s">
+        <v>7</v>
+      </c>
+      <c r="B178" s="1">
+        <v>44797</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A179" t="s">
+        <v>7</v>
+      </c>
+      <c r="B179" s="1">
+        <v>44798</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A180" t="s">
+        <v>7</v>
+      </c>
+      <c r="B180" s="1">
+        <v>44799</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A181" t="s">
+        <v>7</v>
+      </c>
+      <c r="B181" s="1">
+        <v>44800</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A182" t="s">
+        <v>7</v>
+      </c>
+      <c r="B182" s="1">
+        <v>44801</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A183" t="s">
+        <v>7</v>
+      </c>
+      <c r="B183" s="1">
+        <v>44802</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A184" t="s">
+        <v>7</v>
+      </c>
+      <c r="B184" s="1">
+        <v>44803</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A185" t="s">
+        <v>7</v>
+      </c>
+      <c r="B185" s="1">
+        <v>44804</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A186" t="s">
+        <v>7</v>
+      </c>
+      <c r="B186" s="1">
+        <v>44805</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A187" t="s">
+        <v>7</v>
+      </c>
+      <c r="B187" s="1">
+        <v>44806</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A188" t="s">
+        <v>7</v>
+      </c>
+      <c r="B188" s="1">
+        <v>44807</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A189" t="s">
+        <v>7</v>
+      </c>
+      <c r="B189" s="1">
+        <v>44808</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A190" t="s">
+        <v>7</v>
+      </c>
+      <c r="B190" s="1">
+        <v>44809</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A191" t="s">
+        <v>7</v>
+      </c>
+      <c r="B191" s="1">
+        <v>44810</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A192" t="s">
+        <v>7</v>
+      </c>
+      <c r="B192" s="1">
+        <v>44811</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A193" t="s">
+        <v>7</v>
+      </c>
+      <c r="B193" s="1">
+        <v>44812</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A194" t="s">
+        <v>7</v>
+      </c>
+      <c r="B194" s="1">
+        <v>44813</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A195" t="s">
+        <v>7</v>
+      </c>
+      <c r="B195" s="1">
+        <v>44814</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A196" t="s">
+        <v>7</v>
+      </c>
+      <c r="B196" s="1">
+        <v>44815</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A197" t="s">
+        <v>7</v>
+      </c>
+      <c r="B197" s="1">
+        <v>44816</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A198" t="s">
+        <v>7</v>
+      </c>
+      <c r="B198" s="1">
+        <v>44817</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A199" t="s">
+        <v>7</v>
+      </c>
+      <c r="B199" s="1">
+        <v>44818</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A200" t="s">
+        <v>7</v>
+      </c>
+      <c r="B200" s="1">
+        <v>44819</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A201" t="s">
+        <v>7</v>
+      </c>
+      <c r="B201" s="1">
+        <v>44820</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A202" t="s">
+        <v>7</v>
+      </c>
+      <c r="B202" s="1">
+        <v>44821</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A203" t="s">
+        <v>7</v>
+      </c>
+      <c r="B203" s="1">
+        <v>44822</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A204" t="s">
+        <v>7</v>
+      </c>
+      <c r="B204" s="1">
+        <v>44823</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A205" t="s">
+        <v>7</v>
+      </c>
+      <c r="B205" s="1">
+        <v>44824</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A206" t="s">
+        <v>7</v>
+      </c>
+      <c r="B206" s="1">
+        <v>44825</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A207" t="s">
+        <v>7</v>
+      </c>
+      <c r="B207" s="1">
+        <v>44826</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A208" t="s">
+        <v>7</v>
+      </c>
+      <c r="B208" s="1">
+        <v>44827</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A209" t="s">
+        <v>7</v>
+      </c>
+      <c r="B209" s="1">
+        <v>44828</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A210" t="s">
+        <v>7</v>
+      </c>
+      <c r="B210" s="1">
+        <v>44829</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A211" t="s">
+        <v>7</v>
+      </c>
+      <c r="B211" s="1">
+        <v>44830</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A212" t="s">
+        <v>7</v>
+      </c>
+      <c r="B212" s="1">
+        <v>44831</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A213" t="s">
+        <v>7</v>
+      </c>
+      <c r="B213" s="1">
+        <v>44832</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A214" t="s">
+        <v>7</v>
+      </c>
+      <c r="B214" s="1">
+        <v>44833</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A215" t="s">
+        <v>7</v>
+      </c>
+      <c r="B215" s="1">
+        <v>44834</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A216" t="s">
+        <v>7</v>
+      </c>
+      <c r="B216" s="1">
+        <v>44835</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A217" t="s">
+        <v>7</v>
+      </c>
+      <c r="B217" s="1">
+        <v>44836</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A218" t="s">
+        <v>7</v>
+      </c>
+      <c r="B218" s="1">
+        <v>44837</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A219" t="s">
+        <v>7</v>
+      </c>
+      <c r="B219" s="1">
+        <v>44838</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A220" t="s">
+        <v>7</v>
+      </c>
+      <c r="B220" s="1">
+        <v>44839</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A221" t="s">
+        <v>7</v>
+      </c>
+      <c r="B221" s="1">
+        <v>44840</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A222" t="s">
+        <v>7</v>
+      </c>
+      <c r="B222" s="1">
+        <v>44841</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A223" t="s">
+        <v>7</v>
+      </c>
+      <c r="B223" s="1">
+        <v>44842</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A224" t="s">
+        <v>7</v>
+      </c>
+      <c r="B224" s="1">
+        <v>44843</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A225" t="s">
+        <v>7</v>
+      </c>
+      <c r="B225" s="1">
+        <v>44844</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A226" t="s">
+        <v>7</v>
+      </c>
+      <c r="B226" s="1">
+        <v>44845</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A227" t="s">
+        <v>7</v>
+      </c>
+      <c r="B227" s="1">
+        <v>44846</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A228" t="s">
+        <v>7</v>
+      </c>
+      <c r="B228" s="1">
+        <v>44847</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A229" t="s">
+        <v>7</v>
+      </c>
+      <c r="B229" s="1">
+        <v>44848</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A230" t="s">
+        <v>7</v>
+      </c>
+      <c r="B230" s="1">
+        <v>44849</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A231" t="s">
+        <v>7</v>
+      </c>
+      <c r="B231" s="1">
+        <v>44850</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A232" t="s">
+        <v>7</v>
+      </c>
+      <c r="B232" s="1">
+        <v>44851</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A233" t="s">
+        <v>7</v>
+      </c>
+      <c r="B233" s="1">
+        <v>44852</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A234" t="s">
+        <v>7</v>
+      </c>
+      <c r="B234" s="1">
+        <v>44853</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A235" t="s">
+        <v>7</v>
+      </c>
+      <c r="B235" s="1">
+        <v>44854</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A236" t="s">
+        <v>7</v>
+      </c>
+      <c r="B236" s="1">
+        <v>44855</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A237" t="s">
+        <v>7</v>
+      </c>
+      <c r="B237" s="1">
+        <v>44856</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A238" t="s">
+        <v>7</v>
+      </c>
+      <c r="B238" s="1">
+        <v>44857</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A239" t="s">
+        <v>7</v>
+      </c>
+      <c r="B239" s="1">
+        <v>44858</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A240" t="s">
+        <v>7</v>
+      </c>
+      <c r="B240" s="1">
+        <v>44859</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A241" t="s">
+        <v>7</v>
+      </c>
+      <c r="B241" s="1">
+        <v>44860</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A242" t="s">
+        <v>7</v>
+      </c>
+      <c r="B242" s="1">
+        <v>44861</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A243" t="s">
+        <v>7</v>
+      </c>
+      <c r="B243" s="1">
+        <v>44862</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A244" t="s">
+        <v>7</v>
+      </c>
+      <c r="B244" s="1">
+        <v>44863</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A245" t="s">
+        <v>7</v>
+      </c>
+      <c r="B245" s="1">
+        <v>44864</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A246" t="s">
+        <v>7</v>
+      </c>
+      <c r="B246" s="1">
+        <v>44865</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A247" t="s">
+        <v>7</v>
+      </c>
+      <c r="B247" s="1">
+        <v>44866</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A248" t="s">
+        <v>7</v>
+      </c>
+      <c r="B248" s="1">
+        <v>44867</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A249" t="s">
+        <v>7</v>
+      </c>
+      <c r="B249" s="1">
+        <v>44868</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A250" t="s">
+        <v>7</v>
+      </c>
+      <c r="B250" s="1">
+        <v>44869</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A251" t="s">
+        <v>7</v>
+      </c>
+      <c r="B251" s="1">
+        <v>44870</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A252" t="s">
+        <v>7</v>
+      </c>
+      <c r="B252" s="1">
+        <v>44871</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A253" t="s">
+        <v>7</v>
+      </c>
+      <c r="B253" s="1">
+        <v>44872</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A254" t="s">
+        <v>7</v>
+      </c>
+      <c r="B254" s="1">
+        <v>44873</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A255" t="s">
+        <v>7</v>
+      </c>
+      <c r="B255" s="1">
+        <v>44874</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A256" t="s">
+        <v>7</v>
+      </c>
+      <c r="B256" s="1">
+        <v>44875</v>
+      </c>
     </row>
     <row r="257" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B257" s="1"/>

--- a/Tests/UnderReview/SoilTemperature/Observed/ForestHillWheatObserved.xlsx
+++ b/Tests/UnderReview/SoilTemperature/Observed/ForestHillWheatObserved.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\Repos\ApsimX\Tests\UnderReview\SoilTemperature\Observed\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15A8A3EC-3B52-4C88-9EB1-B8EF9DC5254C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79D26784-1267-41AB-BDD6-AE2901A58F31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28690" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{AB132F13-A725-4DAE-B1FC-95CF16A112E6}"/>
   </bookViews>
@@ -59,9 +59,6 @@
     <t>Wheat.Grain.Wt</t>
   </si>
   <si>
-    <t>ForestHillWheatLockyer</t>
-  </si>
-  <si>
     <t>MinSoilTemp@050mm</t>
   </si>
   <si>
@@ -102,6 +99,9 @@
   </si>
   <si>
     <t>AverageSoilTemp@750mm</t>
+  </si>
+  <si>
+    <t>ForestHillWheatTentHill</t>
   </si>
 </sst>
 </file>
@@ -160,14 +160,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -504,8 +503,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CAA66A4-B0DA-41F1-BA43-62C9EDA796AC}">
   <dimension ref="A1:T412"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="Q16" sqref="Q16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -550,46 +549,46 @@
         <v>6</v>
       </c>
       <c r="G1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" t="s">
         <v>8</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>9</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>10</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>11</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>12</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>13</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>14</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>15</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>16</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="Q1" t="s">
         <v>17</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="R1" t="s">
         <v>18</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="S1" t="s">
         <v>19</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="T1" t="s">
         <v>20</v>
-      </c>
-      <c r="T1" s="4" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.45">
@@ -789,7 +788,7 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="B20" s="3">
         <v>44763</v>
@@ -800,7 +799,7 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="B21" s="3">
         <v>44768</v>
@@ -811,7 +810,7 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="B22" s="3">
         <v>44777</v>
@@ -825,7 +824,7 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="B23" s="3">
         <v>44783</v>
@@ -836,7 +835,7 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="B24" s="3">
         <v>44789</v>
@@ -850,7 +849,7 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="B25" s="3">
         <v>44796</v>
@@ -864,7 +863,7 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="B26" s="3">
         <v>44801</v>
@@ -878,7 +877,7 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="B27" s="3">
         <v>44810</v>
@@ -889,7 +888,7 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="B28" s="3">
         <v>44810</v>
@@ -900,7 +899,7 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="B29" s="3">
         <v>44815</v>
@@ -911,7 +910,7 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="B30" s="3">
         <v>44822</v>
@@ -922,7 +921,7 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="B31" s="3">
         <v>44829</v>
@@ -933,7 +932,7 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="B32" s="3">
         <v>44876</v>
@@ -6545,948 +6544,5484 @@
         <v>18.789444444444442</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="145" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A145" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="B145" s="1">
         <v>44764</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="146" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A146" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="B146" s="1">
         <v>44765</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="147" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A147" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="B147" s="1">
         <v>44766</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="148" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A148" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="B148" s="1">
         <v>44767</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="149" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A149" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="B149" s="1">
         <v>44768</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="150" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A150" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="B150" s="1">
         <v>44769</v>
       </c>
-    </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="G150">
+        <v>10.763333333333334</v>
+      </c>
+      <c r="H150">
+        <v>12.380972222222221</v>
+      </c>
+      <c r="I150">
+        <v>13.843333333333334</v>
+      </c>
+      <c r="J150">
+        <v>12.646666666666667</v>
+      </c>
+      <c r="K150">
+        <v>13.251249999999999</v>
+      </c>
+      <c r="L150">
+        <v>14.29</v>
+      </c>
+      <c r="M150">
+        <v>13.12</v>
+      </c>
+      <c r="N150">
+        <v>13.408611111111112</v>
+      </c>
+      <c r="O150">
+        <v>13.736666666666666</v>
+      </c>
+      <c r="P150">
+        <v>13.583749999999995</v>
+      </c>
+      <c r="Q150">
+        <v>13.490833333333333</v>
+      </c>
+      <c r="R150">
+        <v>13.783055555555556</v>
+      </c>
+      <c r="S150">
+        <v>13.949444444444444</v>
+      </c>
+      <c r="T150">
+        <v>14.257777777777775</v>
+      </c>
+    </row>
+    <row r="151" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A151" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="B151" s="1">
         <v>44770</v>
       </c>
-    </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="G151">
+        <v>8.9733333333333345</v>
+      </c>
+      <c r="H151">
+        <v>12.113750000000001</v>
+      </c>
+      <c r="I151">
+        <v>15.813333333333333</v>
+      </c>
+      <c r="J151">
+        <v>11.589999999999998</v>
+      </c>
+      <c r="K151">
+        <v>12.58513888888889</v>
+      </c>
+      <c r="L151">
+        <v>13.583333333333334</v>
+      </c>
+      <c r="M151">
+        <v>12.543333333333335</v>
+      </c>
+      <c r="N151">
+        <v>12.919861111111111</v>
+      </c>
+      <c r="O151">
+        <v>13.273333333333333</v>
+      </c>
+      <c r="P151">
+        <v>13.361805555555556</v>
+      </c>
+      <c r="Q151">
+        <v>13.429027777777776</v>
+      </c>
+      <c r="R151">
+        <v>13.797222222222222</v>
+      </c>
+      <c r="S151">
+        <v>13.988194444444446</v>
+      </c>
+      <c r="T151">
+        <v>14.284999999999997</v>
+      </c>
+    </row>
+    <row r="152" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A152" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="B152" s="1">
         <v>44771</v>
       </c>
-    </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="G152">
+        <v>8.6233333333333348</v>
+      </c>
+      <c r="H152">
+        <v>11.677777777777777</v>
+      </c>
+      <c r="I152">
+        <v>14.996666666666668</v>
+      </c>
+      <c r="J152">
+        <v>11.493333333333334</v>
+      </c>
+      <c r="K152">
+        <v>12.484305555555553</v>
+      </c>
+      <c r="L152">
+        <v>13.270000000000001</v>
+      </c>
+      <c r="M152">
+        <v>12.473333333333331</v>
+      </c>
+      <c r="N152">
+        <v>12.848055555555556</v>
+      </c>
+      <c r="O152">
+        <v>13.236666666666666</v>
+      </c>
+      <c r="P152">
+        <v>13.263194444444444</v>
+      </c>
+      <c r="Q152">
+        <v>13.336527777777777</v>
+      </c>
+      <c r="R152">
+        <v>13.732083333333334</v>
+      </c>
+      <c r="S152">
+        <v>13.965138888888893</v>
+      </c>
+      <c r="T152">
+        <v>14.287500000000001</v>
+      </c>
+    </row>
+    <row r="153" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A153" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="B153" s="1">
         <v>44772</v>
       </c>
-    </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="G153">
+        <v>9.7166666666666668</v>
+      </c>
+      <c r="H153">
+        <v>12.153888888888888</v>
+      </c>
+      <c r="I153">
+        <v>15.326666666666668</v>
+      </c>
+      <c r="J153">
+        <v>11.696666666666665</v>
+      </c>
+      <c r="K153">
+        <v>12.522500000000003</v>
+      </c>
+      <c r="L153">
+        <v>13.436666666666667</v>
+      </c>
+      <c r="M153">
+        <v>12.453333333333333</v>
+      </c>
+      <c r="N153">
+        <v>12.770694444444445</v>
+      </c>
+      <c r="O153">
+        <v>13.056666666666667</v>
+      </c>
+      <c r="P153">
+        <v>13.171249999999999</v>
+      </c>
+      <c r="Q153">
+        <v>13.257361111111109</v>
+      </c>
+      <c r="R153">
+        <v>13.678750000000001</v>
+      </c>
+      <c r="S153">
+        <v>13.919861111111112</v>
+      </c>
+      <c r="T153">
+        <v>14.273055555555556</v>
+      </c>
+    </row>
+    <row r="154" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A154" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="B154" s="1">
         <v>44773</v>
       </c>
-    </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="G154">
+        <v>10.520000000000001</v>
+      </c>
+      <c r="H154">
+        <v>12.55778381642512</v>
+      </c>
+      <c r="I154">
+        <v>14.616666666666667</v>
+      </c>
+      <c r="J154">
+        <v>12.106666666666667</v>
+      </c>
+      <c r="K154">
+        <v>12.786714975845412</v>
+      </c>
+      <c r="L154">
+        <v>13.430000000000001</v>
+      </c>
+      <c r="M154">
+        <v>12.68</v>
+      </c>
+      <c r="N154">
+        <v>12.928472222222224</v>
+      </c>
+      <c r="O154">
+        <v>13.13</v>
+      </c>
+      <c r="P154">
+        <v>13.235193236714975</v>
+      </c>
+      <c r="Q154">
+        <v>13.260513285024153</v>
+      </c>
+      <c r="R154">
+        <v>13.658864734299518</v>
+      </c>
+      <c r="S154">
+        <v>13.896074879227053</v>
+      </c>
+      <c r="T154">
+        <v>14.24623188405797</v>
+      </c>
+    </row>
+    <row r="155" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A155" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="B155" s="1">
         <v>44774</v>
       </c>
-    </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="G155">
+        <v>11.896666666666667</v>
+      </c>
+      <c r="H155">
+        <v>13.291327777777781</v>
+      </c>
+      <c r="I155">
+        <v>15.033333333333333</v>
+      </c>
+      <c r="J155">
+        <v>12.74</v>
+      </c>
+      <c r="K155">
+        <v>13.2386</v>
+      </c>
+      <c r="L155">
+        <v>13.75</v>
+      </c>
+      <c r="M155">
+        <v>13.016666666666666</v>
+      </c>
+      <c r="N155">
+        <v>13.171294444444447</v>
+      </c>
+      <c r="O155">
+        <v>13.423333333333334</v>
+      </c>
+      <c r="P155">
+        <v>13.365738888888886</v>
+      </c>
+      <c r="Q155">
+        <v>13.334272222222223</v>
+      </c>
+      <c r="R155">
+        <v>13.686983333333336</v>
+      </c>
+      <c r="S155">
+        <v>13.901983333333334</v>
+      </c>
+      <c r="T155">
+        <v>14.240344444444446</v>
+      </c>
+    </row>
+    <row r="156" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A156" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="B156" s="1">
         <v>44775</v>
       </c>
-    </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="G156">
+        <v>10.686666666666667</v>
+      </c>
+      <c r="H156">
+        <v>13.766944444444443</v>
+      </c>
+      <c r="I156">
+        <v>17.286666666666665</v>
+      </c>
+      <c r="J156">
+        <v>12.520000000000001</v>
+      </c>
+      <c r="K156">
+        <v>13.46597222222222</v>
+      </c>
+      <c r="L156">
+        <v>14.573333333333332</v>
+      </c>
+      <c r="M156">
+        <v>13.030000000000001</v>
+      </c>
+      <c r="N156">
+        <v>13.350833333333332</v>
+      </c>
+      <c r="O156">
+        <v>13.82</v>
+      </c>
+      <c r="P156">
+        <v>13.519305555555556</v>
+      </c>
+      <c r="Q156">
+        <v>13.45986111111111</v>
+      </c>
+      <c r="R156">
+        <v>13.770416666666668</v>
+      </c>
+      <c r="S156">
+        <v>13.948611111111113</v>
+      </c>
+      <c r="T156">
+        <v>14.256527777777777</v>
+      </c>
+    </row>
+    <row r="157" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A157" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="B157" s="1">
         <v>44776</v>
       </c>
-    </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="G157">
+        <v>12.396666666666667</v>
+      </c>
+      <c r="H157">
+        <v>14.922638888888889</v>
+      </c>
+      <c r="I157">
+        <v>18.246666666666666</v>
+      </c>
+      <c r="J157">
+        <v>13.433333333333332</v>
+      </c>
+      <c r="K157">
+        <v>14.306111111111109</v>
+      </c>
+      <c r="L157">
+        <v>15.383333333333335</v>
+      </c>
+      <c r="M157">
+        <v>13.61</v>
+      </c>
+      <c r="N157">
+        <v>13.893750000000002</v>
+      </c>
+      <c r="O157">
+        <v>14.410000000000002</v>
+      </c>
+      <c r="P157">
+        <v>13.834166666666668</v>
+      </c>
+      <c r="Q157">
+        <v>13.647222222222219</v>
+      </c>
+      <c r="R157">
+        <v>13.879861111111111</v>
+      </c>
+      <c r="S157">
+        <v>14.020138888888889</v>
+      </c>
+      <c r="T157">
+        <v>14.301388888888887</v>
+      </c>
+    </row>
+    <row r="158" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A158" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="B158" s="1">
         <v>44777</v>
       </c>
-    </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="G158">
+        <v>12.910000000000002</v>
+      </c>
+      <c r="H158">
+        <v>15.519722222222223</v>
+      </c>
+      <c r="I158">
+        <v>18.733333333333334</v>
+      </c>
+      <c r="J158">
+        <v>14.016666666666666</v>
+      </c>
+      <c r="K158">
+        <v>14.899444444444446</v>
+      </c>
+      <c r="L158">
+        <v>15.92</v>
+      </c>
+      <c r="M158">
+        <v>14.14</v>
+      </c>
+      <c r="N158">
+        <v>14.416527777777773</v>
+      </c>
+      <c r="O158">
+        <v>14.886666666666665</v>
+      </c>
+      <c r="P158">
+        <v>14.255694444444444</v>
+      </c>
+      <c r="Q158">
+        <v>13.954166666666666</v>
+      </c>
+      <c r="R158">
+        <v>14.08763888888889</v>
+      </c>
+      <c r="S158">
+        <v>14.150833333333333</v>
+      </c>
+      <c r="T158">
+        <v>14.376944444444447</v>
+      </c>
+    </row>
+    <row r="159" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A159" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="B159" s="1">
         <v>44778</v>
       </c>
-    </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="G159">
+        <v>13.016666666666666</v>
+      </c>
+      <c r="H159">
+        <v>15.184583333333334</v>
+      </c>
+      <c r="I159">
+        <v>17.09</v>
+      </c>
+      <c r="J159">
+        <v>14.39</v>
+      </c>
+      <c r="K159">
+        <v>15.072777777777778</v>
+      </c>
+      <c r="L159">
+        <v>15.670000000000002</v>
+      </c>
+      <c r="M159">
+        <v>14.536666666666667</v>
+      </c>
+      <c r="N159">
+        <v>14.776527777777778</v>
+      </c>
+      <c r="O159">
+        <v>14.966666666666669</v>
+      </c>
+      <c r="P159">
+        <v>14.633333333333335</v>
+      </c>
+      <c r="Q159">
+        <v>14.273472222222223</v>
+      </c>
+      <c r="R159">
+        <v>14.340138888888887</v>
+      </c>
+      <c r="S159">
+        <v>14.33277777777778</v>
+      </c>
+      <c r="T159">
+        <v>14.505833333333335</v>
+      </c>
+    </row>
+    <row r="160" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A160" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="B160" s="1">
         <v>44779</v>
       </c>
-    </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="G160">
+        <v>13.283333333333331</v>
+      </c>
+      <c r="H160">
+        <v>15.270694444444443</v>
+      </c>
+      <c r="I160">
+        <v>16.916666666666668</v>
+      </c>
+      <c r="J160">
+        <v>14.903333333333334</v>
+      </c>
+      <c r="K160">
+        <v>15.248055555555553</v>
+      </c>
+      <c r="L160">
+        <v>15.6</v>
+      </c>
+      <c r="M160">
+        <v>14.829999999999998</v>
+      </c>
+      <c r="N160">
+        <v>14.941527777777777</v>
+      </c>
+      <c r="O160">
+        <v>15.089999999999998</v>
+      </c>
+      <c r="P160">
+        <v>14.821805555555555</v>
+      </c>
+      <c r="Q160">
+        <v>14.49388888888889</v>
+      </c>
+      <c r="R160">
+        <v>14.55527777777778</v>
+      </c>
+      <c r="S160">
+        <v>14.522361111111111</v>
+      </c>
+      <c r="T160">
+        <v>14.655833333333334</v>
+      </c>
+    </row>
+    <row r="161" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A161" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="B161" s="1">
         <v>44780</v>
       </c>
-    </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="G161">
+        <v>9.9</v>
+      </c>
+      <c r="H161">
+        <v>12.820972222222219</v>
+      </c>
+      <c r="I161">
+        <v>15.876666666666665</v>
+      </c>
+      <c r="J161">
+        <v>13.083333333333334</v>
+      </c>
+      <c r="K161">
+        <v>14.034027777777778</v>
+      </c>
+      <c r="L161">
+        <v>15.046666666666667</v>
+      </c>
+      <c r="M161">
+        <v>14.036666666666667</v>
+      </c>
+      <c r="N161">
+        <v>14.459305555555554</v>
+      </c>
+      <c r="O161">
+        <v>15.073333333333332</v>
+      </c>
+      <c r="P161">
+        <v>14.738333333333335</v>
+      </c>
+      <c r="Q161">
+        <v>14.571250000000001</v>
+      </c>
+      <c r="R161">
+        <v>14.700833333333334</v>
+      </c>
+      <c r="S161">
+        <v>14.673194444444443</v>
+      </c>
+      <c r="T161">
+        <v>14.799027777777779</v>
+      </c>
+    </row>
+    <row r="162" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A162" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="B162" s="1">
         <v>44781</v>
       </c>
-    </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="G162">
+        <v>9.4500000000000011</v>
+      </c>
+      <c r="H162">
+        <v>12.777638888888889</v>
+      </c>
+      <c r="I162">
+        <v>16.806666666666668</v>
+      </c>
+      <c r="J162">
+        <v>12.450000000000001</v>
+      </c>
+      <c r="K162">
+        <v>13.505555555555555</v>
+      </c>
+      <c r="L162">
+        <v>14.469999999999999</v>
+      </c>
+      <c r="M162">
+        <v>13.49</v>
+      </c>
+      <c r="N162">
+        <v>13.909166666666669</v>
+      </c>
+      <c r="O162">
+        <v>14.38</v>
+      </c>
+      <c r="P162">
+        <v>14.346944444444444</v>
+      </c>
+      <c r="Q162">
+        <v>14.363194444444446</v>
+      </c>
+      <c r="R162">
+        <v>14.645694444444445</v>
+      </c>
+      <c r="S162">
+        <v>14.70972222222222</v>
+      </c>
+      <c r="T162">
+        <v>14.883194444444447</v>
+      </c>
+    </row>
+    <row r="163" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A163" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="B163" s="1">
         <v>44782</v>
       </c>
-    </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="G163">
+        <v>9.3733333333333331</v>
+      </c>
+      <c r="H163">
+        <v>12.894027777777778</v>
+      </c>
+      <c r="I163">
+        <v>16.956666666666667</v>
+      </c>
+      <c r="J163">
+        <v>12.396666666666667</v>
+      </c>
+      <c r="K163">
+        <v>13.489444444444443</v>
+      </c>
+      <c r="L163">
+        <v>14.416666666666666</v>
+      </c>
+      <c r="M163">
+        <v>13.376666666666667</v>
+      </c>
+      <c r="N163">
+        <v>13.783194444444446</v>
+      </c>
+      <c r="O163">
+        <v>14.143333333333333</v>
+      </c>
+      <c r="P163">
+        <v>14.161944444444444</v>
+      </c>
+      <c r="Q163">
+        <v>14.186944444444443</v>
+      </c>
+      <c r="R163">
+        <v>14.52513888888889</v>
+      </c>
+      <c r="S163">
+        <v>14.651527777777778</v>
+      </c>
+      <c r="T163">
+        <v>14.877222222222221</v>
+      </c>
+    </row>
+    <row r="164" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A164" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="B164" s="1">
         <v>44783</v>
       </c>
-    </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="G164">
+        <v>9.5366666666666671</v>
+      </c>
+      <c r="H164">
+        <v>13.007487373737375</v>
+      </c>
+      <c r="I164">
+        <v>16.723333333333333</v>
+      </c>
+      <c r="J164">
+        <v>12.479999999999999</v>
+      </c>
+      <c r="K164">
+        <v>13.483648989898988</v>
+      </c>
+      <c r="L164">
+        <v>14.316666666666668</v>
+      </c>
+      <c r="M164">
+        <v>13.343333333333334</v>
+      </c>
+      <c r="N164">
+        <v>13.715782828282828</v>
+      </c>
+      <c r="O164">
+        <v>14.043333333333331</v>
+      </c>
+      <c r="P164">
+        <v>14.064217171717173</v>
+      </c>
+      <c r="Q164">
+        <v>14.089823232323232</v>
+      </c>
+      <c r="R164">
+        <v>14.440770202020198</v>
+      </c>
+      <c r="S164">
+        <v>14.599760101010103</v>
+      </c>
+      <c r="T164">
+        <v>14.84963383838384</v>
+      </c>
+    </row>
+    <row r="165" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A165" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="B165" s="1">
         <v>44784</v>
       </c>
-    </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="G165">
+        <v>9.5933333333333337</v>
+      </c>
+      <c r="H165">
+        <v>13.026944444444444</v>
+      </c>
+      <c r="I165">
+        <v>16.456666666666667</v>
+      </c>
+      <c r="J165">
+        <v>12.37</v>
+      </c>
+      <c r="K165">
+        <v>13.385648148148148</v>
+      </c>
+      <c r="L165">
+        <v>14.25</v>
+      </c>
+      <c r="M165">
+        <v>13.273333333333333</v>
+      </c>
+      <c r="N165">
+        <v>13.627824074074075</v>
+      </c>
+      <c r="O165">
+        <v>13.96</v>
+      </c>
+      <c r="P165">
+        <v>13.989768518518517</v>
+      </c>
+      <c r="Q165">
+        <v>14.025416666666667</v>
+      </c>
+      <c r="R165">
+        <v>14.382129629629631</v>
+      </c>
+      <c r="S165">
+        <v>14.546898148148147</v>
+      </c>
+      <c r="T165">
+        <v>14.809675925925925</v>
+      </c>
+    </row>
+    <row r="166" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A166" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="B166" s="1">
         <v>44785</v>
       </c>
-    </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="G166">
+        <v>11.969999999999999</v>
+      </c>
+      <c r="H166">
+        <v>14.261203703703702</v>
+      </c>
+      <c r="I166">
+        <v>16.926666666666666</v>
+      </c>
+      <c r="J166">
+        <v>13.256666666666666</v>
+      </c>
+      <c r="K166">
+        <v>13.94587962962963</v>
+      </c>
+      <c r="L166">
+        <v>14.743333333333334</v>
+      </c>
+      <c r="M166">
+        <v>13.633333333333333</v>
+      </c>
+      <c r="N166">
+        <v>13.848009259259257</v>
+      </c>
+      <c r="O166">
+        <v>14.209999999999999</v>
+      </c>
+      <c r="P166">
+        <v>14.034166666666666</v>
+      </c>
+      <c r="Q166">
+        <v>13.999722222222223</v>
+      </c>
+      <c r="R166">
+        <v>14.336666666666666</v>
+      </c>
+      <c r="S166">
+        <v>14.499907407407406</v>
+      </c>
+      <c r="T166">
+        <v>14.774490740740744</v>
+      </c>
+    </row>
+    <row r="167" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A167" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="B167" s="1">
         <v>44786</v>
       </c>
-    </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="G167">
+        <v>12.546666666666667</v>
+      </c>
+      <c r="H167">
+        <v>14.401805555555555</v>
+      </c>
+      <c r="I167">
+        <v>15.933333333333332</v>
+      </c>
+      <c r="J167">
+        <v>14.26</v>
+      </c>
+      <c r="K167">
+        <v>14.468842592592594</v>
+      </c>
+      <c r="L167">
+        <v>14.726666666666667</v>
+      </c>
+      <c r="M167">
+        <v>14.200000000000001</v>
+      </c>
+      <c r="N167">
+        <v>14.282175925925927</v>
+      </c>
+      <c r="O167">
+        <v>14.420000000000002</v>
+      </c>
+      <c r="P167">
+        <v>14.314583333333337</v>
+      </c>
+      <c r="Q167">
+        <v>14.150833333333333</v>
+      </c>
+      <c r="R167">
+        <v>14.398333333333335</v>
+      </c>
+      <c r="S167">
+        <v>14.51601851851852</v>
+      </c>
+      <c r="T167">
+        <v>14.771805555555554</v>
+      </c>
+    </row>
+    <row r="168" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A168" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="B168" s="1">
         <v>44787</v>
       </c>
-    </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="G168">
+        <v>9.5266666666666655</v>
+      </c>
+      <c r="H168">
+        <v>12.709861111111111</v>
+      </c>
+      <c r="I168">
+        <v>16.34</v>
+      </c>
+      <c r="J168">
+        <v>12.579999999999998</v>
+      </c>
+      <c r="K168">
+        <v>13.557916666666666</v>
+      </c>
+      <c r="L168">
+        <v>14.35</v>
+      </c>
+      <c r="M168">
+        <v>13.533333333333333</v>
+      </c>
+      <c r="N168">
+        <v>13.934629629629628</v>
+      </c>
+      <c r="O168">
+        <v>14.416666666666666</v>
+      </c>
+      <c r="P168">
+        <v>14.28148148148148</v>
+      </c>
+      <c r="Q168">
+        <v>14.239398148148149</v>
+      </c>
+      <c r="R168">
+        <v>14.500092592592589</v>
+      </c>
+      <c r="S168">
+        <v>14.590000000000002</v>
+      </c>
+      <c r="T168">
+        <v>14.8075462962963</v>
+      </c>
+    </row>
+    <row r="169" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A169" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="B169" s="1">
         <v>44788</v>
       </c>
-    </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="G169">
+        <v>8.9</v>
+      </c>
+      <c r="H169">
+        <v>12.579027777777776</v>
+      </c>
+      <c r="I169">
+        <v>17.153333333333332</v>
+      </c>
+      <c r="J169">
+        <v>12.066666666666668</v>
+      </c>
+      <c r="K169">
+        <v>13.210925925925926</v>
+      </c>
+      <c r="L169">
+        <v>14.226666666666667</v>
+      </c>
+      <c r="M169">
+        <v>13.159999999999998</v>
+      </c>
+      <c r="N169">
+        <v>13.587962962962964</v>
+      </c>
+      <c r="O169">
+        <v>14.016666666666666</v>
+      </c>
+      <c r="P169">
+        <v>14.036018518518519</v>
+      </c>
+      <c r="Q169">
+        <v>14.097731481481482</v>
+      </c>
+      <c r="R169">
+        <v>14.444861111111111</v>
+      </c>
+      <c r="S169">
+        <v>14.592824074074075</v>
+      </c>
+      <c r="T169">
+        <v>14.830462962962962</v>
+      </c>
+    </row>
+    <row r="170" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A170" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="B170" s="1">
         <v>44789</v>
       </c>
-    </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="G170">
+        <v>8.67</v>
+      </c>
+      <c r="H170">
+        <v>12.777592592592592</v>
+      </c>
+      <c r="I170">
+        <v>17.363333333333333</v>
+      </c>
+      <c r="J170">
+        <v>11.920000000000002</v>
+      </c>
+      <c r="K170">
+        <v>13.131990740740742</v>
+      </c>
+      <c r="L170">
+        <v>14.25</v>
+      </c>
+      <c r="M170">
+        <v>12.979999999999999</v>
+      </c>
+      <c r="N170">
+        <v>13.42365740740741</v>
+      </c>
+      <c r="O170">
+        <v>13.826666666666666</v>
+      </c>
+      <c r="P170">
+        <v>13.854768518518519</v>
+      </c>
+      <c r="Q170">
+        <v>13.948888888888888</v>
+      </c>
+      <c r="R170">
+        <v>14.342407407407409</v>
+      </c>
+      <c r="S170">
+        <v>14.524722222222222</v>
+      </c>
+      <c r="T170">
+        <v>14.805694444444446</v>
+      </c>
+    </row>
+    <row r="171" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A171" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="B171" s="1">
         <v>44790</v>
       </c>
-    </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="G171">
+        <v>9.9666666666666668</v>
+      </c>
+      <c r="H171">
+        <v>13.885370370370367</v>
+      </c>
+      <c r="I171">
+        <v>18.61</v>
+      </c>
+      <c r="J171">
+        <v>12.513333333333334</v>
+      </c>
+      <c r="K171">
+        <v>13.665462962962962</v>
+      </c>
+      <c r="L171">
+        <v>14.909999999999998</v>
+      </c>
+      <c r="M171">
+        <v>13.216666666666669</v>
+      </c>
+      <c r="N171">
+        <v>13.597361111111111</v>
+      </c>
+      <c r="O171">
+        <v>14.066666666666668</v>
+      </c>
+      <c r="P171">
+        <v>13.84861111111111</v>
+      </c>
+      <c r="Q171">
+        <v>13.874907407407408</v>
+      </c>
+      <c r="R171">
+        <v>14.261990740740742</v>
+      </c>
+      <c r="S171">
+        <v>14.46101851851852</v>
+      </c>
+      <c r="T171">
+        <v>14.758564814814811</v>
+      </c>
+    </row>
+    <row r="172" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A172" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="B172" s="1">
         <v>44791</v>
       </c>
-    </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="G172">
+        <v>9.7966666666666669</v>
+      </c>
+      <c r="H172">
+        <v>13.975601851851854</v>
+      </c>
+      <c r="I172">
+        <v>19.046666666666667</v>
+      </c>
+      <c r="J172">
+        <v>12.62</v>
+      </c>
+      <c r="K172">
+        <v>13.881574074074074</v>
+      </c>
+      <c r="L172">
+        <v>15.106666666666664</v>
+      </c>
+      <c r="M172">
+        <v>13.413333333333334</v>
+      </c>
+      <c r="N172">
+        <v>13.821018518518519</v>
+      </c>
+      <c r="O172">
+        <v>14.213333333333333</v>
+      </c>
+      <c r="P172">
+        <v>14.002268518518518</v>
+      </c>
+      <c r="Q172">
+        <v>13.952129629629626</v>
+      </c>
+      <c r="R172">
+        <v>14.267638888888891</v>
+      </c>
+      <c r="S172">
+        <v>14.435</v>
+      </c>
+      <c r="T172">
+        <v>14.724675925925927</v>
+      </c>
+    </row>
+    <row r="173" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A173" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="B173" s="1">
         <v>44792</v>
       </c>
-    </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="G173">
+        <v>10.1</v>
+      </c>
+      <c r="H173">
+        <v>14.191388888888889</v>
+      </c>
+      <c r="I173">
+        <v>18.623333333333335</v>
+      </c>
+      <c r="J173">
+        <v>12.853333333333333</v>
+      </c>
+      <c r="K173">
+        <v>14.049629629629628</v>
+      </c>
+      <c r="L173">
+        <v>15.11</v>
+      </c>
+      <c r="M173">
+        <v>13.573333333333332</v>
+      </c>
+      <c r="N173">
+        <v>13.968935185185186</v>
+      </c>
+      <c r="O173">
+        <v>14.326666666666668</v>
+      </c>
+      <c r="P173">
+        <v>14.11912037037037</v>
+      </c>
+      <c r="Q173">
+        <v>14.029398148148148</v>
+      </c>
+      <c r="R173">
+        <v>14.31083333333333</v>
+      </c>
+      <c r="S173">
+        <v>14.455879629629628</v>
+      </c>
+      <c r="T173">
+        <v>14.720648148148149</v>
+      </c>
+    </row>
+    <row r="174" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A174" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="B174" s="1">
         <v>44793</v>
       </c>
-    </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="G174">
+        <v>11.596666666666666</v>
+      </c>
+      <c r="H174">
+        <v>15.197592592592594</v>
+      </c>
+      <c r="I174">
+        <v>20.096666666666664</v>
+      </c>
+      <c r="J174">
+        <v>13.563333333333333</v>
+      </c>
+      <c r="K174">
+        <v>14.659490740740742</v>
+      </c>
+      <c r="L174">
+        <v>15.82</v>
+      </c>
+      <c r="M174">
+        <v>13.94</v>
+      </c>
+      <c r="N174">
+        <v>14.292546296296296</v>
+      </c>
+      <c r="O174">
+        <v>14.780000000000001</v>
+      </c>
+      <c r="P174">
+        <v>14.290648148148149</v>
+      </c>
+      <c r="Q174">
+        <v>14.137129629629632</v>
+      </c>
+      <c r="R174">
+        <v>14.376574074074078</v>
+      </c>
+      <c r="S174">
+        <v>14.488611111111112</v>
+      </c>
+      <c r="T174">
+        <v>14.739305555555561</v>
+      </c>
+    </row>
+    <row r="175" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A175" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="B175" s="1">
         <v>44794</v>
       </c>
-    </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="G175">
+        <v>10.82</v>
+      </c>
+      <c r="H175">
+        <v>14.378888888888888</v>
+      </c>
+      <c r="I175">
+        <v>18.07</v>
+      </c>
+      <c r="J175">
+        <v>13.450000000000001</v>
+      </c>
+      <c r="K175">
+        <v>14.471203703703706</v>
+      </c>
+      <c r="L175">
+        <v>15.229999999999999</v>
+      </c>
+      <c r="M175">
+        <v>14.056666666666667</v>
+      </c>
+      <c r="N175">
+        <v>14.418749999999998</v>
+      </c>
+      <c r="O175">
+        <v>14.786666666666667</v>
+      </c>
+      <c r="P175">
+        <v>14.496990740740742</v>
+      </c>
+      <c r="Q175">
+        <v>14.308518518518518</v>
+      </c>
+      <c r="R175">
+        <v>14.502083333333333</v>
+      </c>
+      <c r="S175">
+        <v>14.563842592592591</v>
+      </c>
+      <c r="T175">
+        <v>14.783333333333331</v>
+      </c>
+    </row>
+    <row r="176" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A176" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="B176" s="1">
         <v>44795</v>
       </c>
-    </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="G176">
+        <v>11.479999999999999</v>
+      </c>
+      <c r="H176">
+        <v>14.96013888888889</v>
+      </c>
+      <c r="I176">
+        <v>18.293333333333333</v>
+      </c>
+      <c r="J176">
+        <v>13.69</v>
+      </c>
+      <c r="K176">
+        <v>14.663888888888891</v>
+      </c>
+      <c r="L176">
+        <v>15.516666666666666</v>
+      </c>
+      <c r="M176">
+        <v>14.173333333333332</v>
+      </c>
+      <c r="N176">
+        <v>14.471064814814817</v>
+      </c>
+      <c r="O176">
+        <v>14.78</v>
+      </c>
+      <c r="P176">
+        <v>14.538333333333334</v>
+      </c>
+      <c r="Q176">
+        <v>14.377129629629628</v>
+      </c>
+      <c r="R176">
+        <v>14.580324074074072</v>
+      </c>
+      <c r="S176">
+        <v>14.635833333333332</v>
+      </c>
+      <c r="T176">
+        <v>14.841990740740741</v>
+      </c>
+    </row>
+    <row r="177" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A177" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="B177" s="1">
         <v>44796</v>
       </c>
-    </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="G177">
+        <v>11.840000000000002</v>
+      </c>
+      <c r="H177">
+        <v>15.387037037037038</v>
+      </c>
+      <c r="I177">
+        <v>19.256666666666664</v>
+      </c>
+      <c r="J177">
+        <v>13.85</v>
+      </c>
+      <c r="K177">
+        <v>14.886249999999999</v>
+      </c>
+      <c r="L177">
+        <v>15.883333333333333</v>
+      </c>
+      <c r="M177">
+        <v>14.303333333333335</v>
+      </c>
+      <c r="N177">
+        <v>14.630416666666667</v>
+      </c>
+      <c r="O177">
+        <v>14.996666666666668</v>
+      </c>
+      <c r="P177">
+        <v>14.657268518518521</v>
+      </c>
+      <c r="Q177">
+        <v>14.475694444444443</v>
+      </c>
+      <c r="R177">
+        <v>14.662777777777777</v>
+      </c>
+      <c r="S177">
+        <v>14.70175925925926</v>
+      </c>
+      <c r="T177">
+        <v>14.89898148148148</v>
+      </c>
+    </row>
+    <row r="178" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A178" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="B178" s="1">
         <v>44797</v>
       </c>
-    </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="G178">
+        <v>11.696666666666667</v>
+      </c>
+      <c r="H178">
+        <v>14.337499999999999</v>
+      </c>
+      <c r="I178">
+        <v>17.66</v>
+      </c>
+      <c r="J178">
+        <v>13.949999999999998</v>
+      </c>
+      <c r="K178">
+        <v>14.771435185185185</v>
+      </c>
+      <c r="L178">
+        <v>15.596666666666666</v>
+      </c>
+      <c r="M178">
+        <v>14.430000000000001</v>
+      </c>
+      <c r="N178">
+        <v>14.740324074074074</v>
+      </c>
+      <c r="O178">
+        <v>15.056666666666667</v>
+      </c>
+      <c r="P178">
+        <v>14.805416666666664</v>
+      </c>
+      <c r="Q178">
+        <v>14.597962962962962</v>
+      </c>
+      <c r="R178">
+        <v>14.755462962962961</v>
+      </c>
+      <c r="S178">
+        <v>14.775694444444442</v>
+      </c>
+      <c r="T178">
+        <v>14.957962962962966</v>
+      </c>
+    </row>
+    <row r="179" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A179" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="B179" s="1">
         <v>44798</v>
       </c>
-    </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="G179">
+        <v>10.266666666666666</v>
+      </c>
+      <c r="H179">
+        <v>14.116898148148147</v>
+      </c>
+      <c r="I179">
+        <v>19.196666666666669</v>
+      </c>
+      <c r="J179">
+        <v>13.103333333333333</v>
+      </c>
+      <c r="K179">
+        <v>14.24550925925926</v>
+      </c>
+      <c r="L179">
+        <v>15.356666666666667</v>
+      </c>
+      <c r="M179">
+        <v>13.96</v>
+      </c>
+      <c r="N179">
+        <v>14.353611111111112</v>
+      </c>
+      <c r="O179">
+        <v>14.743333333333334</v>
+      </c>
+      <c r="P179">
+        <v>14.621805555555556</v>
+      </c>
+      <c r="Q179">
+        <v>14.55240740740741</v>
+      </c>
+      <c r="R179">
+        <v>14.795185185185188</v>
+      </c>
+      <c r="S179">
+        <v>14.840185185185186</v>
+      </c>
+      <c r="T179">
+        <v>15.021620370370373</v>
+      </c>
+    </row>
+    <row r="180" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A180" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="B180" s="1">
         <v>44799</v>
       </c>
-    </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="G180">
+        <v>9.7166666666666668</v>
+      </c>
+      <c r="H180">
+        <v>14.073379629629629</v>
+      </c>
+      <c r="I180">
+        <v>18.809999999999999</v>
+      </c>
+      <c r="J180">
+        <v>12.89</v>
+      </c>
+      <c r="K180">
+        <v>14.13263888888889</v>
+      </c>
+      <c r="L180">
+        <v>15.223333333333334</v>
+      </c>
+      <c r="M180">
+        <v>13.793333333333331</v>
+      </c>
+      <c r="N180">
+        <v>14.226944444444444</v>
+      </c>
+      <c r="O180">
+        <v>14.636666666666665</v>
+      </c>
+      <c r="P180">
+        <v>14.496990740740744</v>
+      </c>
+      <c r="Q180">
+        <v>14.457731481481483</v>
+      </c>
+      <c r="R180">
+        <v>14.73601851851852</v>
+      </c>
+      <c r="S180">
+        <v>14.830231481481478</v>
+      </c>
+      <c r="T180">
+        <v>15.040046296296294</v>
+      </c>
+    </row>
+    <row r="181" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A181" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="B181" s="1">
         <v>44800</v>
       </c>
-    </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="G181">
+        <v>10.786666666666667</v>
+      </c>
+      <c r="H181">
+        <v>14.855740740740742</v>
+      </c>
+      <c r="I181">
+        <v>18.986666666666665</v>
+      </c>
+      <c r="J181">
+        <v>13.356666666666667</v>
+      </c>
+      <c r="K181">
+        <v>14.466759259259261</v>
+      </c>
+      <c r="L181">
+        <v>15.479999999999999</v>
+      </c>
+      <c r="M181">
+        <v>13.983333333333333</v>
+      </c>
+      <c r="N181">
+        <v>14.338194444444442</v>
+      </c>
+      <c r="O181">
+        <v>14.696666666666667</v>
+      </c>
+      <c r="P181">
+        <v>14.49773148148148</v>
+      </c>
+      <c r="Q181">
+        <v>14.408148148148149</v>
+      </c>
+      <c r="R181">
+        <v>14.700879629629632</v>
+      </c>
+      <c r="S181">
+        <v>14.808055555555557</v>
+      </c>
+      <c r="T181">
+        <v>15.034722222222221</v>
+      </c>
+    </row>
+    <row r="182" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A182" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="B182" s="1">
         <v>44801</v>
       </c>
-    </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="G182">
+        <v>13.306666666666667</v>
+      </c>
+      <c r="H182">
+        <v>15.969999999999999</v>
+      </c>
+      <c r="I182">
+        <v>19.313333333333333</v>
+      </c>
+      <c r="J182">
+        <v>14.426666666666668</v>
+      </c>
+      <c r="K182">
+        <v>15.213564814814815</v>
+      </c>
+      <c r="L182">
+        <v>16.059999999999999</v>
+      </c>
+      <c r="M182">
+        <v>14.54</v>
+      </c>
+      <c r="N182">
+        <v>14.77263888888889</v>
+      </c>
+      <c r="O182">
+        <v>15.186666666666667</v>
+      </c>
+      <c r="P182">
+        <v>14.716203703703705</v>
+      </c>
+      <c r="Q182">
+        <v>14.51324074074074</v>
+      </c>
+      <c r="R182">
+        <v>14.734351851851853</v>
+      </c>
+      <c r="S182">
+        <v>14.812083333333334</v>
+      </c>
+      <c r="T182">
+        <v>15.037453703703704</v>
+      </c>
+    </row>
+    <row r="183" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A183" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="B183" s="1">
         <v>44802</v>
       </c>
-    </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="G183">
+        <v>12.82</v>
+      </c>
+      <c r="H183">
+        <v>15.093472222222223</v>
+      </c>
+      <c r="I183">
+        <v>17.443333333333332</v>
+      </c>
+      <c r="J183">
+        <v>14.469999999999999</v>
+      </c>
+      <c r="K183">
+        <v>15.108101851851851</v>
+      </c>
+      <c r="L183">
+        <v>15.699999999999998</v>
+      </c>
+      <c r="M183">
+        <v>14.736666666666666</v>
+      </c>
+      <c r="N183">
+        <v>14.969537037037037</v>
+      </c>
+      <c r="O183">
+        <v>15.216666666666669</v>
+      </c>
+      <c r="P183">
+        <v>14.975370370370376</v>
+      </c>
+      <c r="Q183">
+        <v>14.727268518518519</v>
+      </c>
+      <c r="R183">
+        <v>14.872129629629631</v>
+      </c>
+      <c r="S183">
+        <v>14.891574074074072</v>
+      </c>
+      <c r="T183">
+        <v>15.078518518518516</v>
+      </c>
+    </row>
+    <row r="184" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A184" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="B184" s="1">
         <v>44803</v>
       </c>
-    </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="G184">
+        <v>13.436666666666666</v>
+      </c>
+      <c r="H184">
+        <v>14.75861111111111</v>
+      </c>
+      <c r="I184">
+        <v>16.29666666666667</v>
+      </c>
+      <c r="J184">
+        <v>14.540000000000001</v>
+      </c>
+      <c r="K184">
+        <v>14.92685185185185</v>
+      </c>
+      <c r="L184">
+        <v>15.343333333333334</v>
+      </c>
+      <c r="M184">
+        <v>14.75</v>
+      </c>
+      <c r="N184">
+        <v>14.910046296296299</v>
+      </c>
+      <c r="O184">
+        <v>15.106666666666667</v>
+      </c>
+      <c r="P184">
+        <v>15.010092592592594</v>
+      </c>
+      <c r="Q184">
+        <v>14.813101851851853</v>
+      </c>
+      <c r="R184">
+        <v>14.976342592592593</v>
+      </c>
+      <c r="S184">
+        <v>14.987777777777781</v>
+      </c>
+      <c r="T184">
+        <v>15.158842592592592</v>
+      </c>
+    </row>
+    <row r="185" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A185" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="B185" s="1">
         <v>44804</v>
       </c>
-    </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="G185">
+        <v>14.44</v>
+      </c>
+      <c r="H185">
+        <v>17.061612962962965</v>
+      </c>
+      <c r="I185">
+        <v>21.45</v>
+      </c>
+      <c r="J185">
+        <v>14.843333333333334</v>
+      </c>
+      <c r="K185">
+        <v>15.691377777777779</v>
+      </c>
+      <c r="L185">
+        <v>17.026666666666667</v>
+      </c>
+      <c r="M185">
+        <v>14.85</v>
+      </c>
+      <c r="N185">
+        <v>15.107881481481485</v>
+      </c>
+      <c r="O185">
+        <v>15.793333333333331</v>
+      </c>
+      <c r="P185">
+        <v>15.060475925925928</v>
+      </c>
+      <c r="Q185">
+        <v>14.857598148148144</v>
+      </c>
+      <c r="R185">
+        <v>15.039801851851854</v>
+      </c>
+      <c r="S185">
+        <v>15.058179629629628</v>
+      </c>
+      <c r="T185">
+        <v>15.208431481481481</v>
+      </c>
+    </row>
+    <row r="186" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A186" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="B186" s="1">
         <v>44805</v>
       </c>
-    </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="G186">
+        <v>13.769999999999998</v>
+      </c>
+      <c r="H186">
+        <v>16.692970370370372</v>
+      </c>
+      <c r="I186">
+        <v>20.349999999999998</v>
+      </c>
+      <c r="J186">
+        <v>15.266666666666666</v>
+      </c>
+      <c r="K186">
+        <v>16.172185185185182</v>
+      </c>
+      <c r="L186">
+        <v>17.016666666666666</v>
+      </c>
+      <c r="M186">
+        <v>15.42</v>
+      </c>
+      <c r="N186">
+        <v>15.701411111111113</v>
+      </c>
+      <c r="O186">
+        <v>16.023333333333333</v>
+      </c>
+      <c r="P186">
+        <v>15.49315</v>
+      </c>
+      <c r="Q186">
+        <v>15.124770370370371</v>
+      </c>
+      <c r="R186">
+        <v>15.182768518518522</v>
+      </c>
+      <c r="S186">
+        <v>15.149620370370371</v>
+      </c>
+      <c r="T186">
+        <v>15.276083333333334</v>
+      </c>
+    </row>
+    <row r="187" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A187" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="B187" s="1">
         <v>44806</v>
       </c>
-    </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="G187">
+        <v>14.006666666666666</v>
+      </c>
+      <c r="H187">
+        <v>15.452268518518517</v>
+      </c>
+      <c r="I187">
+        <v>16.996666666666666</v>
+      </c>
+      <c r="J187">
+        <v>15.343333333333334</v>
+      </c>
+      <c r="K187">
+        <v>15.760370370370369</v>
+      </c>
+      <c r="L187">
+        <v>16.436666666666667</v>
+      </c>
+      <c r="M187">
+        <v>15.503333333333332</v>
+      </c>
+      <c r="N187">
+        <v>15.694027777777777</v>
+      </c>
+      <c r="O187">
+        <v>16.026666666666667</v>
+      </c>
+      <c r="P187">
+        <v>15.663055555555557</v>
+      </c>
+      <c r="Q187">
+        <v>15.335972222222223</v>
+      </c>
+      <c r="R187">
+        <v>15.374675925925926</v>
+      </c>
+      <c r="S187">
+        <v>15.305185185185186</v>
+      </c>
+      <c r="T187">
+        <v>15.395416666666671</v>
+      </c>
+    </row>
+    <row r="188" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A188" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="B188" s="1">
         <v>44807</v>
       </c>
-    </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="G188">
+        <v>14.38</v>
+      </c>
+      <c r="H188">
+        <v>15.656712962962963</v>
+      </c>
+      <c r="I188">
+        <v>17.593333333333334</v>
+      </c>
+      <c r="J188">
+        <v>15.199999999999998</v>
+      </c>
+      <c r="K188">
+        <v>15.608564814814814</v>
+      </c>
+      <c r="L188">
+        <v>16.080000000000002</v>
+      </c>
+      <c r="M188">
+        <v>15.346666666666666</v>
+      </c>
+      <c r="N188">
+        <v>15.502407407407409</v>
+      </c>
+      <c r="O188">
+        <v>15.65</v>
+      </c>
+      <c r="P188">
+        <v>15.574120370370368</v>
+      </c>
+      <c r="Q188">
+        <v>15.358564814814814</v>
+      </c>
+      <c r="R188">
+        <v>15.460972222222217</v>
+      </c>
+      <c r="S188">
+        <v>15.409074074074072</v>
+      </c>
+      <c r="T188">
+        <v>15.509629629629627</v>
+      </c>
+    </row>
+    <row r="189" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A189" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="B189" s="1">
         <v>44808</v>
       </c>
-    </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="G189">
+        <v>13.456666666666665</v>
+      </c>
+      <c r="H189">
+        <v>15.38736111111111</v>
+      </c>
+      <c r="I189">
+        <v>17.689999999999998</v>
+      </c>
+      <c r="J189">
+        <v>15.073333333333332</v>
+      </c>
+      <c r="K189">
+        <v>15.679444444444444</v>
+      </c>
+      <c r="L189">
+        <v>16.223333333333333</v>
+      </c>
+      <c r="M189">
+        <v>15.329999999999998</v>
+      </c>
+      <c r="N189">
+        <v>15.521944444444443</v>
+      </c>
+      <c r="O189">
+        <v>15.69</v>
+      </c>
+      <c r="P189">
+        <v>15.556805555555554</v>
+      </c>
+      <c r="Q189">
+        <v>15.354861111111113</v>
+      </c>
+      <c r="R189">
+        <v>15.47972222222222</v>
+      </c>
+      <c r="S189">
+        <v>15.461944444444446</v>
+      </c>
+      <c r="T189">
+        <v>15.571944444444442</v>
+      </c>
+    </row>
+    <row r="190" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A190" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="B190" s="1">
         <v>44809</v>
       </c>
-    </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="G190">
+        <v>12.756666666666666</v>
+      </c>
+      <c r="H190">
+        <v>15.92888888888889</v>
+      </c>
+      <c r="I190">
+        <v>18.986666666666665</v>
+      </c>
+      <c r="J190">
+        <v>14.373333333333333</v>
+      </c>
+      <c r="K190">
+        <v>15.384583333333332</v>
+      </c>
+      <c r="L190">
+        <v>16.143333333333334</v>
+      </c>
+      <c r="M190">
+        <v>14.936666666666667</v>
+      </c>
+      <c r="N190">
+        <v>15.266527777777776</v>
+      </c>
+      <c r="O190">
+        <v>15.633333333333333</v>
+      </c>
+      <c r="P190">
+        <v>15.459583333333333</v>
+      </c>
+      <c r="Q190">
+        <v>15.339583333333337</v>
+      </c>
+      <c r="R190">
+        <v>15.520555555555555</v>
+      </c>
+      <c r="S190">
+        <v>15.513472222222221</v>
+      </c>
+      <c r="T190">
+        <v>15.638333333333334</v>
+      </c>
+    </row>
+    <row r="191" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A191" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="B191" s="1">
         <v>44810</v>
       </c>
-    </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="G191">
+        <v>12.56</v>
+      </c>
+      <c r="H191">
+        <v>16.049166666666665</v>
+      </c>
+      <c r="I191">
+        <v>20.070000000000004</v>
+      </c>
+      <c r="J191">
+        <v>14.56</v>
+      </c>
+      <c r="K191">
+        <v>15.614166666666664</v>
+      </c>
+      <c r="L191">
+        <v>16.599999999999998</v>
+      </c>
+      <c r="M191">
+        <v>15.036666666666667</v>
+      </c>
+      <c r="N191">
+        <v>15.377083333333333</v>
+      </c>
+      <c r="O191">
+        <v>15.736666666666666</v>
+      </c>
+      <c r="P191">
+        <v>15.451944444444443</v>
+      </c>
+      <c r="Q191">
+        <v>15.301527777777778</v>
+      </c>
+      <c r="R191">
+        <v>15.499027777777775</v>
+      </c>
+      <c r="S191">
+        <v>15.514166666666668</v>
+      </c>
+      <c r="T191">
+        <v>15.658055555555558</v>
+      </c>
+    </row>
+    <row r="192" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A192" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="B192" s="1">
         <v>44811</v>
       </c>
-    </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="G192">
+        <v>12.823333333333332</v>
+      </c>
+      <c r="H192">
+        <v>15.941805555555556</v>
+      </c>
+      <c r="I192">
+        <v>19.403333333333336</v>
+      </c>
+      <c r="J192">
+        <v>14.87</v>
+      </c>
+      <c r="K192">
+        <v>15.795138888888888</v>
+      </c>
+      <c r="L192">
+        <v>16.516666666666666</v>
+      </c>
+      <c r="M192">
+        <v>15.276666666666666</v>
+      </c>
+      <c r="N192">
+        <v>15.575138888888889</v>
+      </c>
+      <c r="O192">
+        <v>15.793333333333335</v>
+      </c>
+      <c r="P192">
+        <v>15.574444444444445</v>
+      </c>
+      <c r="Q192">
+        <v>15.363194444444446</v>
+      </c>
+      <c r="R192">
+        <v>15.516805555555557</v>
+      </c>
+      <c r="S192">
+        <v>15.523194444444448</v>
+      </c>
+      <c r="T192">
+        <v>15.669861111111112</v>
+      </c>
+    </row>
+    <row r="193" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A193" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="B193" s="1">
         <v>44812</v>
       </c>
-    </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="G193">
+        <v>12.253333333333332</v>
+      </c>
+      <c r="H193">
+        <v>15.411805555555558</v>
+      </c>
+      <c r="I193">
+        <v>18.556666666666668</v>
+      </c>
+      <c r="J193">
+        <v>14.536666666666667</v>
+      </c>
+      <c r="K193">
+        <v>15.451527777777777</v>
+      </c>
+      <c r="L193">
+        <v>16.116666666666664</v>
+      </c>
+      <c r="M193">
+        <v>15.113333333333335</v>
+      </c>
+      <c r="N193">
+        <v>15.442638888888892</v>
+      </c>
+      <c r="O193">
+        <v>15.799999999999999</v>
+      </c>
+      <c r="P193">
+        <v>15.567083333333334</v>
+      </c>
+      <c r="Q193">
+        <v>15.395138888888887</v>
+      </c>
+      <c r="R193">
+        <v>15.555833333333334</v>
+      </c>
+      <c r="S193">
+        <v>15.565138888888889</v>
+      </c>
+      <c r="T193">
+        <v>15.700972222222219</v>
+      </c>
+    </row>
+    <row r="194" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A194" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="B194" s="1">
         <v>44813</v>
       </c>
-    </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="G194">
+        <v>14.4</v>
+      </c>
+      <c r="H194">
+        <v>16.094166666666666</v>
+      </c>
+      <c r="I194">
+        <v>18.606666666666669</v>
+      </c>
+      <c r="J194">
+        <v>15.233333333333334</v>
+      </c>
+      <c r="K194">
+        <v>15.786250000000003</v>
+      </c>
+      <c r="L194">
+        <v>16.443333333333332</v>
+      </c>
+      <c r="M194">
+        <v>15.35</v>
+      </c>
+      <c r="N194">
+        <v>15.529444444444445</v>
+      </c>
+      <c r="O194">
+        <v>15.786666666666667</v>
+      </c>
+      <c r="P194">
+        <v>15.563055555555552</v>
+      </c>
+      <c r="Q194">
+        <v>15.384166666666667</v>
+      </c>
+      <c r="R194">
+        <v>15.554305555555556</v>
+      </c>
+      <c r="S194">
+        <v>15.588749999999997</v>
+      </c>
+      <c r="T194">
+        <v>15.735277777777776</v>
+      </c>
+    </row>
+    <row r="195" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A195" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="B195" s="1">
         <v>44814</v>
       </c>
-    </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="G195">
+        <v>13.01</v>
+      </c>
+      <c r="H195">
+        <v>16.041944444444443</v>
+      </c>
+      <c r="I195">
+        <v>19.59</v>
+      </c>
+      <c r="J195">
+        <v>14.9</v>
+      </c>
+      <c r="K195">
+        <v>15.835833333333335</v>
+      </c>
+      <c r="L195">
+        <v>16.603333333333335</v>
+      </c>
+      <c r="M195">
+        <v>15.336666666666666</v>
+      </c>
+      <c r="N195">
+        <v>15.635833333333332</v>
+      </c>
+      <c r="O195">
+        <v>15.886666666666665</v>
+      </c>
+      <c r="P195">
+        <v>15.666249999999998</v>
+      </c>
+      <c r="Q195">
+        <v>15.458055555555553</v>
+      </c>
+      <c r="R195">
+        <v>15.614583333333334</v>
+      </c>
+      <c r="S195">
+        <v>15.614583333333334</v>
+      </c>
+      <c r="T195">
+        <v>15.760277777777775</v>
+      </c>
+    </row>
+    <row r="196" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A196" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="B196" s="1">
         <v>44815</v>
       </c>
-    </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="G196">
+        <v>13.643333333333333</v>
+      </c>
+      <c r="H196">
+        <v>16.655694444444443</v>
+      </c>
+      <c r="I196">
+        <v>20.676666666666666</v>
+      </c>
+      <c r="J196">
+        <v>15.11</v>
+      </c>
+      <c r="K196">
+        <v>16.064722222222226</v>
+      </c>
+      <c r="L196">
+        <v>17.093333333333334</v>
+      </c>
+      <c r="M196">
+        <v>15.42</v>
+      </c>
+      <c r="N196">
+        <v>15.739444444444446</v>
+      </c>
+      <c r="O196">
+        <v>16.116666666666664</v>
+      </c>
+      <c r="P196">
+        <v>15.735555555555557</v>
+      </c>
+      <c r="Q196">
+        <v>15.520277777777777</v>
+      </c>
+      <c r="R196">
+        <v>15.659027777777775</v>
+      </c>
+      <c r="S196">
+        <v>15.655277777777778</v>
+      </c>
+      <c r="T196">
+        <v>15.789583333333333</v>
+      </c>
+    </row>
+    <row r="197" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A197" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="B197" s="1">
         <v>44816</v>
       </c>
-    </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="G197">
+        <v>14.5</v>
+      </c>
+      <c r="H197">
+        <v>16.72194444444445</v>
+      </c>
+      <c r="I197">
+        <v>20.206666666666667</v>
+      </c>
+      <c r="J197">
+        <v>15.566666666666668</v>
+      </c>
+      <c r="K197">
+        <v>16.324444444444442</v>
+      </c>
+      <c r="L197">
+        <v>17.076666666666664</v>
+      </c>
+      <c r="M197">
+        <v>15.719999999999999</v>
+      </c>
+      <c r="N197">
+        <v>15.982916666666666</v>
+      </c>
+      <c r="O197">
+        <v>16.243333333333332</v>
+      </c>
+      <c r="P197">
+        <v>15.905833333333334</v>
+      </c>
+      <c r="Q197">
+        <v>15.627361111111114</v>
+      </c>
+      <c r="R197">
+        <v>15.739583333333334</v>
+      </c>
+      <c r="S197">
+        <v>15.72125</v>
+      </c>
+      <c r="T197">
+        <v>15.841805555555554</v>
+      </c>
+    </row>
+    <row r="198" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A198" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="B198" s="1">
         <v>44817</v>
       </c>
-    </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="G198">
+        <v>13.450000000000001</v>
+      </c>
+      <c r="H198">
+        <v>17.210000000000004</v>
+      </c>
+      <c r="I198">
+        <v>21.790000000000003</v>
+      </c>
+      <c r="J198">
+        <v>15.31</v>
+      </c>
+      <c r="K198">
+        <v>16.457777777777778</v>
+      </c>
+      <c r="L198">
+        <v>17.63</v>
+      </c>
+      <c r="M198">
+        <v>15.700000000000001</v>
+      </c>
+      <c r="N198">
+        <v>16.058888888888887</v>
+      </c>
+      <c r="O198">
+        <v>16.486666666666668</v>
+      </c>
+      <c r="P198">
+        <v>15.994166666666667</v>
+      </c>
+      <c r="Q198">
+        <v>15.730972222222221</v>
+      </c>
+      <c r="R198">
+        <v>15.826527777777779</v>
+      </c>
+      <c r="S198">
+        <v>15.785555555555554</v>
+      </c>
+      <c r="T198">
+        <v>15.898611111111109</v>
+      </c>
+    </row>
+    <row r="199" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A199" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="B199" s="1">
         <v>44818</v>
       </c>
-    </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="G199">
+        <v>14.273333333333333</v>
+      </c>
+      <c r="H199">
+        <v>17.69541666666667</v>
+      </c>
+      <c r="I199">
+        <v>22.056666666666668</v>
+      </c>
+      <c r="J199">
+        <v>15.853333333333333</v>
+      </c>
+      <c r="K199">
+        <v>16.907777777777778</v>
+      </c>
+      <c r="L199">
+        <v>17.936666666666667</v>
+      </c>
+      <c r="M199">
+        <v>16.05</v>
+      </c>
+      <c r="N199">
+        <v>16.381805555555555</v>
+      </c>
+      <c r="O199">
+        <v>16.773333333333337</v>
+      </c>
+      <c r="P199">
+        <v>16.198472222222225</v>
+      </c>
+      <c r="Q199">
+        <v>15.854861111111113</v>
+      </c>
+      <c r="R199">
+        <v>15.920277777777777</v>
+      </c>
+      <c r="S199">
+        <v>15.86027777777778</v>
+      </c>
+      <c r="T199">
+        <v>15.961527777777782</v>
+      </c>
+    </row>
+    <row r="200" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A200" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="B200" s="1">
         <v>44819</v>
       </c>
-    </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="G200">
+        <v>15.716666666666669</v>
+      </c>
+      <c r="H200">
+        <v>17.474305555555556</v>
+      </c>
+      <c r="I200">
+        <v>19.789999999999996</v>
+      </c>
+      <c r="J200">
+        <v>16.456666666666667</v>
+      </c>
+      <c r="K200">
+        <v>17.038888888888888</v>
+      </c>
+      <c r="L200">
+        <v>17.53</v>
+      </c>
+      <c r="M200">
+        <v>16.41</v>
+      </c>
+      <c r="N200">
+        <v>16.61708333333333</v>
+      </c>
+      <c r="O200">
+        <v>16.8</v>
+      </c>
+      <c r="P200">
+        <v>16.431944444444451</v>
+      </c>
+      <c r="Q200">
+        <v>16.04111111111111</v>
+      </c>
+      <c r="R200">
+        <v>16.054166666666667</v>
+      </c>
+      <c r="S200">
+        <v>15.95875</v>
+      </c>
+      <c r="T200">
+        <v>16.036111111111108</v>
+      </c>
+    </row>
+    <row r="201" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A201" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="B201" s="1">
         <v>44820</v>
       </c>
-    </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="G201">
+        <v>15.373333333333335</v>
+      </c>
+      <c r="H201">
+        <v>16.969166666666666</v>
+      </c>
+      <c r="I201">
+        <v>19.233333333333334</v>
+      </c>
+      <c r="J201">
+        <v>16.286666666666665</v>
+      </c>
+      <c r="K201">
+        <v>16.822777777777777</v>
+      </c>
+      <c r="L201">
+        <v>17.286666666666665</v>
+      </c>
+      <c r="M201">
+        <v>16.366666666666664</v>
+      </c>
+      <c r="N201">
+        <v>16.576805555555556</v>
+      </c>
+      <c r="O201">
+        <v>16.793333333333333</v>
+      </c>
+      <c r="P201">
+        <v>16.499861111111112</v>
+      </c>
+      <c r="Q201">
+        <v>16.160555555555558</v>
+      </c>
+      <c r="R201">
+        <v>16.18041666666667</v>
+      </c>
+      <c r="S201">
+        <v>16.072777777777777</v>
+      </c>
+      <c r="T201">
+        <v>16.126249999999999</v>
+      </c>
+    </row>
+    <row r="202" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A202" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="B202" s="1">
         <v>44821</v>
       </c>
-    </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="G202">
+        <v>14.68</v>
+      </c>
+      <c r="H202">
+        <v>17.481111111111112</v>
+      </c>
+      <c r="I202">
+        <v>21.513333333333335</v>
+      </c>
+      <c r="J202">
+        <v>16.006666666666664</v>
+      </c>
+      <c r="K202">
+        <v>16.944861111111113</v>
+      </c>
+      <c r="L202">
+        <v>17.996666666666666</v>
+      </c>
+      <c r="M202">
+        <v>16.266666666666666</v>
+      </c>
+      <c r="N202">
+        <v>16.566666666666666</v>
+      </c>
+      <c r="O202">
+        <v>16.956666666666667</v>
+      </c>
+      <c r="P202">
+        <v>16.493749999999995</v>
+      </c>
+      <c r="Q202">
+        <v>16.205833333333334</v>
+      </c>
+      <c r="R202">
+        <v>16.248611111111106</v>
+      </c>
+      <c r="S202">
+        <v>16.159166666666668</v>
+      </c>
+      <c r="T202">
+        <v>16.213888888888892</v>
+      </c>
+    </row>
+    <row r="203" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A203" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="B203" s="1">
         <v>44822</v>
       </c>
-    </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="G203">
+        <v>12.896666666666667</v>
+      </c>
+      <c r="H203">
+        <v>16.950694444444444</v>
+      </c>
+      <c r="I203">
+        <v>22.03</v>
+      </c>
+      <c r="J203">
+        <v>15.549999999999999</v>
+      </c>
+      <c r="K203">
+        <v>16.79527777777778</v>
+      </c>
+      <c r="L203">
+        <v>17.89</v>
+      </c>
+      <c r="M203">
+        <v>16.150000000000002</v>
+      </c>
+      <c r="N203">
+        <v>16.58666666666667</v>
+      </c>
+      <c r="O203">
+        <v>16.963333333333335</v>
+      </c>
+      <c r="P203">
+        <v>16.566666666666666</v>
+      </c>
+      <c r="Q203">
+        <v>16.269583333333333</v>
+      </c>
+      <c r="R203">
+        <v>16.319583333333338</v>
+      </c>
+      <c r="S203">
+        <v>16.220555555555553</v>
+      </c>
+      <c r="T203">
+        <v>16.274305555555554</v>
+      </c>
+    </row>
+    <row r="204" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A204" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="B204" s="1">
         <v>44823</v>
       </c>
-    </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="G204">
+        <v>12.256666666666668</v>
+      </c>
+      <c r="H204">
+        <v>16.821250000000003</v>
+      </c>
+      <c r="I204">
+        <v>22.276666666666667</v>
+      </c>
+      <c r="J204">
+        <v>15.219999999999999</v>
+      </c>
+      <c r="K204">
+        <v>16.623055555555556</v>
+      </c>
+      <c r="L204">
+        <v>17.873333333333335</v>
+      </c>
+      <c r="M204">
+        <v>15.983333333333334</v>
+      </c>
+      <c r="N204">
+        <v>16.46222222222222</v>
+      </c>
+      <c r="O204">
+        <v>16.89</v>
+      </c>
+      <c r="P204">
+        <v>16.500972222222227</v>
+      </c>
+      <c r="Q204">
+        <v>16.263472222222223</v>
+      </c>
+      <c r="R204">
+        <v>16.349583333333332</v>
+      </c>
+      <c r="S204">
+        <v>16.270416666666666</v>
+      </c>
+      <c r="T204">
+        <v>16.343333333333334</v>
+      </c>
+    </row>
+    <row r="205" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A205" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="B205" s="1">
         <v>44824</v>
       </c>
-    </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="G205">
+        <v>12.436666666666667</v>
+      </c>
+      <c r="H205">
+        <v>17.189722222222226</v>
+      </c>
+      <c r="I205">
+        <v>22.483333333333334</v>
+      </c>
+      <c r="J205">
+        <v>15.296666666666667</v>
+      </c>
+      <c r="K205">
+        <v>16.71083333333333</v>
+      </c>
+      <c r="L205">
+        <v>17.930000000000003</v>
+      </c>
+      <c r="M205">
+        <v>15.993333333333332</v>
+      </c>
+      <c r="N205">
+        <v>16.459583333333331</v>
+      </c>
+      <c r="O205">
+        <v>16.843333333333334</v>
+      </c>
+      <c r="P205">
+        <v>16.46875</v>
+      </c>
+      <c r="Q205">
+        <v>16.242083333333333</v>
+      </c>
+      <c r="R205">
+        <v>16.3475</v>
+      </c>
+      <c r="S205">
+        <v>16.298888888888886</v>
+      </c>
+      <c r="T205">
+        <v>16.371805555555557</v>
+      </c>
+    </row>
+    <row r="206" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A206" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="B206" s="1">
         <v>44825</v>
       </c>
-    </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="G206">
+        <v>15.520000000000001</v>
+      </c>
+      <c r="H206">
+        <v>17.009722222222223</v>
+      </c>
+      <c r="I206">
+        <v>18.48</v>
+      </c>
+      <c r="J206">
+        <v>16.53</v>
+      </c>
+      <c r="K206">
+        <v>16.987361111111113</v>
+      </c>
+      <c r="L206">
+        <v>17.559999999999999</v>
+      </c>
+      <c r="M206">
+        <v>16.553333333333331</v>
+      </c>
+      <c r="N206">
+        <v>16.714166666666664</v>
+      </c>
+      <c r="O206">
+        <v>16.903333333333332</v>
+      </c>
+      <c r="P206">
+        <v>16.607638888888889</v>
+      </c>
+      <c r="Q206">
+        <v>16.297222222222221</v>
+      </c>
+      <c r="R206">
+        <v>16.371944444444448</v>
+      </c>
+      <c r="S206">
+        <v>16.316527777777779</v>
+      </c>
+      <c r="T206">
+        <v>16.393194444444443</v>
+      </c>
+    </row>
+    <row r="207" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A207" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="B207" s="1">
         <v>44826</v>
       </c>
-    </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="G207">
+        <v>16.11</v>
+      </c>
+      <c r="H207">
+        <v>17.603333333333332</v>
+      </c>
+      <c r="I207">
+        <v>19.853333333333335</v>
+      </c>
+      <c r="J207">
+        <v>16.536666666666665</v>
+      </c>
+      <c r="K207">
+        <v>17.078472222222221</v>
+      </c>
+      <c r="L207">
+        <v>17.893333333333331</v>
+      </c>
+      <c r="M207">
+        <v>16.526666666666667</v>
+      </c>
+      <c r="N207">
+        <v>16.736805555555559</v>
+      </c>
+      <c r="O207">
+        <v>17.349999999999998</v>
+      </c>
+      <c r="P207">
+        <v>16.664722222222224</v>
+      </c>
+      <c r="Q207">
+        <v>16.365972222222222</v>
+      </c>
+      <c r="R207">
+        <v>16.444166666666664</v>
+      </c>
+      <c r="S207">
+        <v>16.355972222222224</v>
+      </c>
+      <c r="T207">
+        <v>16.438750000000002</v>
+      </c>
+    </row>
+    <row r="208" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A208" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="B208" s="1">
         <v>44827</v>
       </c>
-    </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="G208">
+        <v>15.826666666666666</v>
+      </c>
+      <c r="H208">
+        <v>18.189305555555556</v>
+      </c>
+      <c r="I208">
+        <v>20.88</v>
+      </c>
+      <c r="J208">
+        <v>16.670000000000002</v>
+      </c>
+      <c r="K208">
+        <v>17.443472222222223</v>
+      </c>
+      <c r="L208">
+        <v>18.296666666666667</v>
+      </c>
+      <c r="M208">
+        <v>16.746666666666666</v>
+      </c>
+      <c r="N208">
+        <v>17.006527777777777</v>
+      </c>
+      <c r="O208">
+        <v>17.349999999999998</v>
+      </c>
+      <c r="P208">
+        <v>16.876111111111111</v>
+      </c>
+      <c r="Q208">
+        <v>16.523888888888887</v>
+      </c>
+      <c r="R208">
+        <v>16.549166666666668</v>
+      </c>
+      <c r="S208">
+        <v>16.432083333333335</v>
+      </c>
+      <c r="T208">
+        <v>16.489027777777778</v>
+      </c>
+    </row>
+    <row r="209" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A209" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="B209" s="1">
         <v>44828</v>
       </c>
-    </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="G209">
+        <v>15.873333333333333</v>
+      </c>
+      <c r="H209">
+        <v>18.511944444444442</v>
+      </c>
+      <c r="I209">
+        <v>21.506666666666664</v>
+      </c>
+      <c r="J209">
+        <v>17.073333333333334</v>
+      </c>
+      <c r="K209">
+        <v>17.906388888888891</v>
+      </c>
+      <c r="L209">
+        <v>18.636666666666667</v>
+      </c>
+      <c r="M209">
+        <v>17.103333333333335</v>
+      </c>
+      <c r="N209">
+        <v>17.35263888888889</v>
+      </c>
+      <c r="O209">
+        <v>17.656666666666666</v>
+      </c>
+      <c r="P209">
+        <v>17.111527777777777</v>
+      </c>
+      <c r="Q209">
+        <v>16.700555555555557</v>
+      </c>
+      <c r="R209">
+        <v>16.68180555555556</v>
+      </c>
+      <c r="S209">
+        <v>16.531527777777772</v>
+      </c>
+      <c r="T209">
+        <v>16.576527777777777</v>
+      </c>
+    </row>
+    <row r="210" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A210" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="B210" s="1">
         <v>44829</v>
       </c>
-    </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="G210">
+        <v>14.746666666666668</v>
+      </c>
+      <c r="H210">
+        <v>18.006388888888889</v>
+      </c>
+      <c r="I210">
+        <v>22.056666666666668</v>
+      </c>
+      <c r="J210">
+        <v>16.646666666666665</v>
+      </c>
+      <c r="K210">
+        <v>17.705694444444443</v>
+      </c>
+      <c r="L210">
+        <v>18.596666666666668</v>
+      </c>
+      <c r="M210">
+        <v>17.013333333333332</v>
+      </c>
+      <c r="N210">
+        <v>17.373472222222219</v>
+      </c>
+      <c r="O210">
+        <v>17.66</v>
+      </c>
+      <c r="P210">
+        <v>17.24902777777778</v>
+      </c>
+      <c r="Q210">
+        <v>16.859722222222221</v>
+      </c>
+      <c r="R210">
+        <v>16.833055555555557</v>
+      </c>
+      <c r="S210">
+        <v>16.665138888888887</v>
+      </c>
+      <c r="T210">
+        <v>16.672638888888887</v>
+      </c>
+    </row>
+    <row r="211" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A211" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="B211" s="1">
         <v>44830</v>
       </c>
-    </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="G211">
+        <v>14.280000000000001</v>
+      </c>
+      <c r="H211">
+        <v>17.986111111111114</v>
+      </c>
+      <c r="I211">
+        <v>22.2</v>
+      </c>
+      <c r="J211">
+        <v>16.419999999999998</v>
+      </c>
+      <c r="K211">
+        <v>17.565138888888885</v>
+      </c>
+      <c r="L211">
+        <v>18.576666666666668</v>
+      </c>
+      <c r="M211">
+        <v>16.883333333333336</v>
+      </c>
+      <c r="N211">
+        <v>17.290972222222223</v>
+      </c>
+      <c r="O211">
+        <v>17.643333333333334</v>
+      </c>
+      <c r="P211">
+        <v>17.240694444444447</v>
+      </c>
+      <c r="Q211">
+        <v>16.911666666666665</v>
+      </c>
+      <c r="R211">
+        <v>16.925694444444446</v>
+      </c>
+      <c r="S211">
+        <v>16.76958333333333</v>
+      </c>
+      <c r="T211">
+        <v>16.777777777777775</v>
+      </c>
+    </row>
+    <row r="212" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A212" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="B212" s="1">
         <v>44831</v>
       </c>
-    </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="G212">
+        <v>16.016666666666666</v>
+      </c>
+      <c r="H212">
+        <v>18.017222222222223</v>
+      </c>
+      <c r="I212">
+        <v>20.290000000000003</v>
+      </c>
+      <c r="J212">
+        <v>17.096666666666668</v>
+      </c>
+      <c r="K212">
+        <v>17.734444444444446</v>
+      </c>
+      <c r="L212">
+        <v>18.276666666666667</v>
+      </c>
+      <c r="M212">
+        <v>17.193333333333335</v>
+      </c>
+      <c r="N212">
+        <v>17.414027777777775</v>
+      </c>
+      <c r="O212">
+        <v>17.639999999999997</v>
+      </c>
+      <c r="P212">
+        <v>17.297777777777778</v>
+      </c>
+      <c r="Q212">
+        <v>16.952361111111113</v>
+      </c>
+      <c r="R212">
+        <v>16.968333333333334</v>
+      </c>
+      <c r="S212">
+        <v>16.827777777777779</v>
+      </c>
+      <c r="T212">
+        <v>16.845972222222219</v>
+      </c>
+    </row>
+    <row r="213" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A213" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="B213" s="1">
         <v>44832</v>
       </c>
-    </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="G213">
+        <v>16.813333333333333</v>
+      </c>
+      <c r="H213">
+        <v>18.574861111111115</v>
+      </c>
+      <c r="I213">
+        <v>20.883333333333329</v>
+      </c>
+      <c r="J213">
+        <v>17.419999999999998</v>
+      </c>
+      <c r="K213">
+        <v>18.002083333333331</v>
+      </c>
+      <c r="L213">
+        <v>18.676666666666666</v>
+      </c>
+      <c r="M213">
+        <v>17.356666666666666</v>
+      </c>
+      <c r="N213">
+        <v>17.545833333333331</v>
+      </c>
+      <c r="O213">
+        <v>17.846666666666668</v>
+      </c>
+      <c r="P213">
+        <v>17.383055555555554</v>
+      </c>
+      <c r="Q213">
+        <v>17.028194444444448</v>
+      </c>
+      <c r="R213">
+        <v>17.035416666666663</v>
+      </c>
+      <c r="S213">
+        <v>16.889861111111113</v>
+      </c>
+      <c r="T213">
+        <v>16.912638888888889</v>
+      </c>
+    </row>
+    <row r="214" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A214" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="B214" s="1">
         <v>44833</v>
       </c>
-    </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="G214">
+        <v>15.603333333333333</v>
+      </c>
+      <c r="H214">
+        <v>16.935833333333331</v>
+      </c>
+      <c r="I214">
+        <v>18.503333333333334</v>
+      </c>
+      <c r="J214">
+        <v>17.036666666666669</v>
+      </c>
+      <c r="K214">
+        <v>17.513611111111107</v>
+      </c>
+      <c r="L214">
+        <v>18.389999999999997</v>
+      </c>
+      <c r="M214">
+        <v>17.253333333333334</v>
+      </c>
+      <c r="N214">
+        <v>17.505138888888883</v>
+      </c>
+      <c r="O214">
+        <v>17.866666666666667</v>
+      </c>
+      <c r="P214">
+        <v>17.486666666666665</v>
+      </c>
+      <c r="Q214">
+        <v>17.141527777777778</v>
+      </c>
+      <c r="R214">
+        <v>17.13111111111111</v>
+      </c>
+      <c r="S214">
+        <v>16.971805555555559</v>
+      </c>
+      <c r="T214">
+        <v>16.978333333333335</v>
+      </c>
+    </row>
+    <row r="215" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A215" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="B215" s="1">
         <v>44834</v>
       </c>
-    </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="G215">
+        <v>13.676666666666668</v>
+      </c>
+      <c r="H215">
+        <v>17.522638888888885</v>
+      </c>
+      <c r="I215">
+        <v>21.72</v>
+      </c>
+      <c r="J215">
+        <v>15.966666666666669</v>
+      </c>
+      <c r="K215">
+        <v>17.134305555555557</v>
+      </c>
+      <c r="L215">
+        <v>18.293333333333333</v>
+      </c>
+      <c r="M215">
+        <v>16.66</v>
+      </c>
+      <c r="N215">
+        <v>17.053888888888892</v>
+      </c>
+      <c r="O215">
+        <v>17.423333333333332</v>
+      </c>
+      <c r="P215">
+        <v>17.210555555555558</v>
+      </c>
+      <c r="Q215">
+        <v>17.038472222222222</v>
+      </c>
+      <c r="R215">
+        <v>17.138749999999998</v>
+      </c>
+      <c r="S215">
+        <v>17.025694444444444</v>
+      </c>
+      <c r="T215">
+        <v>17.057777777777776</v>
+      </c>
+    </row>
+    <row r="216" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A216" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="B216" s="1">
         <v>44835</v>
       </c>
-    </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="G216">
+        <v>15.463333333333333</v>
+      </c>
+      <c r="H216">
+        <v>17.553055555555556</v>
+      </c>
+      <c r="I216">
+        <v>19.706666666666663</v>
+      </c>
+      <c r="J216">
+        <v>16.913333333333338</v>
+      </c>
+      <c r="K216">
+        <v>17.549305555555556</v>
+      </c>
+      <c r="L216">
+        <v>18.09</v>
+      </c>
+      <c r="M216">
+        <v>17.113333333333333</v>
+      </c>
+      <c r="N216">
+        <v>17.324027777777783</v>
+      </c>
+      <c r="O216">
+        <v>17.513333333333332</v>
+      </c>
+      <c r="P216">
+        <v>17.282777777777778</v>
+      </c>
+      <c r="Q216">
+        <v>17.011527777777776</v>
+      </c>
+      <c r="R216">
+        <v>17.097361111111109</v>
+      </c>
+      <c r="S216">
+        <v>17.006944444444446</v>
+      </c>
+      <c r="T216">
+        <v>17.072361111111114</v>
+      </c>
+    </row>
+    <row r="217" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A217" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="B217" s="1">
         <v>44836</v>
       </c>
-    </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="G217">
+        <v>14.836666666666668</v>
+      </c>
+      <c r="H217">
+        <v>15.908194444444447</v>
+      </c>
+      <c r="I217">
+        <v>17.046666666666667</v>
+      </c>
+      <c r="J217">
+        <v>16.313333333333336</v>
+      </c>
+      <c r="K217">
+        <v>16.77333333333333</v>
+      </c>
+      <c r="L217">
+        <v>17.633333333333336</v>
+      </c>
+      <c r="M217">
+        <v>16.739999999999998</v>
+      </c>
+      <c r="N217">
+        <v>17.021666666666668</v>
+      </c>
+      <c r="O217">
+        <v>17.41333333333333</v>
+      </c>
+      <c r="P217">
+        <v>17.207361111111108</v>
+      </c>
+      <c r="Q217">
+        <v>17.014861111111113</v>
+      </c>
+      <c r="R217">
+        <v>17.112500000000001</v>
+      </c>
+      <c r="S217">
+        <v>17.029027777777781</v>
+      </c>
+      <c r="T217">
+        <v>17.080972222222226</v>
+      </c>
+    </row>
+    <row r="218" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A218" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="B218" s="1">
         <v>44837</v>
       </c>
-    </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="G218">
+        <v>13.843333333333334</v>
+      </c>
+      <c r="H218">
+        <v>16.914166666666663</v>
+      </c>
+      <c r="I218">
+        <v>20.48</v>
+      </c>
+      <c r="J218">
+        <v>15.653333333333334</v>
+      </c>
+      <c r="K218">
+        <v>16.592499999999998</v>
+      </c>
+      <c r="L218">
+        <v>17.616666666666671</v>
+      </c>
+      <c r="M218">
+        <v>16.283333333333335</v>
+      </c>
+      <c r="N218">
+        <v>16.582083333333333</v>
+      </c>
+      <c r="O218">
+        <v>16.936666666666667</v>
+      </c>
+      <c r="P218">
+        <v>16.850138888888889</v>
+      </c>
+      <c r="Q218">
+        <v>16.795555555555556</v>
+      </c>
+      <c r="R218">
+        <v>17.019444444444442</v>
+      </c>
+      <c r="S218">
+        <v>16.992499999999996</v>
+      </c>
+      <c r="T218">
+        <v>17.081250000000001</v>
+      </c>
+    </row>
+    <row r="219" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A219" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="B219" s="1">
         <v>44838</v>
       </c>
-    </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="G219">
+        <v>14.219999999999999</v>
+      </c>
+      <c r="H219">
+        <v>16.838055555555556</v>
+      </c>
+      <c r="I219">
+        <v>19.293333333333333</v>
+      </c>
+      <c r="J219">
+        <v>16.076666666666668</v>
+      </c>
+      <c r="K219">
+        <v>16.865972222222222</v>
+      </c>
+      <c r="L219">
+        <v>17.45</v>
+      </c>
+      <c r="M219">
+        <v>16.526666666666667</v>
+      </c>
+      <c r="N219">
+        <v>16.777083333333334</v>
+      </c>
+      <c r="O219">
+        <v>16.986666666666665</v>
+      </c>
+      <c r="P219">
+        <v>16.876249999999999</v>
+      </c>
+      <c r="Q219">
+        <v>16.72583333333333</v>
+      </c>
+      <c r="R219">
+        <v>16.918333333333337</v>
+      </c>
+      <c r="S219">
+        <v>16.925138888888892</v>
+      </c>
+      <c r="T219">
+        <v>17.052083333333332</v>
+      </c>
+    </row>
+    <row r="220" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A220" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="B220" s="1">
         <v>44839</v>
       </c>
-    </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="G220">
+        <v>14.159999999999998</v>
+      </c>
+      <c r="H220">
+        <v>16.456388888888888</v>
+      </c>
+      <c r="I220">
+        <v>18.556666666666668</v>
+      </c>
+      <c r="J220">
+        <v>15.993333333333332</v>
+      </c>
+      <c r="K220">
+        <v>16.637499999999999</v>
+      </c>
+      <c r="L220">
+        <v>17.193333333333332</v>
+      </c>
+      <c r="M220">
+        <v>16.443333333333332</v>
+      </c>
+      <c r="N220">
+        <v>16.676111111111112</v>
+      </c>
+      <c r="O220">
+        <v>16.95</v>
+      </c>
+      <c r="P220">
+        <v>16.840694444444441</v>
+      </c>
+      <c r="Q220">
+        <v>16.703749999999996</v>
+      </c>
+      <c r="R220">
+        <v>16.896249999999998</v>
+      </c>
+      <c r="S220">
+        <v>16.880000000000006</v>
+      </c>
+      <c r="T220">
+        <v>17.011666666666667</v>
+      </c>
+    </row>
+    <row r="221" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A221" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="B221" s="1">
         <v>44840</v>
       </c>
-    </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="G221">
+        <v>15.993333333333334</v>
+      </c>
+      <c r="H221">
+        <v>17.348055555555554</v>
+      </c>
+      <c r="I221">
+        <v>18.830000000000002</v>
+      </c>
+      <c r="J221">
+        <v>16.573333333333334</v>
+      </c>
+      <c r="K221">
+        <v>17</v>
+      </c>
+      <c r="L221">
+        <v>17.48</v>
+      </c>
+      <c r="M221">
+        <v>16.633333333333336</v>
+      </c>
+      <c r="N221">
+        <v>16.773472222222221</v>
+      </c>
+      <c r="O221">
+        <v>17</v>
+      </c>
+      <c r="P221">
+        <v>16.832361111111108</v>
+      </c>
+      <c r="Q221">
+        <v>16.677222222222223</v>
+      </c>
+      <c r="R221">
+        <v>16.857500000000002</v>
+      </c>
+      <c r="S221">
+        <v>16.854583333333334</v>
+      </c>
+      <c r="T221">
+        <v>16.989999999999998</v>
+      </c>
+    </row>
+    <row r="222" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A222" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="B222" s="1">
         <v>44841</v>
       </c>
-    </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="G222">
+        <v>16.426666666666666</v>
+      </c>
+      <c r="H222">
+        <v>18.170138888888889</v>
+      </c>
+      <c r="I222">
+        <v>20.196666666666669</v>
+      </c>
+      <c r="J222">
+        <v>16.940000000000001</v>
+      </c>
+      <c r="K222">
+        <v>17.483750000000001</v>
+      </c>
+      <c r="L222">
+        <v>18.133333333333329</v>
+      </c>
+      <c r="M222">
+        <v>16.926666666666666</v>
+      </c>
+      <c r="N222">
+        <v>17.074027777777779</v>
+      </c>
+      <c r="O222">
+        <v>17.393333333333334</v>
+      </c>
+      <c r="P222">
+        <v>16.994722222222222</v>
+      </c>
+      <c r="Q222">
+        <v>16.751527777777778</v>
+      </c>
+      <c r="R222">
+        <v>16.892361111111111</v>
+      </c>
+      <c r="S222">
+        <v>16.854861111111113</v>
+      </c>
+      <c r="T222">
+        <v>16.977777777777774</v>
+      </c>
+    </row>
+    <row r="223" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A223" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="B223" s="1">
         <v>44842</v>
       </c>
-    </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="G223">
+        <v>16.84</v>
+      </c>
+      <c r="H223">
+        <v>19.667777777777783</v>
+      </c>
+      <c r="I223">
+        <v>23.463333333333335</v>
+      </c>
+      <c r="J223">
+        <v>17.356666666666669</v>
+      </c>
+      <c r="K223">
+        <v>18.246111111111109</v>
+      </c>
+      <c r="L223">
+        <v>19.430000000000003</v>
+      </c>
+      <c r="M223">
+        <v>17.260000000000002</v>
+      </c>
+      <c r="N223">
+        <v>17.519027777777776</v>
+      </c>
+      <c r="O223">
+        <v>18.123333333333335</v>
+      </c>
+      <c r="P223">
+        <v>17.279305555555556</v>
+      </c>
+      <c r="Q223">
+        <v>16.933055555555555</v>
+      </c>
+      <c r="R223">
+        <v>16.988472222222217</v>
+      </c>
+      <c r="S223">
+        <v>16.91333333333333</v>
+      </c>
+      <c r="T223">
+        <v>17.005694444444444</v>
+      </c>
+    </row>
+    <row r="224" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A224" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="B224" s="1">
         <v>44843</v>
       </c>
-    </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="G224">
+        <v>18.239999999999998</v>
+      </c>
+      <c r="H224">
+        <v>19.688055555555554</v>
+      </c>
+      <c r="I224">
+        <v>22.173333333333332</v>
+      </c>
+      <c r="J224">
+        <v>18.483333333333331</v>
+      </c>
+      <c r="K224">
+        <v>18.973194444444449</v>
+      </c>
+      <c r="L224">
+        <v>19.52</v>
+      </c>
+      <c r="M224">
+        <v>18.053333333333331</v>
+      </c>
+      <c r="N224">
+        <v>18.214861111111109</v>
+      </c>
+      <c r="O224">
+        <v>18.476666666666663</v>
+      </c>
+      <c r="P224">
+        <v>17.784444444444446</v>
+      </c>
+      <c r="Q224">
+        <v>17.26125</v>
+      </c>
+      <c r="R224">
+        <v>17.188749999999999</v>
+      </c>
+      <c r="S224">
+        <v>17.035833333333333</v>
+      </c>
+      <c r="T224">
+        <v>17.075694444444448</v>
+      </c>
+    </row>
+    <row r="225" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A225" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="B225" s="1">
         <v>44844</v>
       </c>
-    </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="G225">
+        <v>17.316666666666666</v>
+      </c>
+      <c r="H225">
+        <v>18.327777777777779</v>
+      </c>
+      <c r="I225">
+        <v>19.616666666666667</v>
+      </c>
+      <c r="J225">
+        <v>18.113333333333333</v>
+      </c>
+      <c r="K225">
+        <v>18.451250000000002</v>
+      </c>
+      <c r="L225">
+        <v>19.013333333333332</v>
+      </c>
+      <c r="M225">
+        <v>18.04666666666667</v>
+      </c>
+      <c r="N225">
+        <v>18.204861111111114</v>
+      </c>
+      <c r="O225">
+        <v>18.493333333333332</v>
+      </c>
+      <c r="P225">
+        <v>18.011805555555554</v>
+      </c>
+      <c r="Q225">
+        <v>17.550972222222224</v>
+      </c>
+      <c r="R225">
+        <v>17.432500000000001</v>
+      </c>
+      <c r="S225">
+        <v>17.216250000000002</v>
+      </c>
+      <c r="T225">
+        <v>17.204027777777778</v>
+      </c>
+    </row>
+    <row r="226" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A226" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="B226" s="1">
         <v>44845</v>
       </c>
-    </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="G226">
+        <v>15.663333333333332</v>
+      </c>
+      <c r="H226">
+        <v>17.867083333333337</v>
+      </c>
+      <c r="I226">
+        <v>20.27</v>
+      </c>
+      <c r="J226">
+        <v>17.273333333333333</v>
+      </c>
+      <c r="K226">
+        <v>17.922916666666669</v>
+      </c>
+      <c r="L226">
+        <v>18.456666666666667</v>
+      </c>
+      <c r="M226">
+        <v>17.599999999999998</v>
+      </c>
+      <c r="N226">
+        <v>17.841527777777774</v>
+      </c>
+      <c r="O226">
+        <v>18.150000000000002</v>
+      </c>
+      <c r="P226">
+        <v>17.866944444444442</v>
+      </c>
+      <c r="Q226">
+        <v>17.565694444444443</v>
+      </c>
+      <c r="R226">
+        <v>17.551805555555557</v>
+      </c>
+      <c r="S226">
+        <v>17.355138888888892</v>
+      </c>
+      <c r="T226">
+        <v>17.334305555555556</v>
+      </c>
+    </row>
+    <row r="227" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A227" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="B227" s="1">
         <v>44846</v>
       </c>
-    </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="G227">
+        <v>15.406666666666666</v>
+      </c>
+      <c r="H227">
+        <v>17.890277777777779</v>
+      </c>
+      <c r="I227">
+        <v>20.57</v>
+      </c>
+      <c r="J227">
+        <v>17.053333333333335</v>
+      </c>
+      <c r="K227">
+        <v>17.793749999999999</v>
+      </c>
+      <c r="L227">
+        <v>18.430000000000003</v>
+      </c>
+      <c r="M227">
+        <v>17.440000000000001</v>
+      </c>
+      <c r="N227">
+        <v>17.683333333333334</v>
+      </c>
+      <c r="O227">
+        <v>17.939999999999998</v>
+      </c>
+      <c r="P227">
+        <v>17.734722222222224</v>
+      </c>
+      <c r="Q227">
+        <v>17.486805555555552</v>
+      </c>
+      <c r="R227">
+        <v>17.540833333333335</v>
+      </c>
+      <c r="S227">
+        <v>17.399861111111111</v>
+      </c>
+      <c r="T227">
+        <v>17.40388888888889</v>
+      </c>
+    </row>
+    <row r="228" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A228" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="B228" s="1">
         <v>44847</v>
       </c>
-    </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="G228">
+        <v>16.003333333333334</v>
+      </c>
+      <c r="H228">
+        <v>18.668749999999999</v>
+      </c>
+      <c r="I228">
+        <v>22.016666666666666</v>
+      </c>
+      <c r="J228">
+        <v>17.2</v>
+      </c>
+      <c r="K228">
+        <v>18.060972222222222</v>
+      </c>
+      <c r="L228">
+        <v>19.006666666666664</v>
+      </c>
+      <c r="M228">
+        <v>17.45</v>
+      </c>
+      <c r="N228">
+        <v>17.725694444444443</v>
+      </c>
+      <c r="O228">
+        <v>18.099999999999998</v>
+      </c>
+      <c r="P228">
+        <v>17.700694444444451</v>
+      </c>
+      <c r="Q228">
+        <v>17.446666666666669</v>
+      </c>
+      <c r="R228">
+        <v>17.51958333333333</v>
+      </c>
+      <c r="S228">
+        <v>17.406805555555561</v>
+      </c>
+      <c r="T228">
+        <v>17.439722222222219</v>
+      </c>
+    </row>
+    <row r="229" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A229" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="B229" s="1">
         <v>44848</v>
       </c>
-    </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="G229">
+        <v>17.236666666666665</v>
+      </c>
+      <c r="H229">
+        <v>20.16375</v>
+      </c>
+      <c r="I229">
+        <v>23.593333333333334</v>
+      </c>
+      <c r="J229">
+        <v>17.946666666666669</v>
+      </c>
+      <c r="K229">
+        <v>18.865555555555556</v>
+      </c>
+      <c r="L229">
+        <v>19.893333333333334</v>
+      </c>
+      <c r="M229">
+        <v>17.89</v>
+      </c>
+      <c r="N229">
+        <v>18.156944444444445</v>
+      </c>
+      <c r="O229">
+        <v>18.669999999999998</v>
+      </c>
+      <c r="P229">
+        <v>17.897500000000004</v>
+      </c>
+      <c r="Q229">
+        <v>17.539305555555558</v>
+      </c>
+      <c r="R229">
+        <v>17.551805555555557</v>
+      </c>
+      <c r="S229">
+        <v>17.42347222222222</v>
+      </c>
+      <c r="T229">
+        <v>17.465555555555554</v>
+      </c>
+    </row>
+    <row r="230" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A230" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="B230" s="1">
         <v>44849</v>
       </c>
-    </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="G230">
+        <v>16.96</v>
+      </c>
+      <c r="H230">
+        <v>21.013611111111107</v>
+      </c>
+      <c r="I230">
+        <v>25.99666666666667</v>
+      </c>
+      <c r="J230">
+        <v>18.38</v>
+      </c>
+      <c r="K230">
+        <v>19.602499999999999</v>
+      </c>
+      <c r="L230">
+        <v>20.833333333333332</v>
+      </c>
+      <c r="M230">
+        <v>18.363333333333333</v>
+      </c>
+      <c r="N230">
+        <v>18.712500000000002</v>
+      </c>
+      <c r="O230">
+        <v>19.28</v>
+      </c>
+      <c r="P230">
+        <v>18.290555555555557</v>
+      </c>
+      <c r="Q230">
+        <v>17.788472222222222</v>
+      </c>
+      <c r="R230">
+        <v>17.707916666666666</v>
+      </c>
+      <c r="S230">
+        <v>17.519027777777779</v>
+      </c>
+      <c r="T230">
+        <v>17.524722222222223</v>
+      </c>
+    </row>
+    <row r="231" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A231" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="B231" s="1">
         <v>44850</v>
       </c>
-    </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="G231">
+        <v>18.343333333333334</v>
+      </c>
+      <c r="H231">
+        <v>21.001944444444447</v>
+      </c>
+      <c r="I231">
+        <v>24.78</v>
+      </c>
+      <c r="J231">
+        <v>19.093333333333334</v>
+      </c>
+      <c r="K231">
+        <v>19.952777777777783</v>
+      </c>
+      <c r="L231">
+        <v>20.726666666666667</v>
+      </c>
+      <c r="M231">
+        <v>18.866666666666667</v>
+      </c>
+      <c r="N231">
+        <v>19.154722222222222</v>
+      </c>
+      <c r="O231">
+        <v>19.46</v>
+      </c>
+      <c r="P231">
+        <v>18.680694444444445</v>
+      </c>
+      <c r="Q231">
+        <v>18.094305555555554</v>
+      </c>
+      <c r="R231">
+        <v>17.930555555555554</v>
+      </c>
+      <c r="S231">
+        <v>17.679722222222221</v>
+      </c>
+      <c r="T231">
+        <v>17.633749999999996</v>
+      </c>
+    </row>
+    <row r="232" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A232" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="B232" s="1">
         <v>44851</v>
       </c>
-    </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="G232">
+        <v>18.793333333333333</v>
+      </c>
+      <c r="H232">
+        <v>20.300972222222224</v>
+      </c>
+      <c r="I232">
+        <v>22.756666666666664</v>
+      </c>
+      <c r="J232">
+        <v>19.260000000000002</v>
+      </c>
+      <c r="K232">
+        <v>19.794861111111114</v>
+      </c>
+      <c r="L232">
+        <v>20.273333333333333</v>
+      </c>
+      <c r="M232">
+        <v>19.04</v>
+      </c>
+      <c r="N232">
+        <v>19.244861111111106</v>
+      </c>
+      <c r="O232">
+        <v>19.473333333333333</v>
+      </c>
+      <c r="P232">
+        <v>18.889722222222218</v>
+      </c>
+      <c r="Q232">
+        <v>18.322083333333335</v>
+      </c>
+      <c r="R232">
+        <v>18.145833333333332</v>
+      </c>
+      <c r="S232">
+        <v>17.856250000000003</v>
+      </c>
+      <c r="T232">
+        <v>17.775000000000002</v>
+      </c>
+    </row>
+    <row r="233" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A233" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="B233" s="1">
         <v>44852</v>
       </c>
-    </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="G233">
+        <v>18.136666666666667</v>
+      </c>
+      <c r="H233">
+        <v>19.980555555555558</v>
+      </c>
+      <c r="I233">
+        <v>22.123333333333335</v>
+      </c>
+      <c r="J233">
+        <v>19.049999999999997</v>
+      </c>
+      <c r="K233">
+        <v>19.60263888888889</v>
+      </c>
+      <c r="L233">
+        <v>20.026666666666667</v>
+      </c>
+      <c r="M233">
+        <v>18.993333333333336</v>
+      </c>
+      <c r="N233">
+        <v>19.180138888888891</v>
+      </c>
+      <c r="O233">
+        <v>19.37</v>
+      </c>
+      <c r="P233">
+        <v>18.931388888888886</v>
+      </c>
+      <c r="Q233">
+        <v>18.434583333333332</v>
+      </c>
+      <c r="R233">
+        <v>18.288750000000004</v>
+      </c>
+      <c r="S233">
+        <v>18.006666666666664</v>
+      </c>
+      <c r="T233">
+        <v>17.914444444444445</v>
+      </c>
+    </row>
+    <row r="234" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A234" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="B234" s="1">
         <v>44853</v>
       </c>
-    </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="G234">
+        <v>18.23</v>
+      </c>
+      <c r="H234">
+        <v>18.887777777777774</v>
+      </c>
+      <c r="I234">
+        <v>19.826666666666664</v>
+      </c>
+      <c r="J234">
+        <v>18.896666666666665</v>
+      </c>
+      <c r="K234">
+        <v>19.18847222222222</v>
+      </c>
+      <c r="L234">
+        <v>19.723333333333333</v>
+      </c>
+      <c r="M234">
+        <v>18.906666666666666</v>
+      </c>
+      <c r="N234">
+        <v>19.046388888888885</v>
+      </c>
+      <c r="O234">
+        <v>19.296666666666667</v>
+      </c>
+      <c r="P234">
+        <v>18.917222222222222</v>
+      </c>
+      <c r="Q234">
+        <v>18.491250000000004</v>
+      </c>
+      <c r="R234">
+        <v>18.38013888888889</v>
+      </c>
+      <c r="S234">
+        <v>18.11791666666667</v>
+      </c>
+      <c r="T234">
+        <v>18.028333333333332</v>
+      </c>
+    </row>
+    <row r="235" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A235" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="B235" s="1">
         <v>44854</v>
       </c>
-    </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="G235">
+        <v>17.963333333333335</v>
+      </c>
+      <c r="H235">
+        <v>18.915277777777778</v>
+      </c>
+      <c r="I235">
+        <v>20.05</v>
+      </c>
+      <c r="J235">
+        <v>18.5</v>
+      </c>
+      <c r="K235">
+        <v>18.814305555555556</v>
+      </c>
+      <c r="L235">
+        <v>19.123333333333335</v>
+      </c>
+      <c r="M235">
+        <v>18.573333333333334</v>
+      </c>
+      <c r="N235">
+        <v>18.699166666666667</v>
+      </c>
+      <c r="O235">
+        <v>18.866666666666667</v>
+      </c>
+      <c r="P235">
+        <v>18.722222222222221</v>
+      </c>
+      <c r="Q235">
+        <v>18.416666666666668</v>
+      </c>
+      <c r="R235">
+        <v>18.388611111111114</v>
+      </c>
+      <c r="S235">
+        <v>18.186388888888889</v>
+      </c>
+      <c r="T235">
+        <v>18.110833333333332</v>
+      </c>
+    </row>
+    <row r="236" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A236" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="B236" s="1">
         <v>44855</v>
       </c>
-    </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="G236">
+        <v>18.45</v>
+      </c>
+      <c r="H236">
+        <v>19.008750000000003</v>
+      </c>
+      <c r="I236">
+        <v>19.666666666666668</v>
+      </c>
+      <c r="J236">
+        <v>18.736666666666668</v>
+      </c>
+      <c r="K236">
+        <v>18.925416666666667</v>
+      </c>
+      <c r="L236">
+        <v>19.14</v>
+      </c>
+      <c r="M236">
+        <v>18.643333333333334</v>
+      </c>
+      <c r="N236">
+        <v>18.712777777777777</v>
+      </c>
+      <c r="O236">
+        <v>18.806666666666665</v>
+      </c>
+      <c r="P236">
+        <v>18.672916666666666</v>
+      </c>
+      <c r="Q236">
+        <v>18.360416666666666</v>
+      </c>
+      <c r="R236">
+        <v>18.368611111111111</v>
+      </c>
+      <c r="S236">
+        <v>18.187777777777782</v>
+      </c>
+      <c r="T236">
+        <v>18.147083333333335</v>
+      </c>
+    </row>
+    <row r="237" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A237" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="B237" s="1">
         <v>44856</v>
       </c>
-    </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="G237">
+        <v>18.36</v>
+      </c>
+      <c r="H237">
+        <v>18.798194444444444</v>
+      </c>
+      <c r="I237">
+        <v>19.313333333333333</v>
+      </c>
+      <c r="J237">
+        <v>18.72</v>
+      </c>
+      <c r="K237">
+        <v>18.863333333333333</v>
+      </c>
+      <c r="L237">
+        <v>19.056666666666668</v>
+      </c>
+      <c r="M237">
+        <v>18.633333333333333</v>
+      </c>
+      <c r="N237">
+        <v>18.715277777777775</v>
+      </c>
+      <c r="O237">
+        <v>18.806666666666668</v>
+      </c>
+      <c r="P237">
+        <v>18.69597222222222</v>
+      </c>
+      <c r="Q237">
+        <v>18.379027777777779</v>
+      </c>
+      <c r="R237">
+        <v>18.377083333333331</v>
+      </c>
+      <c r="S237">
+        <v>18.197222222222219</v>
+      </c>
+      <c r="T237">
+        <v>18.179583333333337</v>
+      </c>
+    </row>
+    <row r="238" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A238" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="B238" s="1">
         <v>44857</v>
       </c>
-    </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="G238">
+        <v>17.650000000000002</v>
+      </c>
+      <c r="H238">
+        <v>18.17763888888889</v>
+      </c>
+      <c r="I238">
+        <v>18.89</v>
+      </c>
+      <c r="J238">
+        <v>18.183333333333334</v>
+      </c>
+      <c r="K238">
+        <v>18.445555555555554</v>
+      </c>
+      <c r="L238">
+        <v>18.77</v>
+      </c>
+      <c r="M238">
+        <v>18.330000000000002</v>
+      </c>
+      <c r="N238">
+        <v>18.485416666666669</v>
+      </c>
+      <c r="O238">
+        <v>18.686666666666667</v>
+      </c>
+      <c r="P238">
+        <v>18.59</v>
+      </c>
+      <c r="Q238">
+        <v>18.35361111111111</v>
+      </c>
+      <c r="R238">
+        <v>18.390138888888892</v>
+      </c>
+      <c r="S238">
+        <v>18.227083333333329</v>
+      </c>
+      <c r="T238">
+        <v>18.21972222222222</v>
+      </c>
+    </row>
+    <row r="239" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A239" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="B239" s="1">
         <v>44858</v>
       </c>
-    </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="G239">
+        <v>17.166666666666668</v>
+      </c>
+      <c r="H239">
+        <v>20.478888888888886</v>
+      </c>
+      <c r="I239">
+        <v>24.506666666666671</v>
+      </c>
+      <c r="J239">
+        <v>17.946666666666669</v>
+      </c>
+      <c r="K239">
+        <v>19.087083333333336</v>
+      </c>
+      <c r="L239">
+        <v>20.66</v>
+      </c>
+      <c r="M239">
+        <v>18.166666666666668</v>
+      </c>
+      <c r="N239">
+        <v>18.513333333333332</v>
+      </c>
+      <c r="O239">
+        <v>19.27333333333333</v>
+      </c>
+      <c r="P239">
+        <v>18.470277777777778</v>
+      </c>
+      <c r="Q239">
+        <v>18.250138888888888</v>
+      </c>
+      <c r="R239">
+        <v>18.344861111111111</v>
+      </c>
+      <c r="S239">
+        <v>18.218194444444446</v>
+      </c>
+      <c r="T239">
+        <v>18.236805555555552</v>
+      </c>
+    </row>
+    <row r="240" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A240" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="B240" s="1">
         <v>44859</v>
       </c>
-    </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="G240">
+        <v>18.836666666666666</v>
+      </c>
+      <c r="H240">
+        <v>21.377083333333331</v>
+      </c>
+      <c r="I240">
+        <v>24.603333333333335</v>
+      </c>
+      <c r="J240">
+        <v>19.36</v>
+      </c>
+      <c r="K240">
+        <v>20.254027777777779</v>
+      </c>
+      <c r="L240">
+        <v>21.226666666666663</v>
+      </c>
+      <c r="M240">
+        <v>19.169999999999998</v>
+      </c>
+      <c r="N240">
+        <v>19.410138888888891</v>
+      </c>
+      <c r="O240">
+        <v>19.920000000000002</v>
+      </c>
+      <c r="P240">
+        <v>18.978472222222219</v>
+      </c>
+      <c r="Q240">
+        <v>18.478055555555557</v>
+      </c>
+      <c r="R240">
+        <v>18.421527777777779</v>
+      </c>
+      <c r="S240">
+        <v>18.242499999999996</v>
+      </c>
+      <c r="T240">
+        <v>18.247083333333332</v>
+      </c>
+    </row>
+    <row r="241" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A241" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="B241" s="1">
         <v>44860</v>
       </c>
-    </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="G241">
+        <v>19.319999999999997</v>
+      </c>
+      <c r="H241">
+        <v>22.330555555555559</v>
+      </c>
+      <c r="I241">
+        <v>26.246666666666666</v>
+      </c>
+      <c r="J241">
+        <v>20.023333333333333</v>
+      </c>
+      <c r="K241">
+        <v>21.02611111111111</v>
+      </c>
+      <c r="L241">
+        <v>22.103333333333335</v>
+      </c>
+      <c r="M241">
+        <v>19.75333333333333</v>
+      </c>
+      <c r="N241">
+        <v>20.036666666666665</v>
+      </c>
+      <c r="O241">
+        <v>20.57</v>
+      </c>
+      <c r="P241">
+        <v>19.494722222222222</v>
+      </c>
+      <c r="Q241">
+        <v>18.865555555555556</v>
+      </c>
+      <c r="R241">
+        <v>18.680416666666662</v>
+      </c>
+      <c r="S241">
+        <v>18.401666666666667</v>
+      </c>
+      <c r="T241">
+        <v>18.344444444444445</v>
+      </c>
+    </row>
+    <row r="242" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A242" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="B242" s="1">
         <v>44861</v>
       </c>
-    </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="G242">
+        <v>18.760000000000002</v>
+      </c>
+      <c r="H242">
+        <v>22.277777777777782</v>
+      </c>
+      <c r="I242">
+        <v>26.606666666666666</v>
+      </c>
+      <c r="J242">
+        <v>20.043333333333333</v>
+      </c>
+      <c r="K242">
+        <v>21.221944444444443</v>
+      </c>
+      <c r="L242">
+        <v>22.39</v>
+      </c>
+      <c r="M242">
+        <v>20.006666666666668</v>
+      </c>
+      <c r="N242">
+        <v>20.390277777777779</v>
+      </c>
+      <c r="O242">
+        <v>20.823333333333334</v>
+      </c>
+      <c r="P242">
+        <v>19.895416666666666</v>
+      </c>
+      <c r="Q242">
+        <v>19.237916666666663</v>
+      </c>
+      <c r="R242">
+        <v>18.977916666666669</v>
+      </c>
+      <c r="S242">
+        <v>18.63388888888889</v>
+      </c>
+      <c r="T242">
+        <v>18.50375</v>
+      </c>
+    </row>
+    <row r="243" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A243" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="B243" s="1">
         <v>44862</v>
       </c>
-    </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="G243">
+        <v>19.596666666666664</v>
+      </c>
+      <c r="H243">
+        <v>22.981111111111105</v>
+      </c>
+      <c r="I243">
+        <v>27.909999999999997</v>
+      </c>
+      <c r="J243">
+        <v>20.606666666666666</v>
+      </c>
+      <c r="K243">
+        <v>21.763333333333332</v>
+      </c>
+      <c r="L243">
+        <v>22.986666666666665</v>
+      </c>
+      <c r="M243">
+        <v>20.423333333333336</v>
+      </c>
+      <c r="N243">
+        <v>20.778611111111115</v>
+      </c>
+      <c r="O243">
+        <v>21.266666666666666</v>
+      </c>
+      <c r="P243">
+        <v>20.19736111111111</v>
+      </c>
+      <c r="Q243">
+        <v>19.51125</v>
+      </c>
+      <c r="R243">
+        <v>19.234027777777772</v>
+      </c>
+      <c r="S243">
+        <v>18.85263888888889</v>
+      </c>
+      <c r="T243">
+        <v>18.691805555555558</v>
+      </c>
+    </row>
+    <row r="244" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A244" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="B244" s="1">
         <v>44863</v>
       </c>
-    </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="G244">
+        <v>18.236666666666665</v>
+      </c>
+      <c r="H244">
+        <v>22.535972222222224</v>
+      </c>
+      <c r="I244">
+        <v>28.02333333333333</v>
+      </c>
+      <c r="J244">
+        <v>20.196666666666669</v>
+      </c>
+      <c r="K244">
+        <v>21.626805555555553</v>
+      </c>
+      <c r="L244">
+        <v>22.926666666666666</v>
+      </c>
+      <c r="M244">
+        <v>20.413333333333338</v>
+      </c>
+      <c r="N244">
+        <v>20.88763888888889</v>
+      </c>
+      <c r="O244">
+        <v>21.33</v>
+      </c>
+      <c r="P244">
+        <v>20.420972222222222</v>
+      </c>
+      <c r="Q244">
+        <v>19.76263888888889</v>
+      </c>
+      <c r="R244">
+        <v>19.470138888888894</v>
+      </c>
+      <c r="S244">
+        <v>19.05972222222222</v>
+      </c>
+      <c r="T244">
+        <v>18.872499999999999</v>
+      </c>
+    </row>
+    <row r="245" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A245" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="B245" s="1">
         <v>44864</v>
       </c>
-    </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="G245">
+        <v>18.613333333333333</v>
+      </c>
+      <c r="H245">
+        <v>23.09097222222222</v>
+      </c>
+      <c r="I245">
+        <v>28.596666666666664</v>
+      </c>
+      <c r="J245">
+        <v>20.423333333333332</v>
+      </c>
+      <c r="K245">
+        <v>21.860555555555553</v>
+      </c>
+      <c r="L245">
+        <v>23.25</v>
+      </c>
+      <c r="M245">
+        <v>20.546666666666667</v>
+      </c>
+      <c r="N245">
+        <v>21.009027777777778</v>
+      </c>
+      <c r="O245">
+        <v>21.540000000000003</v>
+      </c>
+      <c r="P245">
+        <v>20.52888888888889</v>
+      </c>
+      <c r="Q245">
+        <v>19.898055555555558</v>
+      </c>
+      <c r="R245">
+        <v>19.629861111111115</v>
+      </c>
+      <c r="S245">
+        <v>19.231944444444448</v>
+      </c>
+      <c r="T245">
+        <v>19.043055555555554</v>
+      </c>
+    </row>
+    <row r="246" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A246" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="B246" s="1">
         <v>44865</v>
       </c>
-    </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="G246">
+        <v>19.653333333333332</v>
+      </c>
+      <c r="H246">
+        <v>23.302777777777777</v>
+      </c>
+      <c r="I246">
+        <v>27.236666666666665</v>
+      </c>
+      <c r="J246">
+        <v>21.003333333333334</v>
+      </c>
+      <c r="K246">
+        <v>22.171111111111113</v>
+      </c>
+      <c r="L246">
+        <v>23.123333333333335</v>
+      </c>
+      <c r="M246">
+        <v>20.91</v>
+      </c>
+      <c r="N246">
+        <v>21.295694444444447</v>
+      </c>
+      <c r="O246">
+        <v>21.64</v>
+      </c>
+      <c r="P246">
+        <v>20.761805555555554</v>
+      </c>
+      <c r="Q246">
+        <v>20.080416666666668</v>
+      </c>
+      <c r="R246">
+        <v>19.788472222222225</v>
+      </c>
+      <c r="S246">
+        <v>19.380416666666665</v>
+      </c>
+      <c r="T246">
+        <v>19.183194444444442</v>
+      </c>
+    </row>
+    <row r="247" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A247" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="B247" s="1">
         <v>44866</v>
       </c>
-    </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="G247">
+        <v>19.286666666666665</v>
+      </c>
+      <c r="H247">
+        <v>21.589583333333334</v>
+      </c>
+      <c r="I247">
+        <v>23.283333333333331</v>
+      </c>
+      <c r="J247">
+        <v>21.196666666666665</v>
+      </c>
+      <c r="K247">
+        <v>21.911805555555549</v>
+      </c>
+      <c r="L247">
+        <v>22.856666666666666</v>
+      </c>
+      <c r="M247">
+        <v>21.16</v>
+      </c>
+      <c r="N247">
+        <v>21.434861111111115</v>
+      </c>
+      <c r="O247">
+        <v>21.693333333333332</v>
+      </c>
+      <c r="P247">
+        <v>20.989166666666666</v>
+      </c>
+      <c r="Q247">
+        <v>20.287083333333339</v>
+      </c>
+      <c r="R247">
+        <v>19.971944444444446</v>
+      </c>
+      <c r="S247">
+        <v>19.550416666666667</v>
+      </c>
+      <c r="T247">
+        <v>19.327361111111113</v>
+      </c>
+    </row>
+    <row r="248" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A248" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="B248" s="1">
         <v>44867</v>
       </c>
-    </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="G248">
+        <v>17.05</v>
+      </c>
+      <c r="H248">
+        <v>20.370138888888889</v>
+      </c>
+      <c r="I248">
+        <v>25.180000000000003</v>
+      </c>
+      <c r="J248">
+        <v>19.419999999999998</v>
+      </c>
+      <c r="K248">
+        <v>20.53166666666667</v>
+      </c>
+      <c r="L248">
+        <v>21.546666666666667</v>
+      </c>
+      <c r="M248">
+        <v>20.116666666666664</v>
+      </c>
+      <c r="N248">
+        <v>20.542916666666667</v>
+      </c>
+      <c r="O248">
+        <v>21.106666666666666</v>
+      </c>
+      <c r="P248">
+        <v>20.588055555555552</v>
+      </c>
+      <c r="Q248">
+        <v>20.207083333333333</v>
+      </c>
+      <c r="R248">
+        <v>20.054861111111112</v>
+      </c>
+      <c r="S248">
+        <v>19.679722222222225</v>
+      </c>
+      <c r="T248">
+        <v>19.474722222222223</v>
+      </c>
+    </row>
+    <row r="249" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A249" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="B249" s="1">
         <v>44868</v>
       </c>
-    </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="G249">
+        <v>15.553333333333333</v>
+      </c>
+      <c r="H249">
+        <v>20.347777777777779</v>
+      </c>
+      <c r="I249">
+        <v>26.146666666666665</v>
+      </c>
+      <c r="J249">
+        <v>18.613333333333333</v>
+      </c>
+      <c r="K249">
+        <v>20.134722222222223</v>
+      </c>
+      <c r="L249">
+        <v>21.52</v>
+      </c>
+      <c r="M249">
+        <v>19.540000000000003</v>
+      </c>
+      <c r="N249">
+        <v>20.082222222222221</v>
+      </c>
+      <c r="O249">
+        <v>20.646666666666665</v>
+      </c>
+      <c r="P249">
+        <v>20.192361111111111</v>
+      </c>
+      <c r="Q249">
+        <v>19.938472222222227</v>
+      </c>
+      <c r="R249">
+        <v>19.926666666666666</v>
+      </c>
+      <c r="S249">
+        <v>19.670972222222222</v>
+      </c>
+      <c r="T249">
+        <v>19.52986111111111</v>
+      </c>
+    </row>
+    <row r="250" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A250" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="B250" s="1">
         <v>44869</v>
       </c>
-    </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="G250">
+        <v>16.756666666666664</v>
+      </c>
+      <c r="H250">
+        <v>21.084861111111113</v>
+      </c>
+      <c r="I250">
+        <v>26.096666666666668</v>
+      </c>
+      <c r="J250">
+        <v>19.099999999999998</v>
+      </c>
+      <c r="K250">
+        <v>20.472083333333334</v>
+      </c>
+      <c r="L250">
+        <v>21.689999999999998</v>
+      </c>
+      <c r="M250">
+        <v>19.669999999999998</v>
+      </c>
+      <c r="N250">
+        <v>20.108055555555552</v>
+      </c>
+      <c r="O250">
+        <v>20.49</v>
+      </c>
+      <c r="P250">
+        <v>20.050277777777776</v>
+      </c>
+      <c r="Q250">
+        <v>19.760833333333334</v>
+      </c>
+      <c r="R250">
+        <v>19.778611111111118</v>
+      </c>
+      <c r="S250">
+        <v>19.579722222222223</v>
+      </c>
+      <c r="T250">
+        <v>19.513611111111114</v>
+      </c>
+    </row>
+    <row r="251" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A251" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="B251" s="1">
         <v>44870</v>
       </c>
-    </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="G251">
+        <v>17.763333333333335</v>
+      </c>
+      <c r="H251">
+        <v>21.322638888888893</v>
+      </c>
+      <c r="I251">
+        <v>25.310000000000002</v>
+      </c>
+      <c r="J251">
+        <v>19.623333333333331</v>
+      </c>
+      <c r="K251">
+        <v>20.725138888888889</v>
+      </c>
+      <c r="L251">
+        <v>21.646666666666665</v>
+      </c>
+      <c r="M251">
+        <v>19.900000000000002</v>
+      </c>
+      <c r="N251">
+        <v>20.270277777777778</v>
+      </c>
+      <c r="O251">
+        <v>20.570000000000004</v>
+      </c>
+      <c r="P251">
+        <v>20.106249999999999</v>
+      </c>
+      <c r="Q251">
+        <v>19.741944444444446</v>
+      </c>
+      <c r="R251">
+        <v>19.725555555555555</v>
+      </c>
+      <c r="S251">
+        <v>19.535555555555558</v>
+      </c>
+      <c r="T251">
+        <v>19.482638888888889</v>
+      </c>
+    </row>
+    <row r="252" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A252" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="B252" s="1">
         <v>44871</v>
       </c>
-    </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="G252">
+        <v>17.863333333333333</v>
+      </c>
+      <c r="H252">
+        <v>21.373055555555553</v>
+      </c>
+      <c r="I252">
+        <v>25.42</v>
+      </c>
+      <c r="J252">
+        <v>19.693333333333332</v>
+      </c>
+      <c r="K252">
+        <v>20.788194444444443</v>
+      </c>
+      <c r="L252">
+        <v>21.77</v>
+      </c>
+      <c r="M252">
+        <v>19.97</v>
+      </c>
+      <c r="N252">
+        <v>20.331944444444442</v>
+      </c>
+      <c r="O252">
+        <v>20.623333333333331</v>
+      </c>
+      <c r="P252">
+        <v>20.164583333333336</v>
+      </c>
+      <c r="Q252">
+        <v>19.7775</v>
+      </c>
+      <c r="R252">
+        <v>19.736805555555559</v>
+      </c>
+      <c r="S252">
+        <v>19.527777777777775</v>
+      </c>
+      <c r="T252">
+        <v>19.475833333333338</v>
+      </c>
+    </row>
+    <row r="253" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A253" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="B253" s="1">
         <v>44872</v>
       </c>
-    </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="G253">
+        <v>18.25</v>
+      </c>
+      <c r="H253">
+        <v>21.771666666666665</v>
+      </c>
+      <c r="I253">
+        <v>26.173333333333332</v>
+      </c>
+      <c r="J253">
+        <v>19.906666666666666</v>
+      </c>
+      <c r="K253">
+        <v>20.991250000000004</v>
+      </c>
+      <c r="L253">
+        <v>22.103333333333335</v>
+      </c>
+      <c r="M253">
+        <v>20.09</v>
+      </c>
+      <c r="N253">
+        <v>20.45611111111111</v>
+      </c>
+      <c r="O253">
+        <v>20.853333333333335</v>
+      </c>
+      <c r="P253">
+        <v>20.22583333333333</v>
+      </c>
+      <c r="Q253">
+        <v>19.823472222222222</v>
+      </c>
+      <c r="R253">
+        <v>19.760416666666671</v>
+      </c>
+      <c r="S253">
+        <v>19.544305555555557</v>
+      </c>
+      <c r="T253">
+        <v>19.486944444444443</v>
+      </c>
+    </row>
+    <row r="254" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A254" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="B254" s="1">
         <v>44873</v>
       </c>
-    </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="G254">
+        <v>18.093333333333334</v>
+      </c>
+      <c r="H254">
+        <v>21.992083333333337</v>
+      </c>
+      <c r="I254">
+        <v>26.900000000000002</v>
+      </c>
+      <c r="J254">
+        <v>19.943333333333332</v>
+      </c>
+      <c r="K254">
+        <v>21.184305555555554</v>
+      </c>
+      <c r="L254">
+        <v>22.366666666666664</v>
+      </c>
+      <c r="M254">
+        <v>20.213333333333335</v>
+      </c>
+      <c r="N254">
+        <v>20.610138888888887</v>
+      </c>
+      <c r="O254">
+        <v>21.016666666666666</v>
+      </c>
+      <c r="P254">
+        <v>20.350416666666664</v>
+      </c>
+      <c r="Q254">
+        <v>19.909444444444446</v>
+      </c>
+      <c r="R254">
+        <v>19.832222222222221</v>
+      </c>
+      <c r="S254">
+        <v>19.589305555555551</v>
+      </c>
+      <c r="T254">
+        <v>19.518472222222218</v>
+      </c>
+    </row>
+    <row r="255" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A255" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="B255" s="1">
         <v>44874</v>
       </c>
-    </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="G255">
+        <v>18.29</v>
+      </c>
+      <c r="H255">
+        <v>22.521944444444443</v>
+      </c>
+      <c r="I255">
+        <v>27.5</v>
+      </c>
+      <c r="J255">
+        <v>20.159999999999997</v>
+      </c>
+      <c r="K255">
+        <v>21.481111111111108</v>
+      </c>
+      <c r="L255">
+        <v>22.78</v>
+      </c>
+      <c r="M255">
+        <v>20.373333333333331</v>
+      </c>
+      <c r="N255">
+        <v>20.807222222222219</v>
+      </c>
+      <c r="O255">
+        <v>21.279999999999998</v>
+      </c>
+      <c r="P255">
+        <v>20.490972222222222</v>
+      </c>
+      <c r="Q255">
+        <v>20.015972222222221</v>
+      </c>
+      <c r="R255">
+        <v>19.910555555555558</v>
+      </c>
+      <c r="S255">
+        <v>19.650972222222226</v>
+      </c>
+      <c r="T255">
+        <v>19.578611111111112</v>
+      </c>
+    </row>
+    <row r="256" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A256" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="B256" s="1">
         <v>44875</v>
       </c>
-    </row>
-    <row r="257" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="G256">
+        <v>18.606666666666666</v>
+      </c>
+      <c r="H256">
+        <v>22.678333333333331</v>
+      </c>
+      <c r="I256">
+        <v>27.323333333333334</v>
+      </c>
+      <c r="J256">
+        <v>20.453333333333333</v>
+      </c>
+      <c r="K256">
+        <v>21.759027777777778</v>
+      </c>
+      <c r="L256">
+        <v>22.936666666666667</v>
+      </c>
+      <c r="M256">
+        <v>20.653333333333332</v>
+      </c>
+      <c r="N256">
+        <v>21.061250000000001</v>
+      </c>
+      <c r="O256">
+        <v>21.496666666666666</v>
+      </c>
+      <c r="P256">
+        <v>20.690277777777776</v>
+      </c>
+      <c r="Q256">
+        <v>20.156944444444445</v>
+      </c>
+      <c r="R256">
+        <v>20.015138888888885</v>
+      </c>
+      <c r="S256">
+        <v>19.731944444444441</v>
+      </c>
+      <c r="T256">
+        <v>19.631527777777777</v>
+      </c>
+    </row>
+    <row r="257" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B257" s="1"/>
-    </row>
-    <row r="258" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="G257">
+        <v>18.683333333333334</v>
+      </c>
+      <c r="H257">
+        <v>21.419285714285717</v>
+      </c>
+      <c r="I257">
+        <v>28.963333333333335</v>
+      </c>
+      <c r="J257">
+        <v>20.596666666666664</v>
+      </c>
+      <c r="K257">
+        <v>21.448095238095235</v>
+      </c>
+      <c r="L257">
+        <v>22.676666666666666</v>
+      </c>
+      <c r="M257">
+        <v>20.86</v>
+      </c>
+      <c r="N257">
+        <v>21.266190476190474</v>
+      </c>
+      <c r="O257">
+        <v>21.543333333333333</v>
+      </c>
+      <c r="P257">
+        <v>20.958809523809524</v>
+      </c>
+      <c r="Q257">
+        <v>20.352142857142859</v>
+      </c>
+      <c r="R257">
+        <v>20.162380952380953</v>
+      </c>
+      <c r="S257">
+        <v>19.848809523809525</v>
+      </c>
+      <c r="T257">
+        <v>19.74761904761905</v>
+      </c>
+    </row>
+    <row r="258" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B258" s="1"/>
     </row>
-    <row r="259" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="259" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B259" s="1"/>
     </row>
-    <row r="260" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="260" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B260" s="1"/>
     </row>
-    <row r="261" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="261" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B261" s="1"/>
     </row>
-    <row r="262" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="262" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B262" s="1"/>
     </row>
-    <row r="263" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="263" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B263" s="1"/>
     </row>
-    <row r="264" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="264" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B264" s="1"/>
     </row>
-    <row r="265" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="265" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B265" s="1"/>
     </row>
-    <row r="266" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="266" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B266" s="1"/>
     </row>
-    <row r="267" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="267" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B267" s="1"/>
     </row>
-    <row r="268" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="268" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B268" s="1"/>
     </row>
-    <row r="269" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="269" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B269" s="1"/>
     </row>
-    <row r="270" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="270" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B270" s="1"/>
     </row>
-    <row r="271" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="271" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B271" s="1"/>
     </row>
-    <row r="272" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="272" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B272" s="1"/>
     </row>
     <row r="273" spans="2:2" x14ac:dyDescent="0.45">
